--- a/stats.xlsx
+++ b/stats.xlsx
@@ -32,6 +32,8 @@
     <sheet name="lvsuv" sheetId="24" state="visible" r:id="rId24"/>
     <sheet name="mahelvilson" sheetId="25" state="visible" r:id="rId25"/>
     <sheet name="mogicul" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="imeowinvc1" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="qrsn1" sheetId="28" state="visible" r:id="rId28"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16290,6 +16292,1156 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B1" s="9" t="inlineStr">
+        <is>
+          <t>All-time</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="inlineStr">
+        <is>
+          <t>Session Delta</t>
+        </is>
+      </c>
+      <c r="D1" s="9" t="inlineStr">
+        <is>
+          <t>Session Snapshot</t>
+        </is>
+      </c>
+      <c r="E1" s="9" t="inlineStr">
+        <is>
+          <t>Daily Delta</t>
+        </is>
+      </c>
+      <c r="F1" s="9" t="inlineStr">
+        <is>
+          <t>Daily Snapshot</t>
+        </is>
+      </c>
+      <c r="G1" s="9" t="inlineStr">
+        <is>
+          <t>Yesterday Delta</t>
+        </is>
+      </c>
+      <c r="H1" s="9" t="inlineStr">
+        <is>
+          <t>Yesterday Snapshot</t>
+        </is>
+      </c>
+      <c r="I1" s="9" t="inlineStr">
+        <is>
+          <t>Monthly Delta</t>
+        </is>
+      </c>
+      <c r="J1" s="9" t="inlineStr">
+        <is>
+          <t>Monthly Snapshot</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>available_layers</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <f>B2-D2</f>
+        <v/>
+      </c>
+      <c r="E2">
+        <f>B2-F2</f>
+        <v/>
+      </c>
+      <c r="G2">
+        <f>B2-H2</f>
+        <v/>
+      </c>
+      <c r="I2">
+        <f>B2-J2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>experience</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>326682.9166666656</v>
+      </c>
+      <c r="C3">
+        <f>B3-D3</f>
+        <v/>
+      </c>
+      <c r="E3">
+        <f>B3-F3</f>
+        <v/>
+      </c>
+      <c r="G3">
+        <f>B3-H3</f>
+        <v/>
+      </c>
+      <c r="I3">
+        <f>B3-J3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>level</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>67</v>
+      </c>
+      <c r="C4">
+        <f>B4-D4</f>
+        <v/>
+      </c>
+      <c r="E4">
+        <f>B4-F4</f>
+        <v/>
+      </c>
+      <c r="G4">
+        <f>B4-H4</f>
+        <v/>
+      </c>
+      <c r="I4">
+        <f>B4-J4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>coins</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>54770</v>
+      </c>
+      <c r="C5">
+        <f>B5-D5</f>
+        <v/>
+      </c>
+      <c r="E5">
+        <f>B5-F5</f>
+        <v/>
+      </c>
+      <c r="G5">
+        <f>B5-H5</f>
+        <v/>
+      </c>
+      <c r="I5">
+        <f>B5-J5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>damage_dealt</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>125229</v>
+      </c>
+      <c r="C6">
+        <f>B6-D6</f>
+        <v/>
+      </c>
+      <c r="E6">
+        <f>B6-F6</f>
+        <v/>
+      </c>
+      <c r="G6">
+        <f>B6-H6</f>
+        <v/>
+      </c>
+      <c r="I6">
+        <f>B6-J6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>875</v>
+      </c>
+      <c r="C7">
+        <f>B7-D7</f>
+        <v/>
+      </c>
+      <c r="E7">
+        <f>B7-F7</f>
+        <v/>
+      </c>
+      <c r="G7">
+        <f>B7-H7</f>
+        <v/>
+      </c>
+      <c r="I7">
+        <f>B7-J7</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>deaths_explosive</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>228</v>
+      </c>
+      <c r="C8">
+        <f>B8-D8</f>
+        <v/>
+      </c>
+      <c r="E8">
+        <f>B8-F8</f>
+        <v/>
+      </c>
+      <c r="G8">
+        <f>B8-H8</f>
+        <v/>
+      </c>
+      <c r="I8">
+        <f>B8-J8</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>games_played</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3356</v>
+      </c>
+      <c r="C9">
+        <f>B9-D9</f>
+        <v/>
+      </c>
+      <c r="E9">
+        <f>B9-F9</f>
+        <v/>
+      </c>
+      <c r="G9">
+        <f>B9-H9</f>
+        <v/>
+      </c>
+      <c r="I9">
+        <f>B9-J9</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>losses</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>473</v>
+      </c>
+      <c r="C10">
+        <f>B10-D10</f>
+        <v/>
+      </c>
+      <c r="E10">
+        <f>B10-F10</f>
+        <v/>
+      </c>
+      <c r="G10">
+        <f>B10-H10</f>
+        <v/>
+      </c>
+      <c r="I10">
+        <f>B10-J10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sheep_thrown</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>41522</v>
+      </c>
+      <c r="C11">
+        <f>B11-D11</f>
+        <v/>
+      </c>
+      <c r="E11">
+        <f>B11-F11</f>
+        <v/>
+      </c>
+      <c r="G11">
+        <f>B11-H11</f>
+        <v/>
+      </c>
+      <c r="I11">
+        <f>B11-J11</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>deaths_bow</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <f>B12-D12</f>
+        <v/>
+      </c>
+      <c r="E12">
+        <f>B12-F12</f>
+        <v/>
+      </c>
+      <c r="G12">
+        <f>B12-H12</f>
+        <v/>
+      </c>
+      <c r="I12">
+        <f>B12-J12</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>deaths_void</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>608</v>
+      </c>
+      <c r="C13">
+        <f>B13-D13</f>
+        <v/>
+      </c>
+      <c r="E13">
+        <f>B13-F13</f>
+        <v/>
+      </c>
+      <c r="G13">
+        <f>B13-H13</f>
+        <v/>
+      </c>
+      <c r="I13">
+        <f>B13-J13</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>wins</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2875</v>
+      </c>
+      <c r="C14">
+        <f>B14-D14</f>
+        <v/>
+      </c>
+      <c r="E14">
+        <f>B14-F14</f>
+        <v/>
+      </c>
+      <c r="G14">
+        <f>B14-H14</f>
+        <v/>
+      </c>
+      <c r="I14">
+        <f>B14-J14</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>kills</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5725</v>
+      </c>
+      <c r="C15">
+        <f>B15-D15</f>
+        <v/>
+      </c>
+      <c r="E15">
+        <f>B15-F15</f>
+        <v/>
+      </c>
+      <c r="G15">
+        <f>B15-H15</f>
+        <v/>
+      </c>
+      <c r="I15">
+        <f>B15-J15</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>kills_void</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3526</v>
+      </c>
+      <c r="C16">
+        <f>B16-D16</f>
+        <v/>
+      </c>
+      <c r="E16">
+        <f>B16-F16</f>
+        <v/>
+      </c>
+      <c r="G16">
+        <f>B16-H16</f>
+        <v/>
+      </c>
+      <c r="I16">
+        <f>B16-J16</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>magic_wool_hit</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2885</v>
+      </c>
+      <c r="C17">
+        <f>B17-D17</f>
+        <v/>
+      </c>
+      <c r="E17">
+        <f>B17-F17</f>
+        <v/>
+      </c>
+      <c r="G17">
+        <f>B17-H17</f>
+        <v/>
+      </c>
+      <c r="I17">
+        <f>B17-J17</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>kills_explosive</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1881</v>
+      </c>
+      <c r="C18">
+        <f>B18-D18</f>
+        <v/>
+      </c>
+      <c r="E18">
+        <f>B18-F18</f>
+        <v/>
+      </c>
+      <c r="G18">
+        <f>B18-H18</f>
+        <v/>
+      </c>
+      <c r="I18">
+        <f>B18-J18</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>kills_melee</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>63</v>
+      </c>
+      <c r="C19">
+        <f>B19-D19</f>
+        <v/>
+      </c>
+      <c r="E19">
+        <f>B19-F19</f>
+        <v/>
+      </c>
+      <c r="G19">
+        <f>B19-H19</f>
+        <v/>
+      </c>
+      <c r="I19">
+        <f>B19-J19</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>deaths_melee</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <f>B20-D20</f>
+        <v/>
+      </c>
+      <c r="E20">
+        <f>B20-F20</f>
+        <v/>
+      </c>
+      <c r="G20">
+        <f>B20-H20</f>
+        <v/>
+      </c>
+      <c r="I20">
+        <f>B20-J20</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>kills_bow</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>255</v>
+      </c>
+      <c r="C21">
+        <f>B21-D21</f>
+        <v/>
+      </c>
+      <c r="E21">
+        <f>B21-F21</f>
+        <v/>
+      </c>
+      <c r="G21">
+        <f>B21-H21</f>
+        <v/>
+      </c>
+      <c r="I21">
+        <f>B21-J21</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>playtime</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>348751</v>
+      </c>
+      <c r="C22">
+        <f>B22-D22</f>
+        <v/>
+      </c>
+      <c r="E22">
+        <f>B22-F22</f>
+        <v/>
+      </c>
+      <c r="G22">
+        <f>B22-H22</f>
+        <v/>
+      </c>
+      <c r="I22">
+        <f>B22-J22</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B1" s="9" t="inlineStr">
+        <is>
+          <t>All-time</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="inlineStr">
+        <is>
+          <t>Session Delta</t>
+        </is>
+      </c>
+      <c r="D1" s="9" t="inlineStr">
+        <is>
+          <t>Session Snapshot</t>
+        </is>
+      </c>
+      <c r="E1" s="9" t="inlineStr">
+        <is>
+          <t>Daily Delta</t>
+        </is>
+      </c>
+      <c r="F1" s="9" t="inlineStr">
+        <is>
+          <t>Daily Snapshot</t>
+        </is>
+      </c>
+      <c r="G1" s="9" t="inlineStr">
+        <is>
+          <t>Yesterday Delta</t>
+        </is>
+      </c>
+      <c r="H1" s="9" t="inlineStr">
+        <is>
+          <t>Yesterday Snapshot</t>
+        </is>
+      </c>
+      <c r="I1" s="9" t="inlineStr">
+        <is>
+          <t>Monthly Delta</t>
+        </is>
+      </c>
+      <c r="J1" s="9" t="inlineStr">
+        <is>
+          <t>Monthly Snapshot</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>available_layers</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>experience</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1240482.500000003</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1240482.500000003</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1240482.500000003</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1240482.500000003</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1240482.500000003</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>level</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>255</v>
+      </c>
+      <c r="C4" t="n">
+        <v>255</v>
+      </c>
+      <c r="E4" t="n">
+        <v>255</v>
+      </c>
+      <c r="G4" t="n">
+        <v>255</v>
+      </c>
+      <c r="I4" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>coins</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>72137</v>
+      </c>
+      <c r="C5" t="n">
+        <v>72137</v>
+      </c>
+      <c r="E5" t="n">
+        <v>72137</v>
+      </c>
+      <c r="G5" t="n">
+        <v>72137</v>
+      </c>
+      <c r="I5" t="n">
+        <v>72137</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>damage_dealt</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>383995</v>
+      </c>
+      <c r="C6" t="n">
+        <v>383995</v>
+      </c>
+      <c r="E6" t="n">
+        <v>383995</v>
+      </c>
+      <c r="G6" t="n">
+        <v>383995</v>
+      </c>
+      <c r="I6" t="n">
+        <v>383995</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4382</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4382</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4382</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4382</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4382</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>deaths_explosive</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1027</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1027</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1027</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1027</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>games_played</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10995</v>
+      </c>
+      <c r="C9" t="n">
+        <v>10995</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10995</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10995</v>
+      </c>
+      <c r="I9" t="n">
+        <v>10995</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>losses</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2864</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2864</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2864</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2864</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sheep_thrown</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>145263</v>
+      </c>
+      <c r="C11" t="n">
+        <v>145263</v>
+      </c>
+      <c r="E11" t="n">
+        <v>145263</v>
+      </c>
+      <c r="G11" t="n">
+        <v>145263</v>
+      </c>
+      <c r="I11" t="n">
+        <v>145263</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>deaths_bow</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>68</v>
+      </c>
+      <c r="C12" t="n">
+        <v>68</v>
+      </c>
+      <c r="E12" t="n">
+        <v>68</v>
+      </c>
+      <c r="G12" t="n">
+        <v>68</v>
+      </c>
+      <c r="I12" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>deaths_void</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3194</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3194</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3194</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3194</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>wins</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8121</v>
+      </c>
+      <c r="C14" t="n">
+        <v>8121</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8121</v>
+      </c>
+      <c r="G14" t="n">
+        <v>8121</v>
+      </c>
+      <c r="I14" t="n">
+        <v>8121</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>kills</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>16601</v>
+      </c>
+      <c r="C15" t="n">
+        <v>16601</v>
+      </c>
+      <c r="E15" t="n">
+        <v>16601</v>
+      </c>
+      <c r="G15" t="n">
+        <v>16601</v>
+      </c>
+      <c r="I15" t="n">
+        <v>16601</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>kills_void</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10699</v>
+      </c>
+      <c r="C16" t="n">
+        <v>10699</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10699</v>
+      </c>
+      <c r="G16" t="n">
+        <v>10699</v>
+      </c>
+      <c r="I16" t="n">
+        <v>10699</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>magic_wool_hit</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1970</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1970</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1970</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1970</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>kills_explosive</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>5165</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5165</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5165</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5165</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5165</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>kills_melee</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>120</v>
+      </c>
+      <c r="C19" t="n">
+        <v>120</v>
+      </c>
+      <c r="E19" t="n">
+        <v>120</v>
+      </c>
+      <c r="G19" t="n">
+        <v>120</v>
+      </c>
+      <c r="I19" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>deaths_melee</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>34</v>
+      </c>
+      <c r="C20" t="n">
+        <v>34</v>
+      </c>
+      <c r="E20" t="n">
+        <v>34</v>
+      </c>
+      <c r="G20" t="n">
+        <v>34</v>
+      </c>
+      <c r="I20" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>kills_bow</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>616</v>
+      </c>
+      <c r="C21" t="n">
+        <v>616</v>
+      </c>
+      <c r="E21" t="n">
+        <v>616</v>
+      </c>
+      <c r="G21" t="n">
+        <v>616</v>
+      </c>
+      <c r="I21" t="n">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>playtime</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1246134</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1246134</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1246134</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1246134</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1246134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -16375,32 +17527,28 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="C2" s="7">
-        <f>B2-D2</f>
-        <v/>
+        <v>21</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="E2" s="7">
-        <f>B2-F2</f>
-        <v/>
+      <c r="E2" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="G2" s="7">
-        <f>B2-H2</f>
-        <v/>
+      <c r="G2" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="I2" s="7">
-        <f>B2-J2</f>
-        <v/>
+      <c r="I2" s="7" t="n">
+        <v>-2</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>23</v>
@@ -16413,32 +17561,28 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>307917.4999999991</v>
-      </c>
-      <c r="C3" s="7">
-        <f>B3-D3</f>
-        <v/>
+        <v>326682.9166666656</v>
+      </c>
+      <c r="C3" s="7" t="n">
+        <v>18765.41666666651</v>
       </c>
       <c r="D3" s="6" t="n">
         <v>307917.4999999991</v>
       </c>
-      <c r="E3" s="7">
-        <f>B3-F3</f>
-        <v/>
+      <c r="E3" s="7" t="n">
+        <v>18765.41666666651</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>307917.4999999991</v>
       </c>
-      <c r="G3" s="7">
-        <f>B3-H3</f>
-        <v/>
+      <c r="G3" s="7" t="n">
+        <v>18765.41666666651</v>
       </c>
       <c r="H3" s="6" t="n">
         <v>307917.4999999991</v>
       </c>
-      <c r="I3" s="7">
-        <f>B3-J3</f>
-        <v/>
+      <c r="I3" s="7" t="n">
+        <v>18765.41666666651</v>
       </c>
       <c r="J3" s="6" t="n">
         <v>307917.4999999991</v>
@@ -16451,32 +17595,28 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>64</v>
-      </c>
-      <c r="C4" s="7">
-        <f>B4-D4</f>
-        <v/>
+        <v>67</v>
+      </c>
+      <c r="C4" s="7" t="n">
+        <v>3</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>64</v>
       </c>
-      <c r="E4" s="7">
-        <f>B4-F4</f>
-        <v/>
+      <c r="E4" s="7" t="n">
+        <v>3</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>64</v>
       </c>
-      <c r="G4" s="7">
-        <f>B4-H4</f>
-        <v/>
+      <c r="G4" s="7" t="n">
+        <v>3</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>64</v>
       </c>
-      <c r="I4" s="7">
-        <f>B4-J4</f>
-        <v/>
+      <c r="I4" s="7" t="n">
+        <v>3</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>64</v>
@@ -16489,32 +17629,28 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>52840</v>
-      </c>
-      <c r="C5" s="7">
-        <f>B5-D5</f>
-        <v/>
+        <v>54770</v>
+      </c>
+      <c r="C5" s="7" t="n">
+        <v>1930</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>52840</v>
       </c>
-      <c r="E5" s="7">
-        <f>B5-F5</f>
-        <v/>
+      <c r="E5" s="7" t="n">
+        <v>1930</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>52840</v>
       </c>
-      <c r="G5" s="7">
-        <f>B5-H5</f>
-        <v/>
+      <c r="G5" s="7" t="n">
+        <v>1930</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>52840</v>
       </c>
-      <c r="I5" s="7">
-        <f>B5-J5</f>
-        <v/>
+      <c r="I5" s="7" t="n">
+        <v>1930</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>52840</v>
@@ -16527,32 +17663,28 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>118434</v>
-      </c>
-      <c r="C6" s="7">
-        <f>B6-D6</f>
-        <v/>
+        <v>125229</v>
+      </c>
+      <c r="C6" s="7" t="n">
+        <v>6795</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>118434</v>
       </c>
-      <c r="E6" s="7">
-        <f>B6-F6</f>
-        <v/>
+      <c r="E6" s="7" t="n">
+        <v>6795</v>
       </c>
       <c r="F6" s="4" t="n">
         <v>118434</v>
       </c>
-      <c r="G6" s="7">
-        <f>B6-H6</f>
-        <v/>
+      <c r="G6" s="7" t="n">
+        <v>6795</v>
       </c>
       <c r="H6" s="4" t="n">
         <v>118434</v>
       </c>
-      <c r="I6" s="7">
-        <f>B6-J6</f>
-        <v/>
+      <c r="I6" s="7" t="n">
+        <v>6795</v>
       </c>
       <c r="J6" s="4" t="n">
         <v>118434</v>
@@ -16565,32 +17697,28 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>836</v>
-      </c>
-      <c r="C7" s="7">
-        <f>B7-D7</f>
-        <v/>
+        <v>875</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <v>39</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>836</v>
       </c>
-      <c r="E7" s="7">
-        <f>B7-F7</f>
-        <v/>
+      <c r="E7" s="7" t="n">
+        <v>39</v>
       </c>
       <c r="F7" s="4" t="n">
         <v>836</v>
       </c>
-      <c r="G7" s="7">
-        <f>B7-H7</f>
-        <v/>
+      <c r="G7" s="7" t="n">
+        <v>39</v>
       </c>
       <c r="H7" s="4" t="n">
         <v>836</v>
       </c>
-      <c r="I7" s="7">
-        <f>B7-J7</f>
-        <v/>
+      <c r="I7" s="7" t="n">
+        <v>39</v>
       </c>
       <c r="J7" s="4" t="n">
         <v>836</v>
@@ -16603,32 +17731,28 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>216</v>
-      </c>
-      <c r="C8" s="7">
-        <f>B8-D8</f>
-        <v/>
+        <v>228</v>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>12</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>216</v>
       </c>
-      <c r="E8" s="7">
-        <f>B8-F8</f>
-        <v/>
+      <c r="E8" s="7" t="n">
+        <v>12</v>
       </c>
       <c r="F8" s="4" t="n">
         <v>216</v>
       </c>
-      <c r="G8" s="7">
-        <f>B8-H8</f>
-        <v/>
+      <c r="G8" s="7" t="n">
+        <v>12</v>
       </c>
       <c r="H8" s="4" t="n">
         <v>216</v>
       </c>
-      <c r="I8" s="7">
-        <f>B8-J8</f>
-        <v/>
+      <c r="I8" s="7" t="n">
+        <v>12</v>
       </c>
       <c r="J8" s="4" t="n">
         <v>216</v>
@@ -16641,32 +17765,28 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>3176</v>
-      </c>
-      <c r="C9" s="7">
-        <f>B9-D9</f>
-        <v/>
+        <v>3356</v>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>180</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>3176</v>
       </c>
-      <c r="E9" s="7">
-        <f>B9-F9</f>
-        <v/>
+      <c r="E9" s="7" t="n">
+        <v>180</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>3176</v>
       </c>
-      <c r="G9" s="7">
-        <f>B9-H9</f>
-        <v/>
+      <c r="G9" s="7" t="n">
+        <v>180</v>
       </c>
       <c r="H9" s="4" t="n">
         <v>3176</v>
       </c>
-      <c r="I9" s="7">
-        <f>B9-J9</f>
-        <v/>
+      <c r="I9" s="7" t="n">
+        <v>180</v>
       </c>
       <c r="J9" s="4" t="n">
         <v>3176</v>
@@ -16679,32 +17799,28 @@
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>453</v>
-      </c>
-      <c r="C10" s="7">
-        <f>B10-D10</f>
-        <v/>
+        <v>473</v>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>20</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>453</v>
       </c>
-      <c r="E10" s="7">
-        <f>B10-F10</f>
-        <v/>
+      <c r="E10" s="7" t="n">
+        <v>20</v>
       </c>
       <c r="F10" s="4" t="n">
         <v>453</v>
       </c>
-      <c r="G10" s="7">
-        <f>B10-H10</f>
-        <v/>
+      <c r="G10" s="7" t="n">
+        <v>20</v>
       </c>
       <c r="H10" s="4" t="n">
         <v>453</v>
       </c>
-      <c r="I10" s="7">
-        <f>B10-J10</f>
-        <v/>
+      <c r="I10" s="7" t="n">
+        <v>20</v>
       </c>
       <c r="J10" s="4" t="n">
         <v>453</v>
@@ -16717,32 +17833,28 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>39120</v>
-      </c>
-      <c r="C11" s="7">
-        <f>B11-D11</f>
-        <v/>
+        <v>41522</v>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>2402</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>39120</v>
       </c>
-      <c r="E11" s="7">
-        <f>B11-F11</f>
-        <v/>
+      <c r="E11" s="7" t="n">
+        <v>2402</v>
       </c>
       <c r="F11" s="4" t="n">
         <v>39120</v>
       </c>
-      <c r="G11" s="7">
-        <f>B11-H11</f>
-        <v/>
+      <c r="G11" s="7" t="n">
+        <v>2402</v>
       </c>
       <c r="H11" s="4" t="n">
         <v>39120</v>
       </c>
-      <c r="I11" s="7">
-        <f>B11-J11</f>
-        <v/>
+      <c r="I11" s="7" t="n">
+        <v>2402</v>
       </c>
       <c r="J11" s="4" t="n">
         <v>39120</v>
@@ -16757,30 +17869,26 @@
       <c r="B12" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="C12" s="7">
-        <f>B12-D12</f>
-        <v/>
+      <c r="C12" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="E12" s="7">
-        <f>B12-F12</f>
-        <v/>
+      <c r="E12" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F12" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="G12" s="7">
-        <f>B12-H12</f>
-        <v/>
+      <c r="G12" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="H12" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="I12" s="7">
-        <f>B12-J12</f>
-        <v/>
+      <c r="I12" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="J12" s="4" t="n">
         <v>20</v>
@@ -16793,32 +17901,28 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>582</v>
-      </c>
-      <c r="C13" s="7">
-        <f>B13-D13</f>
-        <v/>
+        <v>608</v>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>26</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>582</v>
       </c>
-      <c r="E13" s="7">
-        <f>B13-F13</f>
-        <v/>
+      <c r="E13" s="7" t="n">
+        <v>26</v>
       </c>
       <c r="F13" s="4" t="n">
         <v>582</v>
       </c>
-      <c r="G13" s="7">
-        <f>B13-H13</f>
-        <v/>
+      <c r="G13" s="7" t="n">
+        <v>26</v>
       </c>
       <c r="H13" s="4" t="n">
         <v>582</v>
       </c>
-      <c r="I13" s="7">
-        <f>B13-J13</f>
-        <v/>
+      <c r="I13" s="7" t="n">
+        <v>26</v>
       </c>
       <c r="J13" s="4" t="n">
         <v>582</v>
@@ -16831,32 +17935,28 @@
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>2715</v>
-      </c>
-      <c r="C14" s="7">
-        <f>B14-D14</f>
-        <v/>
+        <v>2875</v>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>160</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>2715</v>
       </c>
-      <c r="E14" s="7">
-        <f>B14-F14</f>
-        <v/>
+      <c r="E14" s="7" t="n">
+        <v>160</v>
       </c>
       <c r="F14" s="4" t="n">
         <v>2715</v>
       </c>
-      <c r="G14" s="7">
-        <f>B14-H14</f>
-        <v/>
+      <c r="G14" s="7" t="n">
+        <v>160</v>
       </c>
       <c r="H14" s="4" t="n">
         <v>2715</v>
       </c>
-      <c r="I14" s="7">
-        <f>B14-J14</f>
-        <v/>
+      <c r="I14" s="7" t="n">
+        <v>160</v>
       </c>
       <c r="J14" s="4" t="n">
         <v>2715</v>
@@ -16869,32 +17969,28 @@
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>5405</v>
-      </c>
-      <c r="C15" s="7">
-        <f>B15-D15</f>
-        <v/>
+        <v>5725</v>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>320</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>5405</v>
       </c>
-      <c r="E15" s="7">
-        <f>B15-F15</f>
-        <v/>
+      <c r="E15" s="7" t="n">
+        <v>320</v>
       </c>
       <c r="F15" s="4" t="n">
         <v>5405</v>
       </c>
-      <c r="G15" s="7">
-        <f>B15-H15</f>
-        <v/>
+      <c r="G15" s="7" t="n">
+        <v>320</v>
       </c>
       <c r="H15" s="4" t="n">
         <v>5405</v>
       </c>
-      <c r="I15" s="7">
-        <f>B15-J15</f>
-        <v/>
+      <c r="I15" s="7" t="n">
+        <v>320</v>
       </c>
       <c r="J15" s="4" t="n">
         <v>5405</v>
@@ -16907,32 +18003,28 @@
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>3324</v>
-      </c>
-      <c r="C16" s="7">
-        <f>B16-D16</f>
-        <v/>
+        <v>3526</v>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>202</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>3324</v>
       </c>
-      <c r="E16" s="7">
-        <f>B16-F16</f>
-        <v/>
+      <c r="E16" s="7" t="n">
+        <v>202</v>
       </c>
       <c r="F16" s="4" t="n">
         <v>3324</v>
       </c>
-      <c r="G16" s="7">
-        <f>B16-H16</f>
-        <v/>
+      <c r="G16" s="7" t="n">
+        <v>202</v>
       </c>
       <c r="H16" s="4" t="n">
         <v>3324</v>
       </c>
-      <c r="I16" s="7">
-        <f>B16-J16</f>
-        <v/>
+      <c r="I16" s="7" t="n">
+        <v>202</v>
       </c>
       <c r="J16" s="4" t="n">
         <v>3324</v>
@@ -16945,32 +18037,28 @@
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>2735</v>
-      </c>
-      <c r="C17" s="7">
-        <f>B17-D17</f>
-        <v/>
+        <v>2885</v>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>150</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>2735</v>
       </c>
-      <c r="E17" s="7">
-        <f>B17-F17</f>
-        <v/>
+      <c r="E17" s="7" t="n">
+        <v>150</v>
       </c>
       <c r="F17" s="4" t="n">
         <v>2735</v>
       </c>
-      <c r="G17" s="7">
-        <f>B17-H17</f>
-        <v/>
+      <c r="G17" s="7" t="n">
+        <v>150</v>
       </c>
       <c r="H17" s="4" t="n">
         <v>2735</v>
       </c>
-      <c r="I17" s="7">
-        <f>B17-J17</f>
-        <v/>
+      <c r="I17" s="7" t="n">
+        <v>150</v>
       </c>
       <c r="J17" s="4" t="n">
         <v>2735</v>
@@ -16983,32 +18071,28 @@
         </is>
       </c>
       <c r="B18" s="4" t="n">
-        <v>1778</v>
-      </c>
-      <c r="C18" s="7">
-        <f>B18-D18</f>
-        <v/>
+        <v>1881</v>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>103</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>1778</v>
       </c>
-      <c r="E18" s="7">
-        <f>B18-F18</f>
-        <v/>
+      <c r="E18" s="7" t="n">
+        <v>103</v>
       </c>
       <c r="F18" s="4" t="n">
         <v>1778</v>
       </c>
-      <c r="G18" s="7">
-        <f>B18-H18</f>
-        <v/>
+      <c r="G18" s="7" t="n">
+        <v>103</v>
       </c>
       <c r="H18" s="4" t="n">
         <v>1778</v>
       </c>
-      <c r="I18" s="7">
-        <f>B18-J18</f>
-        <v/>
+      <c r="I18" s="7" t="n">
+        <v>103</v>
       </c>
       <c r="J18" s="4" t="n">
         <v>1778</v>
@@ -17021,32 +18105,28 @@
         </is>
       </c>
       <c r="B19" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="C19" s="7">
-        <f>B19-D19</f>
-        <v/>
+        <v>63</v>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>3</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="E19" s="7">
-        <f>B19-F19</f>
-        <v/>
+      <c r="E19" s="7" t="n">
+        <v>3</v>
       </c>
       <c r="F19" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="G19" s="7">
-        <f>B19-H19</f>
-        <v/>
+      <c r="G19" s="7" t="n">
+        <v>3</v>
       </c>
       <c r="H19" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="I19" s="7">
-        <f>B19-J19</f>
-        <v/>
+      <c r="I19" s="7" t="n">
+        <v>3</v>
       </c>
       <c r="J19" s="4" t="n">
         <v>60</v>
@@ -17059,32 +18139,28 @@
         </is>
       </c>
       <c r="B20" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="C20" s="7">
-        <f>B20-D20</f>
-        <v/>
+        <v>10</v>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="E20" s="7">
-        <f>B20-F20</f>
-        <v/>
+      <c r="E20" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="F20" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="G20" s="7">
-        <f>B20-H20</f>
-        <v/>
+      <c r="G20" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="H20" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="I20" s="7">
-        <f>B20-J20</f>
-        <v/>
+      <c r="I20" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="J20" s="4" t="n">
         <v>9</v>
@@ -17097,32 +18173,28 @@
         </is>
       </c>
       <c r="B21" s="4" t="n">
-        <v>243</v>
-      </c>
-      <c r="C21" s="7">
-        <f>B21-D21</f>
-        <v/>
+        <v>255</v>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>12</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>243</v>
       </c>
-      <c r="E21" s="7">
-        <f>B21-F21</f>
-        <v/>
+      <c r="E21" s="7" t="n">
+        <v>12</v>
       </c>
       <c r="F21" s="4" t="n">
         <v>243</v>
       </c>
-      <c r="G21" s="7">
-        <f>B21-H21</f>
-        <v/>
+      <c r="G21" s="7" t="n">
+        <v>12</v>
       </c>
       <c r="H21" s="4" t="n">
         <v>243</v>
       </c>
-      <c r="I21" s="7">
-        <f>B21-J21</f>
-        <v/>
+      <c r="I21" s="7" t="n">
+        <v>12</v>
       </c>
       <c r="J21" s="4" t="n">
         <v>243</v>
@@ -17135,32 +18207,28 @@
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>330954</v>
-      </c>
-      <c r="C22" s="7">
-        <f>B22-D22</f>
-        <v/>
+        <v>348751</v>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>17797</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>330954</v>
       </c>
-      <c r="E22" s="7">
-        <f>B22-F22</f>
-        <v/>
+      <c r="E22" s="7" t="n">
+        <v>17797</v>
       </c>
       <c r="F22" s="4" t="n">
         <v>330954</v>
       </c>
-      <c r="G22" s="7">
-        <f>B22-H22</f>
-        <v/>
+      <c r="G22" s="7" t="n">
+        <v>17797</v>
       </c>
       <c r="H22" s="4" t="n">
         <v>330954</v>
       </c>
-      <c r="I22" s="7">
-        <f>B22-J22</f>
-        <v/>
+      <c r="I22" s="7" t="n">
+        <v>17797</v>
       </c>
       <c r="J22" s="4" t="n">
         <v>330954</v>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -34,6 +34,11 @@
     <sheet name="mogicul" sheetId="26" state="visible" r:id="rId26"/>
     <sheet name="imeowinvc1" sheetId="27" state="visible" r:id="rId27"/>
     <sheet name="qrsn1" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="tntcoins1" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="qrsn2" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="tntcoins2" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="dejectin1" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="brokenarrow1011" sheetId="33" state="visible" r:id="rId33"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9403,30 +9408,26 @@
       <c r="B2" s="4" t="n">
         <v>80</v>
       </c>
-      <c r="C2" s="7">
-        <f>B2-D2</f>
-        <v/>
+      <c r="C2" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>80</v>
       </c>
-      <c r="E2" s="7">
-        <f>B2-F2</f>
-        <v/>
+      <c r="E2" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>80</v>
       </c>
-      <c r="G2" s="7">
-        <f>B2-H2</f>
-        <v/>
+      <c r="G2" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>80</v>
       </c>
-      <c r="I2" s="7">
-        <f>B2-J2</f>
-        <v/>
+      <c r="I2" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>80</v>
@@ -9441,30 +9442,26 @@
       <c r="B3" s="6" t="n">
         <v>2487568.333333332</v>
       </c>
-      <c r="C3" s="7">
-        <f>B3-D3</f>
-        <v/>
+      <c r="C3" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="D3" s="6" t="n">
         <v>2487568.333333332</v>
       </c>
-      <c r="E3" s="7">
-        <f>B3-F3</f>
-        <v/>
+      <c r="E3" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>2487568.333333332</v>
       </c>
-      <c r="G3" s="7">
-        <f>B3-H3</f>
-        <v/>
+      <c r="G3" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="H3" s="6" t="n">
         <v>2487568.333333332</v>
       </c>
-      <c r="I3" s="7">
-        <f>B3-J3</f>
-        <v/>
+      <c r="I3" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="J3" s="6" t="n">
         <v>2487568.333333332</v>
@@ -9479,30 +9476,26 @@
       <c r="B4" s="4" t="n">
         <v>510</v>
       </c>
-      <c r="C4" s="7">
-        <f>B4-D4</f>
-        <v/>
+      <c r="C4" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>510</v>
       </c>
-      <c r="E4" s="7">
-        <f>B4-F4</f>
-        <v/>
+      <c r="E4" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>510</v>
       </c>
-      <c r="G4" s="7">
-        <f>B4-H4</f>
-        <v/>
+      <c r="G4" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>510</v>
       </c>
-      <c r="I4" s="7">
-        <f>B4-J4</f>
-        <v/>
+      <c r="I4" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>510</v>
@@ -9517,30 +9510,26 @@
       <c r="B5" s="4" t="n">
         <v>283749</v>
       </c>
-      <c r="C5" s="7">
-        <f>B5-D5</f>
-        <v/>
+      <c r="C5" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>283749</v>
       </c>
-      <c r="E5" s="7">
-        <f>B5-F5</f>
-        <v/>
+      <c r="E5" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>283749</v>
       </c>
-      <c r="G5" s="7">
-        <f>B5-H5</f>
-        <v/>
+      <c r="G5" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>283749</v>
       </c>
-      <c r="I5" s="7">
-        <f>B5-J5</f>
-        <v/>
+      <c r="I5" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>283749</v>
@@ -9555,30 +9544,26 @@
       <c r="B6" s="4" t="n">
         <v>836331</v>
       </c>
-      <c r="C6" s="7">
-        <f>B6-D6</f>
-        <v/>
+      <c r="C6" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>836331</v>
       </c>
-      <c r="E6" s="7">
-        <f>B6-F6</f>
-        <v/>
+      <c r="E6" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F6" s="4" t="n">
         <v>836331</v>
       </c>
-      <c r="G6" s="7">
-        <f>B6-H6</f>
-        <v/>
+      <c r="G6" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="H6" s="4" t="n">
         <v>836331</v>
       </c>
-      <c r="I6" s="7">
-        <f>B6-J6</f>
-        <v/>
+      <c r="I6" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="J6" s="4" t="n">
         <v>836331</v>
@@ -9593,30 +9578,26 @@
       <c r="B7" s="4" t="n">
         <v>9910</v>
       </c>
-      <c r="C7" s="7">
-        <f>B7-D7</f>
-        <v/>
+      <c r="C7" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>9910</v>
       </c>
-      <c r="E7" s="7">
-        <f>B7-F7</f>
-        <v/>
+      <c r="E7" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F7" s="4" t="n">
         <v>9910</v>
       </c>
-      <c r="G7" s="7">
-        <f>B7-H7</f>
-        <v/>
+      <c r="G7" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="H7" s="4" t="n">
         <v>9910</v>
       </c>
-      <c r="I7" s="7">
-        <f>B7-J7</f>
-        <v/>
+      <c r="I7" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="J7" s="4" t="n">
         <v>9910</v>
@@ -9631,30 +9612,26 @@
       <c r="B8" s="4" t="n">
         <v>2711</v>
       </c>
-      <c r="C8" s="7">
-        <f>B8-D8</f>
-        <v/>
+      <c r="C8" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>2711</v>
       </c>
-      <c r="E8" s="7">
-        <f>B8-F8</f>
-        <v/>
+      <c r="E8" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="n">
         <v>2711</v>
       </c>
-      <c r="G8" s="7">
-        <f>B8-H8</f>
-        <v/>
+      <c r="G8" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="H8" s="4" t="n">
         <v>2711</v>
       </c>
-      <c r="I8" s="7">
-        <f>B8-J8</f>
-        <v/>
+      <c r="I8" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="J8" s="4" t="n">
         <v>2711</v>
@@ -9669,30 +9646,26 @@
       <c r="B9" s="4" t="n">
         <v>24580</v>
       </c>
-      <c r="C9" s="7">
-        <f>B9-D9</f>
-        <v/>
+      <c r="C9" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>24580</v>
       </c>
-      <c r="E9" s="7">
-        <f>B9-F9</f>
-        <v/>
+      <c r="E9" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>24580</v>
       </c>
-      <c r="G9" s="7">
-        <f>B9-H9</f>
-        <v/>
+      <c r="G9" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="H9" s="4" t="n">
         <v>24580</v>
       </c>
-      <c r="I9" s="7">
-        <f>B9-J9</f>
-        <v/>
+      <c r="I9" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="J9" s="4" t="n">
         <v>24580</v>
@@ -9707,30 +9680,26 @@
       <c r="B10" s="4" t="n">
         <v>6127</v>
       </c>
-      <c r="C10" s="7">
-        <f>B10-D10</f>
-        <v/>
+      <c r="C10" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>6127</v>
       </c>
-      <c r="E10" s="7">
-        <f>B10-F10</f>
-        <v/>
+      <c r="E10" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F10" s="4" t="n">
         <v>6127</v>
       </c>
-      <c r="G10" s="7">
-        <f>B10-H10</f>
-        <v/>
+      <c r="G10" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="H10" s="4" t="n">
         <v>6127</v>
       </c>
-      <c r="I10" s="7">
-        <f>B10-J10</f>
-        <v/>
+      <c r="I10" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="J10" s="4" t="n">
         <v>6127</v>
@@ -9745,30 +9714,26 @@
       <c r="B11" s="4" t="n">
         <v>307668</v>
       </c>
-      <c r="C11" s="7">
-        <f>B11-D11</f>
-        <v/>
+      <c r="C11" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>307668</v>
       </c>
-      <c r="E11" s="7">
-        <f>B11-F11</f>
-        <v/>
+      <c r="E11" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F11" s="4" t="n">
         <v>307668</v>
       </c>
-      <c r="G11" s="7">
-        <f>B11-H11</f>
-        <v/>
+      <c r="G11" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="H11" s="4" t="n">
         <v>307668</v>
       </c>
-      <c r="I11" s="7">
-        <f>B11-J11</f>
-        <v/>
+      <c r="I11" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="J11" s="4" t="n">
         <v>307668</v>
@@ -9783,30 +9748,26 @@
       <c r="B12" s="4" t="n">
         <v>180</v>
       </c>
-      <c r="C12" s="7">
-        <f>B12-D12</f>
-        <v/>
+      <c r="C12" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>180</v>
       </c>
-      <c r="E12" s="7">
-        <f>B12-F12</f>
-        <v/>
+      <c r="E12" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F12" s="4" t="n">
         <v>180</v>
       </c>
-      <c r="G12" s="7">
-        <f>B12-H12</f>
-        <v/>
+      <c r="G12" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="H12" s="4" t="n">
         <v>180</v>
       </c>
-      <c r="I12" s="7">
-        <f>B12-J12</f>
-        <v/>
+      <c r="I12" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="J12" s="4" t="n">
         <v>180</v>
@@ -9821,30 +9782,26 @@
       <c r="B13" s="4" t="n">
         <v>6807</v>
       </c>
-      <c r="C13" s="7">
-        <f>B13-D13</f>
-        <v/>
+      <c r="C13" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>6807</v>
       </c>
-      <c r="E13" s="7">
-        <f>B13-F13</f>
-        <v/>
+      <c r="E13" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F13" s="4" t="n">
         <v>6807</v>
       </c>
-      <c r="G13" s="7">
-        <f>B13-H13</f>
-        <v/>
+      <c r="G13" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="H13" s="4" t="n">
         <v>6807</v>
       </c>
-      <c r="I13" s="7">
-        <f>B13-J13</f>
-        <v/>
+      <c r="I13" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="J13" s="4" t="n">
         <v>6807</v>
@@ -9859,30 +9816,26 @@
       <c r="B14" s="4" t="n">
         <v>18435</v>
       </c>
-      <c r="C14" s="7">
-        <f>B14-D14</f>
-        <v/>
+      <c r="C14" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>18435</v>
       </c>
-      <c r="E14" s="7">
-        <f>B14-F14</f>
-        <v/>
+      <c r="E14" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F14" s="4" t="n">
         <v>18435</v>
       </c>
-      <c r="G14" s="7">
-        <f>B14-H14</f>
-        <v/>
+      <c r="G14" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="H14" s="4" t="n">
         <v>18435</v>
       </c>
-      <c r="I14" s="7">
-        <f>B14-J14</f>
-        <v/>
+      <c r="I14" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="J14" s="4" t="n">
         <v>18435</v>
@@ -9897,30 +9850,26 @@
       <c r="B15" s="4" t="n">
         <v>35842</v>
       </c>
-      <c r="C15" s="7">
-        <f>B15-D15</f>
-        <v/>
+      <c r="C15" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>35842</v>
       </c>
-      <c r="E15" s="7">
-        <f>B15-F15</f>
-        <v/>
+      <c r="E15" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F15" s="4" t="n">
         <v>35842</v>
       </c>
-      <c r="G15" s="7">
-        <f>B15-H15</f>
-        <v/>
+      <c r="G15" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="H15" s="4" t="n">
         <v>35842</v>
       </c>
-      <c r="I15" s="7">
-        <f>B15-J15</f>
-        <v/>
+      <c r="I15" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="J15" s="4" t="n">
         <v>35842</v>
@@ -9935,30 +9884,26 @@
       <c r="B16" s="4" t="n">
         <v>22815</v>
       </c>
-      <c r="C16" s="7">
-        <f>B16-D16</f>
-        <v/>
+      <c r="C16" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>22815</v>
       </c>
-      <c r="E16" s="7">
-        <f>B16-F16</f>
-        <v/>
+      <c r="E16" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F16" s="4" t="n">
         <v>22815</v>
       </c>
-      <c r="G16" s="7">
-        <f>B16-H16</f>
-        <v/>
+      <c r="G16" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="H16" s="4" t="n">
         <v>22815</v>
       </c>
-      <c r="I16" s="7">
-        <f>B16-J16</f>
-        <v/>
+      <c r="I16" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="J16" s="4" t="n">
         <v>22815</v>
@@ -9973,30 +9918,26 @@
       <c r="B17" s="4" t="n">
         <v>17711</v>
       </c>
-      <c r="C17" s="7">
-        <f>B17-D17</f>
-        <v/>
+      <c r="C17" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>17711</v>
       </c>
-      <c r="E17" s="7">
-        <f>B17-F17</f>
-        <v/>
+      <c r="E17" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F17" s="4" t="n">
         <v>17711</v>
       </c>
-      <c r="G17" s="7">
-        <f>B17-H17</f>
-        <v/>
+      <c r="G17" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="H17" s="4" t="n">
         <v>17711</v>
       </c>
-      <c r="I17" s="7">
-        <f>B17-J17</f>
-        <v/>
+      <c r="I17" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="J17" s="4" t="n">
         <v>17711</v>
@@ -10011,30 +9952,26 @@
       <c r="B18" s="4" t="n">
         <v>11514</v>
       </c>
-      <c r="C18" s="7">
-        <f>B18-D18</f>
-        <v/>
+      <c r="C18" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>11514</v>
       </c>
-      <c r="E18" s="7">
-        <f>B18-F18</f>
-        <v/>
+      <c r="E18" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F18" s="4" t="n">
         <v>11514</v>
       </c>
-      <c r="G18" s="7">
-        <f>B18-H18</f>
-        <v/>
+      <c r="G18" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="H18" s="4" t="n">
         <v>11514</v>
       </c>
-      <c r="I18" s="7">
-        <f>B18-J18</f>
-        <v/>
+      <c r="I18" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="J18" s="4" t="n">
         <v>11514</v>
@@ -10049,30 +9986,26 @@
       <c r="B19" s="4" t="n">
         <v>311</v>
       </c>
-      <c r="C19" s="7">
-        <f>B19-D19</f>
-        <v/>
+      <c r="C19" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>311</v>
       </c>
-      <c r="E19" s="7">
-        <f>B19-F19</f>
-        <v/>
+      <c r="E19" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F19" s="4" t="n">
         <v>311</v>
       </c>
-      <c r="G19" s="7">
-        <f>B19-H19</f>
-        <v/>
+      <c r="G19" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="H19" s="4" t="n">
         <v>311</v>
       </c>
-      <c r="I19" s="7">
-        <f>B19-J19</f>
-        <v/>
+      <c r="I19" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="J19" s="4" t="n">
         <v>311</v>
@@ -10087,30 +10020,26 @@
       <c r="B20" s="4" t="n">
         <v>66</v>
       </c>
-      <c r="C20" s="7">
-        <f>B20-D20</f>
-        <v/>
+      <c r="C20" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>66</v>
       </c>
-      <c r="E20" s="7">
-        <f>B20-F20</f>
-        <v/>
+      <c r="E20" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F20" s="4" t="n">
         <v>66</v>
       </c>
-      <c r="G20" s="7">
-        <f>B20-H20</f>
-        <v/>
+      <c r="G20" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="H20" s="4" t="n">
         <v>66</v>
       </c>
-      <c r="I20" s="7">
-        <f>B20-J20</f>
-        <v/>
+      <c r="I20" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="J20" s="4" t="n">
         <v>66</v>
@@ -10125,30 +10054,26 @@
       <c r="B21" s="4" t="n">
         <v>1199</v>
       </c>
-      <c r="C21" s="7">
-        <f>B21-D21</f>
-        <v/>
+      <c r="C21" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>1199</v>
       </c>
-      <c r="E21" s="7">
-        <f>B21-F21</f>
-        <v/>
+      <c r="E21" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F21" s="4" t="n">
         <v>1199</v>
       </c>
-      <c r="G21" s="7">
-        <f>B21-H21</f>
-        <v/>
+      <c r="G21" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="H21" s="4" t="n">
         <v>1199</v>
       </c>
-      <c r="I21" s="7">
-        <f>B21-J21</f>
-        <v/>
+      <c r="I21" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="J21" s="4" t="n">
         <v>1199</v>
@@ -10163,30 +10088,26 @@
       <c r="B22" s="4" t="n">
         <v>2831958</v>
       </c>
-      <c r="C22" s="7">
-        <f>B22-D22</f>
-        <v/>
+      <c r="C22" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>2831958</v>
       </c>
-      <c r="E22" s="7">
-        <f>B22-F22</f>
-        <v/>
+      <c r="E22" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F22" s="4" t="n">
         <v>2831958</v>
       </c>
-      <c r="G22" s="7">
-        <f>B22-H22</f>
-        <v/>
+      <c r="G22" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="H22" s="4" t="n">
         <v>2831958</v>
       </c>
-      <c r="I22" s="7">
-        <f>B22-J22</f>
-        <v/>
+      <c r="I22" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="J22" s="4" t="n">
         <v>2831958</v>
@@ -17442,6 +17363,539 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B1" s="9" t="inlineStr">
+        <is>
+          <t>All-time</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="inlineStr">
+        <is>
+          <t>Session Delta</t>
+        </is>
+      </c>
+      <c r="D1" s="9" t="inlineStr">
+        <is>
+          <t>Session Snapshot</t>
+        </is>
+      </c>
+      <c r="E1" s="9" t="inlineStr">
+        <is>
+          <t>Daily Delta</t>
+        </is>
+      </c>
+      <c r="F1" s="9" t="inlineStr">
+        <is>
+          <t>Daily Snapshot</t>
+        </is>
+      </c>
+      <c r="G1" s="9" t="inlineStr">
+        <is>
+          <t>Yesterday Delta</t>
+        </is>
+      </c>
+      <c r="H1" s="9" t="inlineStr">
+        <is>
+          <t>Yesterday Snapshot</t>
+        </is>
+      </c>
+      <c r="I1" s="9" t="inlineStr">
+        <is>
+          <t>Monthly Delta</t>
+        </is>
+      </c>
+      <c r="J1" s="9" t="inlineStr">
+        <is>
+          <t>Monthly Snapshot</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>available_layers</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>26</v>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="E2" t="n">
+        <v>26</v>
+      </c>
+      <c r="G2" t="n">
+        <v>26</v>
+      </c>
+      <c r="I2" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>experience</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3122820.833333359</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3122820.833333359</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3122820.833333359</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3122820.833333359</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3122820.833333359</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>level</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>639</v>
+      </c>
+      <c r="C4" t="n">
+        <v>639</v>
+      </c>
+      <c r="E4" t="n">
+        <v>639</v>
+      </c>
+      <c r="G4" t="n">
+        <v>639</v>
+      </c>
+      <c r="I4" t="n">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>coins</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>203210</v>
+      </c>
+      <c r="C5" t="n">
+        <v>203210</v>
+      </c>
+      <c r="E5" t="n">
+        <v>203210</v>
+      </c>
+      <c r="G5" t="n">
+        <v>203210</v>
+      </c>
+      <c r="I5" t="n">
+        <v>203210</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>damage_dealt</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1049455</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1049455</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1049455</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1049455</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1049455</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9943</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9943</v>
+      </c>
+      <c r="E7" t="n">
+        <v>9943</v>
+      </c>
+      <c r="G7" t="n">
+        <v>9943</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9943</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>deaths_explosive</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2713</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2713</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2713</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2713</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>games_played</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>33387</v>
+      </c>
+      <c r="C9" t="n">
+        <v>33387</v>
+      </c>
+      <c r="E9" t="n">
+        <v>33387</v>
+      </c>
+      <c r="G9" t="n">
+        <v>33387</v>
+      </c>
+      <c r="I9" t="n">
+        <v>33387</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>losses</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6005</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6005</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6005</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6005</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6005</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sheep_thrown</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>395348</v>
+      </c>
+      <c r="C11" t="n">
+        <v>395348</v>
+      </c>
+      <c r="E11" t="n">
+        <v>395348</v>
+      </c>
+      <c r="G11" t="n">
+        <v>395348</v>
+      </c>
+      <c r="I11" t="n">
+        <v>395348</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>deaths_bow</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>171</v>
+      </c>
+      <c r="C12" t="n">
+        <v>171</v>
+      </c>
+      <c r="E12" t="n">
+        <v>171</v>
+      </c>
+      <c r="G12" t="n">
+        <v>171</v>
+      </c>
+      <c r="I12" t="n">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>deaths_void</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6881</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6881</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6881</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6881</v>
+      </c>
+      <c r="I13" t="n">
+        <v>6881</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>wins</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>27371</v>
+      </c>
+      <c r="C14" t="n">
+        <v>27371</v>
+      </c>
+      <c r="E14" t="n">
+        <v>27371</v>
+      </c>
+      <c r="G14" t="n">
+        <v>27371</v>
+      </c>
+      <c r="I14" t="n">
+        <v>27371</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>kills</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>49475</v>
+      </c>
+      <c r="C15" t="n">
+        <v>49475</v>
+      </c>
+      <c r="E15" t="n">
+        <v>49475</v>
+      </c>
+      <c r="G15" t="n">
+        <v>49475</v>
+      </c>
+      <c r="I15" t="n">
+        <v>49475</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>kills_void</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>31175</v>
+      </c>
+      <c r="C16" t="n">
+        <v>31175</v>
+      </c>
+      <c r="E16" t="n">
+        <v>31175</v>
+      </c>
+      <c r="G16" t="n">
+        <v>31175</v>
+      </c>
+      <c r="I16" t="n">
+        <v>31175</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>magic_wool_hit</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>17801</v>
+      </c>
+      <c r="C17" t="n">
+        <v>17801</v>
+      </c>
+      <c r="E17" t="n">
+        <v>17801</v>
+      </c>
+      <c r="G17" t="n">
+        <v>17801</v>
+      </c>
+      <c r="I17" t="n">
+        <v>17801</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>kills_explosive</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>16918</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16918</v>
+      </c>
+      <c r="E18" t="n">
+        <v>16918</v>
+      </c>
+      <c r="G18" t="n">
+        <v>16918</v>
+      </c>
+      <c r="I18" t="n">
+        <v>16918</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>kills_melee</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>118</v>
+      </c>
+      <c r="C19" t="n">
+        <v>118</v>
+      </c>
+      <c r="E19" t="n">
+        <v>118</v>
+      </c>
+      <c r="G19" t="n">
+        <v>118</v>
+      </c>
+      <c r="I19" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>deaths_melee</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>52</v>
+      </c>
+      <c r="C20" t="n">
+        <v>52</v>
+      </c>
+      <c r="E20" t="n">
+        <v>52</v>
+      </c>
+      <c r="G20" t="n">
+        <v>52</v>
+      </c>
+      <c r="I20" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>kills_bow</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1194</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1194</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1194</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1194</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>playtime</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3374776</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3374776</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3374776</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3374776</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3374776</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -18236,6 +18690,2138 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B1" s="9" t="inlineStr">
+        <is>
+          <t>All-time</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="inlineStr">
+        <is>
+          <t>Session Delta</t>
+        </is>
+      </c>
+      <c r="D1" s="9" t="inlineStr">
+        <is>
+          <t>Session Snapshot</t>
+        </is>
+      </c>
+      <c r="E1" s="9" t="inlineStr">
+        <is>
+          <t>Daily Delta</t>
+        </is>
+      </c>
+      <c r="F1" s="9" t="inlineStr">
+        <is>
+          <t>Daily Snapshot</t>
+        </is>
+      </c>
+      <c r="G1" s="9" t="inlineStr">
+        <is>
+          <t>Yesterday Delta</t>
+        </is>
+      </c>
+      <c r="H1" s="9" t="inlineStr">
+        <is>
+          <t>Yesterday Snapshot</t>
+        </is>
+      </c>
+      <c r="I1" s="9" t="inlineStr">
+        <is>
+          <t>Monthly Delta</t>
+        </is>
+      </c>
+      <c r="J1" s="9" t="inlineStr">
+        <is>
+          <t>Monthly Snapshot</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>available_layers</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>experience</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1262758.333333337</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1262758.333333337</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1262758.333333337</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1262758.333333337</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1262758.333333337</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>level</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>259</v>
+      </c>
+      <c r="C4" t="n">
+        <v>259</v>
+      </c>
+      <c r="E4" t="n">
+        <v>259</v>
+      </c>
+      <c r="G4" t="n">
+        <v>259</v>
+      </c>
+      <c r="I4" t="n">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>coins</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>75307</v>
+      </c>
+      <c r="C5" t="n">
+        <v>75307</v>
+      </c>
+      <c r="E5" t="n">
+        <v>75307</v>
+      </c>
+      <c r="G5" t="n">
+        <v>75307</v>
+      </c>
+      <c r="I5" t="n">
+        <v>75307</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>damage_dealt</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>391550</v>
+      </c>
+      <c r="C6" t="n">
+        <v>391550</v>
+      </c>
+      <c r="E6" t="n">
+        <v>391550</v>
+      </c>
+      <c r="G6" t="n">
+        <v>391550</v>
+      </c>
+      <c r="I6" t="n">
+        <v>391550</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4421</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4421</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4421</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4421</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4421</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>deaths_explosive</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1041</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1041</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1041</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1041</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>games_played</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11223</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11223</v>
+      </c>
+      <c r="E9" t="n">
+        <v>11223</v>
+      </c>
+      <c r="G9" t="n">
+        <v>11223</v>
+      </c>
+      <c r="I9" t="n">
+        <v>11223</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>losses</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2888</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2888</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2888</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2888</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sheep_thrown</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>148024</v>
+      </c>
+      <c r="C11" t="n">
+        <v>148024</v>
+      </c>
+      <c r="E11" t="n">
+        <v>148024</v>
+      </c>
+      <c r="G11" t="n">
+        <v>148024</v>
+      </c>
+      <c r="I11" t="n">
+        <v>148024</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>deaths_bow</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>69</v>
+      </c>
+      <c r="C12" t="n">
+        <v>69</v>
+      </c>
+      <c r="E12" t="n">
+        <v>69</v>
+      </c>
+      <c r="G12" t="n">
+        <v>69</v>
+      </c>
+      <c r="I12" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>deaths_void</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3217</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3217</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3217</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3217</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>wins</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8325</v>
+      </c>
+      <c r="C14" t="n">
+        <v>8325</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8325</v>
+      </c>
+      <c r="G14" t="n">
+        <v>8325</v>
+      </c>
+      <c r="I14" t="n">
+        <v>8325</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>kills</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>16963</v>
+      </c>
+      <c r="C15" t="n">
+        <v>16963</v>
+      </c>
+      <c r="E15" t="n">
+        <v>16963</v>
+      </c>
+      <c r="G15" t="n">
+        <v>16963</v>
+      </c>
+      <c r="I15" t="n">
+        <v>16963</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>kills_void</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10913</v>
+      </c>
+      <c r="C16" t="n">
+        <v>10913</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10913</v>
+      </c>
+      <c r="G16" t="n">
+        <v>10913</v>
+      </c>
+      <c r="I16" t="n">
+        <v>10913</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>magic_wool_hit</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1980</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1980</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1980</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1980</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>kills_explosive</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>5284</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5284</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5284</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5284</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5284</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>kills_melee</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>123</v>
+      </c>
+      <c r="C19" t="n">
+        <v>123</v>
+      </c>
+      <c r="E19" t="n">
+        <v>123</v>
+      </c>
+      <c r="G19" t="n">
+        <v>123</v>
+      </c>
+      <c r="I19" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>deaths_melee</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>34</v>
+      </c>
+      <c r="C20" t="n">
+        <v>34</v>
+      </c>
+      <c r="E20" t="n">
+        <v>34</v>
+      </c>
+      <c r="G20" t="n">
+        <v>34</v>
+      </c>
+      <c r="I20" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>kills_bow</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>642</v>
+      </c>
+      <c r="C21" t="n">
+        <v>642</v>
+      </c>
+      <c r="E21" t="n">
+        <v>642</v>
+      </c>
+      <c r="G21" t="n">
+        <v>642</v>
+      </c>
+      <c r="I21" t="n">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>playtime</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1268468</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1268468</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1268468</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1268468</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1268468</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B1" s="9" t="inlineStr">
+        <is>
+          <t>All-time</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="inlineStr">
+        <is>
+          <t>Session Delta</t>
+        </is>
+      </c>
+      <c r="D1" s="9" t="inlineStr">
+        <is>
+          <t>Session Snapshot</t>
+        </is>
+      </c>
+      <c r="E1" s="9" t="inlineStr">
+        <is>
+          <t>Daily Delta</t>
+        </is>
+      </c>
+      <c r="F1" s="9" t="inlineStr">
+        <is>
+          <t>Daily Snapshot</t>
+        </is>
+      </c>
+      <c r="G1" s="9" t="inlineStr">
+        <is>
+          <t>Yesterday Delta</t>
+        </is>
+      </c>
+      <c r="H1" s="9" t="inlineStr">
+        <is>
+          <t>Yesterday Snapshot</t>
+        </is>
+      </c>
+      <c r="I1" s="9" t="inlineStr">
+        <is>
+          <t>Monthly Delta</t>
+        </is>
+      </c>
+      <c r="J1" s="9" t="inlineStr">
+        <is>
+          <t>Monthly Snapshot</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>available_layers</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>26</v>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="E2" t="n">
+        <v>26</v>
+      </c>
+      <c r="G2" t="n">
+        <v>26</v>
+      </c>
+      <c r="I2" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>experience</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3122820.833333359</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3122820.833333359</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3122820.833333359</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3122820.833333359</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3122820.833333359</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>level</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>639</v>
+      </c>
+      <c r="C4" t="n">
+        <v>639</v>
+      </c>
+      <c r="E4" t="n">
+        <v>639</v>
+      </c>
+      <c r="G4" t="n">
+        <v>639</v>
+      </c>
+      <c r="I4" t="n">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>coins</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>203210</v>
+      </c>
+      <c r="C5" t="n">
+        <v>203210</v>
+      </c>
+      <c r="E5" t="n">
+        <v>203210</v>
+      </c>
+      <c r="G5" t="n">
+        <v>203210</v>
+      </c>
+      <c r="I5" t="n">
+        <v>203210</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>damage_dealt</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1049455</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1049455</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1049455</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1049455</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1049455</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9943</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9943</v>
+      </c>
+      <c r="E7" t="n">
+        <v>9943</v>
+      </c>
+      <c r="G7" t="n">
+        <v>9943</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9943</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>deaths_explosive</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2713</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2713</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2713</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2713</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>games_played</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>33387</v>
+      </c>
+      <c r="C9" t="n">
+        <v>33387</v>
+      </c>
+      <c r="E9" t="n">
+        <v>33387</v>
+      </c>
+      <c r="G9" t="n">
+        <v>33387</v>
+      </c>
+      <c r="I9" t="n">
+        <v>33387</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>losses</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6005</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6005</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6005</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6005</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6005</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sheep_thrown</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>395348</v>
+      </c>
+      <c r="C11" t="n">
+        <v>395348</v>
+      </c>
+      <c r="E11" t="n">
+        <v>395348</v>
+      </c>
+      <c r="G11" t="n">
+        <v>395348</v>
+      </c>
+      <c r="I11" t="n">
+        <v>395348</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>deaths_bow</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>171</v>
+      </c>
+      <c r="C12" t="n">
+        <v>171</v>
+      </c>
+      <c r="E12" t="n">
+        <v>171</v>
+      </c>
+      <c r="G12" t="n">
+        <v>171</v>
+      </c>
+      <c r="I12" t="n">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>deaths_void</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6881</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6881</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6881</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6881</v>
+      </c>
+      <c r="I13" t="n">
+        <v>6881</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>wins</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>27371</v>
+      </c>
+      <c r="C14" t="n">
+        <v>27371</v>
+      </c>
+      <c r="E14" t="n">
+        <v>27371</v>
+      </c>
+      <c r="G14" t="n">
+        <v>27371</v>
+      </c>
+      <c r="I14" t="n">
+        <v>27371</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>kills</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>49475</v>
+      </c>
+      <c r="C15" t="n">
+        <v>49475</v>
+      </c>
+      <c r="E15" t="n">
+        <v>49475</v>
+      </c>
+      <c r="G15" t="n">
+        <v>49475</v>
+      </c>
+      <c r="I15" t="n">
+        <v>49475</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>kills_void</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>31175</v>
+      </c>
+      <c r="C16" t="n">
+        <v>31175</v>
+      </c>
+      <c r="E16" t="n">
+        <v>31175</v>
+      </c>
+      <c r="G16" t="n">
+        <v>31175</v>
+      </c>
+      <c r="I16" t="n">
+        <v>31175</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>magic_wool_hit</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>17801</v>
+      </c>
+      <c r="C17" t="n">
+        <v>17801</v>
+      </c>
+      <c r="E17" t="n">
+        <v>17801</v>
+      </c>
+      <c r="G17" t="n">
+        <v>17801</v>
+      </c>
+      <c r="I17" t="n">
+        <v>17801</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>kills_explosive</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>16918</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16918</v>
+      </c>
+      <c r="E18" t="n">
+        <v>16918</v>
+      </c>
+      <c r="G18" t="n">
+        <v>16918</v>
+      </c>
+      <c r="I18" t="n">
+        <v>16918</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>kills_melee</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>118</v>
+      </c>
+      <c r="C19" t="n">
+        <v>118</v>
+      </c>
+      <c r="E19" t="n">
+        <v>118</v>
+      </c>
+      <c r="G19" t="n">
+        <v>118</v>
+      </c>
+      <c r="I19" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>deaths_melee</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>52</v>
+      </c>
+      <c r="C20" t="n">
+        <v>52</v>
+      </c>
+      <c r="E20" t="n">
+        <v>52</v>
+      </c>
+      <c r="G20" t="n">
+        <v>52</v>
+      </c>
+      <c r="I20" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>kills_bow</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1194</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1194</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1194</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1194</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>playtime</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3374776</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3374776</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3374776</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3374776</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3374776</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B1" s="9" t="inlineStr">
+        <is>
+          <t>All-time</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="inlineStr">
+        <is>
+          <t>Session Delta</t>
+        </is>
+      </c>
+      <c r="D1" s="9" t="inlineStr">
+        <is>
+          <t>Session Snapshot</t>
+        </is>
+      </c>
+      <c r="E1" s="9" t="inlineStr">
+        <is>
+          <t>Daily Delta</t>
+        </is>
+      </c>
+      <c r="F1" s="9" t="inlineStr">
+        <is>
+          <t>Daily Snapshot</t>
+        </is>
+      </c>
+      <c r="G1" s="9" t="inlineStr">
+        <is>
+          <t>Yesterday Delta</t>
+        </is>
+      </c>
+      <c r="H1" s="9" t="inlineStr">
+        <is>
+          <t>Yesterday Snapshot</t>
+        </is>
+      </c>
+      <c r="I1" s="9" t="inlineStr">
+        <is>
+          <t>Monthly Delta</t>
+        </is>
+      </c>
+      <c r="J1" s="9" t="inlineStr">
+        <is>
+          <t>Monthly Snapshot</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>available_layers</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>experience</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3109784.999999985</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3109784.999999985</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3109784.999999985</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3109784.999999985</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3109784.999999985</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>level</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>636</v>
+      </c>
+      <c r="C4" t="n">
+        <v>636</v>
+      </c>
+      <c r="E4" t="n">
+        <v>636</v>
+      </c>
+      <c r="G4" t="n">
+        <v>636</v>
+      </c>
+      <c r="I4" t="n">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>coins</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>322827</v>
+      </c>
+      <c r="C5" t="n">
+        <v>322827</v>
+      </c>
+      <c r="E5" t="n">
+        <v>322827</v>
+      </c>
+      <c r="G5" t="n">
+        <v>322827</v>
+      </c>
+      <c r="I5" t="n">
+        <v>322827</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>damage_dealt</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>966574</v>
+      </c>
+      <c r="C6" t="n">
+        <v>966574</v>
+      </c>
+      <c r="E6" t="n">
+        <v>966574</v>
+      </c>
+      <c r="G6" t="n">
+        <v>966574</v>
+      </c>
+      <c r="I6" t="n">
+        <v>966574</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3477</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3477</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3477</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3477</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3477</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>deaths_explosive</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>944</v>
+      </c>
+      <c r="C8" t="n">
+        <v>944</v>
+      </c>
+      <c r="E8" t="n">
+        <v>944</v>
+      </c>
+      <c r="G8" t="n">
+        <v>944</v>
+      </c>
+      <c r="I8" t="n">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>games_played</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>25321</v>
+      </c>
+      <c r="C9" t="n">
+        <v>25321</v>
+      </c>
+      <c r="E9" t="n">
+        <v>25321</v>
+      </c>
+      <c r="G9" t="n">
+        <v>25321</v>
+      </c>
+      <c r="I9" t="n">
+        <v>25321</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>losses</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2038</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2038</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2038</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2038</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sheep_thrown</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>309653</v>
+      </c>
+      <c r="C11" t="n">
+        <v>309653</v>
+      </c>
+      <c r="E11" t="n">
+        <v>309653</v>
+      </c>
+      <c r="G11" t="n">
+        <v>309653</v>
+      </c>
+      <c r="I11" t="n">
+        <v>309653</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>deaths_bow</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>55</v>
+      </c>
+      <c r="C12" t="n">
+        <v>55</v>
+      </c>
+      <c r="E12" t="n">
+        <v>55</v>
+      </c>
+      <c r="G12" t="n">
+        <v>55</v>
+      </c>
+      <c r="I12" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>deaths_void</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2383</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2383</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2383</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2383</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>wins</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>23280</v>
+      </c>
+      <c r="C14" t="n">
+        <v>23280</v>
+      </c>
+      <c r="E14" t="n">
+        <v>23280</v>
+      </c>
+      <c r="G14" t="n">
+        <v>23280</v>
+      </c>
+      <c r="I14" t="n">
+        <v>23280</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>kills</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>53227</v>
+      </c>
+      <c r="C15" t="n">
+        <v>53227</v>
+      </c>
+      <c r="E15" t="n">
+        <v>53227</v>
+      </c>
+      <c r="G15" t="n">
+        <v>53227</v>
+      </c>
+      <c r="I15" t="n">
+        <v>53227</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>kills_void</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>29145</v>
+      </c>
+      <c r="C16" t="n">
+        <v>29145</v>
+      </c>
+      <c r="E16" t="n">
+        <v>29145</v>
+      </c>
+      <c r="G16" t="n">
+        <v>29145</v>
+      </c>
+      <c r="I16" t="n">
+        <v>29145</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>magic_wool_hit</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>25581</v>
+      </c>
+      <c r="C17" t="n">
+        <v>25581</v>
+      </c>
+      <c r="E17" t="n">
+        <v>25581</v>
+      </c>
+      <c r="G17" t="n">
+        <v>25581</v>
+      </c>
+      <c r="I17" t="n">
+        <v>25581</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>kills_explosive</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>22154</v>
+      </c>
+      <c r="C18" t="n">
+        <v>22154</v>
+      </c>
+      <c r="E18" t="n">
+        <v>22154</v>
+      </c>
+      <c r="G18" t="n">
+        <v>22154</v>
+      </c>
+      <c r="I18" t="n">
+        <v>22154</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>kills_melee</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>304</v>
+      </c>
+      <c r="C19" t="n">
+        <v>304</v>
+      </c>
+      <c r="E19" t="n">
+        <v>304</v>
+      </c>
+      <c r="G19" t="n">
+        <v>304</v>
+      </c>
+      <c r="I19" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>deaths_melee</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>24</v>
+      </c>
+      <c r="C20" t="n">
+        <v>24</v>
+      </c>
+      <c r="E20" t="n">
+        <v>24</v>
+      </c>
+      <c r="G20" t="n">
+        <v>24</v>
+      </c>
+      <c r="I20" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>kills_bow</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1579</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1579</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1579</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1579</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>playtime</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2702229</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2702229</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2702229</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2702229</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2702229</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B1" s="9" t="inlineStr">
+        <is>
+          <t>All-time</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="inlineStr">
+        <is>
+          <t>Session Delta</t>
+        </is>
+      </c>
+      <c r="D1" s="9" t="inlineStr">
+        <is>
+          <t>Session Snapshot</t>
+        </is>
+      </c>
+      <c r="E1" s="9" t="inlineStr">
+        <is>
+          <t>Daily Delta</t>
+        </is>
+      </c>
+      <c r="F1" s="9" t="inlineStr">
+        <is>
+          <t>Daily Snapshot</t>
+        </is>
+      </c>
+      <c r="G1" s="9" t="inlineStr">
+        <is>
+          <t>Yesterday Delta</t>
+        </is>
+      </c>
+      <c r="H1" s="9" t="inlineStr">
+        <is>
+          <t>Yesterday Snapshot</t>
+        </is>
+      </c>
+      <c r="I1" s="9" t="inlineStr">
+        <is>
+          <t>Monthly Delta</t>
+        </is>
+      </c>
+      <c r="J1" s="9" t="inlineStr">
+        <is>
+          <t>Monthly Snapshot</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>available_layers</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>78</v>
+      </c>
+      <c r="C2" t="n">
+        <v>78</v>
+      </c>
+      <c r="E2" t="n">
+        <v>78</v>
+      </c>
+      <c r="G2" t="n">
+        <v>78</v>
+      </c>
+      <c r="I2" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>experience</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3747695.416666667</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3747695.416666667</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3747695.416666667</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3747695.416666667</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3747695.416666667</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>level</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>766</v>
+      </c>
+      <c r="C4" t="n">
+        <v>766</v>
+      </c>
+      <c r="E4" t="n">
+        <v>766</v>
+      </c>
+      <c r="G4" t="n">
+        <v>766</v>
+      </c>
+      <c r="I4" t="n">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>coins</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>687732</v>
+      </c>
+      <c r="C5" t="n">
+        <v>687732</v>
+      </c>
+      <c r="E5" t="n">
+        <v>687732</v>
+      </c>
+      <c r="G5" t="n">
+        <v>687732</v>
+      </c>
+      <c r="I5" t="n">
+        <v>687732</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>damage_dealt</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>738912</v>
+      </c>
+      <c r="C6" t="n">
+        <v>738912</v>
+      </c>
+      <c r="E6" t="n">
+        <v>738912</v>
+      </c>
+      <c r="G6" t="n">
+        <v>738912</v>
+      </c>
+      <c r="I6" t="n">
+        <v>738912</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6213</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6213</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6213</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6213</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6213</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>deaths_explosive</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1260</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1260</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1260</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1260</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>games_played</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>18452</v>
+      </c>
+      <c r="C9" t="n">
+        <v>18452</v>
+      </c>
+      <c r="E9" t="n">
+        <v>18452</v>
+      </c>
+      <c r="G9" t="n">
+        <v>18452</v>
+      </c>
+      <c r="I9" t="n">
+        <v>18452</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>losses</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3169</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3169</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3169</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3169</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3169</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sheep_thrown</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>185671</v>
+      </c>
+      <c r="C11" t="n">
+        <v>185671</v>
+      </c>
+      <c r="E11" t="n">
+        <v>185671</v>
+      </c>
+      <c r="G11" t="n">
+        <v>185671</v>
+      </c>
+      <c r="I11" t="n">
+        <v>185671</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>deaths_bow</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>73</v>
+      </c>
+      <c r="C12" t="n">
+        <v>73</v>
+      </c>
+      <c r="E12" t="n">
+        <v>73</v>
+      </c>
+      <c r="G12" t="n">
+        <v>73</v>
+      </c>
+      <c r="I12" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>deaths_void</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4414</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4414</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4414</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4414</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4414</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>wins</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>15279</v>
+      </c>
+      <c r="C14" t="n">
+        <v>15279</v>
+      </c>
+      <c r="E14" t="n">
+        <v>15279</v>
+      </c>
+      <c r="G14" t="n">
+        <v>15279</v>
+      </c>
+      <c r="I14" t="n">
+        <v>15279</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>kills</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>40327</v>
+      </c>
+      <c r="C15" t="n">
+        <v>40327</v>
+      </c>
+      <c r="E15" t="n">
+        <v>40327</v>
+      </c>
+      <c r="G15" t="n">
+        <v>40327</v>
+      </c>
+      <c r="I15" t="n">
+        <v>40327</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>kills_void</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>21554</v>
+      </c>
+      <c r="C16" t="n">
+        <v>21554</v>
+      </c>
+      <c r="E16" t="n">
+        <v>21554</v>
+      </c>
+      <c r="G16" t="n">
+        <v>21554</v>
+      </c>
+      <c r="I16" t="n">
+        <v>21554</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>magic_wool_hit</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>11205</v>
+      </c>
+      <c r="C17" t="n">
+        <v>11205</v>
+      </c>
+      <c r="E17" t="n">
+        <v>11205</v>
+      </c>
+      <c r="G17" t="n">
+        <v>11205</v>
+      </c>
+      <c r="I17" t="n">
+        <v>11205</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>kills_explosive</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>13401</v>
+      </c>
+      <c r="C18" t="n">
+        <v>13401</v>
+      </c>
+      <c r="E18" t="n">
+        <v>13401</v>
+      </c>
+      <c r="G18" t="n">
+        <v>13401</v>
+      </c>
+      <c r="I18" t="n">
+        <v>13401</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>kills_melee</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>301</v>
+      </c>
+      <c r="C19" t="n">
+        <v>301</v>
+      </c>
+      <c r="E19" t="n">
+        <v>301</v>
+      </c>
+      <c r="G19" t="n">
+        <v>301</v>
+      </c>
+      <c r="I19" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>deaths_melee</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>52</v>
+      </c>
+      <c r="C20" t="n">
+        <v>52</v>
+      </c>
+      <c r="E20" t="n">
+        <v>52</v>
+      </c>
+      <c r="G20" t="n">
+        <v>52</v>
+      </c>
+      <c r="I20" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>kills_bow</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2887</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2887</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2887</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2887</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>playtime</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1631579</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1631579</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1631579</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1631579</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1631579</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -20799,32 +23385,28 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7">
-        <f>B2-D2</f>
-        <v/>
+        <v>25</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>23</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="E2" s="7">
-        <f>B2-F2</f>
-        <v/>
+      <c r="E2" s="7" t="n">
+        <v>17</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="G2" s="7">
-        <f>B2-H2</f>
-        <v/>
+      <c r="G2" s="7" t="n">
+        <v>24</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="I2" s="7">
-        <f>B2-J2</f>
-        <v/>
+      <c r="I2" s="7" t="n">
+        <v>24</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>1</v>
@@ -20837,32 +23419,28 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>5282727.083333358</v>
-      </c>
-      <c r="C3" s="7">
-        <f>B3-D3</f>
-        <v/>
+        <v>5382546.25000002</v>
+      </c>
+      <c r="C3" s="7" t="n">
+        <v>100647.0833333293</v>
       </c>
       <c r="D3" s="6" t="n">
         <v>5281899.166666691</v>
       </c>
-      <c r="E3" s="7">
-        <f>B3-F3</f>
-        <v/>
+      <c r="E3" s="7" t="n">
+        <v>99819.16666666232</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>5282727.083333358</v>
       </c>
-      <c r="G3" s="7">
-        <f>B3-H3</f>
-        <v/>
+      <c r="G3" s="7" t="n">
+        <v>100732.4999999963</v>
       </c>
       <c r="H3" s="6" t="n">
         <v>5281813.750000024</v>
       </c>
-      <c r="I3" s="7">
-        <f>B3-J3</f>
-        <v/>
+      <c r="I3" s="7" t="n">
+        <v>100732.4999999963</v>
       </c>
       <c r="J3" s="6" t="n">
         <v>5281813.750000024</v>
@@ -20875,32 +23453,28 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1079</v>
-      </c>
-      <c r="C4" s="7">
-        <f>B4-D4</f>
-        <v/>
+        <v>1099</v>
+      </c>
+      <c r="C4" s="7" t="n">
+        <v>21</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>1078</v>
       </c>
-      <c r="E4" s="7">
-        <f>B4-F4</f>
-        <v/>
+      <c r="E4" s="7" t="n">
+        <v>20</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>1079</v>
       </c>
-      <c r="G4" s="7">
-        <f>B4-H4</f>
-        <v/>
+      <c r="G4" s="7" t="n">
+        <v>21</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>1078</v>
       </c>
-      <c r="I4" s="7">
-        <f>B4-J4</f>
-        <v/>
+      <c r="I4" s="7" t="n">
+        <v>21</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>1078</v>
@@ -20913,32 +23487,28 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1374170</v>
-      </c>
-      <c r="C5" s="7">
-        <f>B5-D5</f>
-        <v/>
+        <v>1389790</v>
+      </c>
+      <c r="C5" s="7" t="n">
+        <v>15620</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>1374170</v>
       </c>
-      <c r="E5" s="7">
-        <f>B5-F5</f>
-        <v/>
+      <c r="E5" s="7" t="n">
+        <v>15620</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>1374170</v>
       </c>
-      <c r="G5" s="7">
-        <f>B5-H5</f>
-        <v/>
+      <c r="G5" s="7" t="n">
+        <v>15620</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>1374170</v>
       </c>
-      <c r="I5" s="7">
-        <f>B5-J5</f>
-        <v/>
+      <c r="I5" s="7" t="n">
+        <v>15620</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>1374170</v>
@@ -20951,32 +23521,28 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>251566</v>
-      </c>
-      <c r="C6" s="7">
-        <f>B6-D6</f>
-        <v/>
+        <v>255941</v>
+      </c>
+      <c r="C6" s="7" t="n">
+        <v>4375</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>251566</v>
       </c>
-      <c r="E6" s="7">
-        <f>B6-F6</f>
-        <v/>
+      <c r="E6" s="7" t="n">
+        <v>4375</v>
       </c>
       <c r="F6" s="4" t="n">
         <v>251566</v>
       </c>
-      <c r="G6" s="7">
-        <f>B6-H6</f>
-        <v/>
+      <c r="G6" s="7" t="n">
+        <v>4395</v>
       </c>
       <c r="H6" s="4" t="n">
         <v>251546</v>
       </c>
-      <c r="I6" s="7">
-        <f>B6-J6</f>
-        <v/>
+      <c r="I6" s="7" t="n">
+        <v>4395</v>
       </c>
       <c r="J6" s="4" t="n">
         <v>251546</v>
@@ -20989,32 +23555,28 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>4888</v>
-      </c>
-      <c r="C7" s="7">
-        <f>B7-D7</f>
-        <v/>
+        <v>4959</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <v>71</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>4888</v>
       </c>
-      <c r="E7" s="7">
-        <f>B7-F7</f>
-        <v/>
+      <c r="E7" s="7" t="n">
+        <v>71</v>
       </c>
       <c r="F7" s="4" t="n">
         <v>4888</v>
       </c>
-      <c r="G7" s="7">
-        <f>B7-H7</f>
-        <v/>
+      <c r="G7" s="7" t="n">
+        <v>72</v>
       </c>
       <c r="H7" s="4" t="n">
         <v>4887</v>
       </c>
-      <c r="I7" s="7">
-        <f>B7-J7</f>
-        <v/>
+      <c r="I7" s="7" t="n">
+        <v>72</v>
       </c>
       <c r="J7" s="4" t="n">
         <v>4887</v>
@@ -21027,32 +23589,28 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>1158</v>
-      </c>
-      <c r="C8" s="7">
-        <f>B8-D8</f>
-        <v/>
+        <v>1171</v>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>13</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>1158</v>
       </c>
-      <c r="E8" s="7">
-        <f>B8-F8</f>
-        <v/>
+      <c r="E8" s="7" t="n">
+        <v>13</v>
       </c>
       <c r="F8" s="4" t="n">
         <v>1158</v>
       </c>
-      <c r="G8" s="7">
-        <f>B8-H8</f>
-        <v/>
+      <c r="G8" s="7" t="n">
+        <v>14</v>
       </c>
       <c r="H8" s="4" t="n">
         <v>1157</v>
       </c>
-      <c r="I8" s="7">
-        <f>B8-J8</f>
-        <v/>
+      <c r="I8" s="7" t="n">
+        <v>14</v>
       </c>
       <c r="J8" s="4" t="n">
         <v>1157</v>
@@ -21065,32 +23623,28 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>13018</v>
-      </c>
-      <c r="C9" s="7">
-        <f>B9-D9</f>
-        <v/>
+        <v>13346</v>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>328</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>13018</v>
       </c>
-      <c r="E9" s="7">
-        <f>B9-F9</f>
-        <v/>
+      <c r="E9" s="7" t="n">
+        <v>328</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>13018</v>
       </c>
-      <c r="G9" s="7">
-        <f>B9-H9</f>
-        <v/>
+      <c r="G9" s="7" t="n">
+        <v>329</v>
       </c>
       <c r="H9" s="4" t="n">
         <v>13017</v>
       </c>
-      <c r="I9" s="7">
-        <f>B9-J9</f>
-        <v/>
+      <c r="I9" s="7" t="n">
+        <v>329</v>
       </c>
       <c r="J9" s="4" t="n">
         <v>13017</v>
@@ -21103,32 +23657,28 @@
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>2653</v>
-      </c>
-      <c r="C10" s="7">
-        <f>B10-D10</f>
-        <v/>
+        <v>2681</v>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>28</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>2653</v>
       </c>
-      <c r="E10" s="7">
-        <f>B10-F10</f>
-        <v/>
+      <c r="E10" s="7" t="n">
+        <v>28</v>
       </c>
       <c r="F10" s="4" t="n">
         <v>2653</v>
       </c>
-      <c r="G10" s="7">
-        <f>B10-H10</f>
-        <v/>
+      <c r="G10" s="7" t="n">
+        <v>29</v>
       </c>
       <c r="H10" s="4" t="n">
         <v>2652</v>
       </c>
-      <c r="I10" s="7">
-        <f>B10-J10</f>
-        <v/>
+      <c r="I10" s="7" t="n">
+        <v>29</v>
       </c>
       <c r="J10" s="4" t="n">
         <v>2652</v>
@@ -21141,32 +23691,28 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>105099</v>
-      </c>
-      <c r="C11" s="7">
-        <f>B11-D11</f>
-        <v/>
+        <v>106995</v>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>1896</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>105099</v>
       </c>
-      <c r="E11" s="7">
-        <f>B11-F11</f>
-        <v/>
+      <c r="E11" s="7" t="n">
+        <v>1896</v>
       </c>
       <c r="F11" s="4" t="n">
         <v>105099</v>
       </c>
-      <c r="G11" s="7">
-        <f>B11-H11</f>
-        <v/>
+      <c r="G11" s="7" t="n">
+        <v>1912</v>
       </c>
       <c r="H11" s="4" t="n">
         <v>105083</v>
       </c>
-      <c r="I11" s="7">
-        <f>B11-J11</f>
-        <v/>
+      <c r="I11" s="7" t="n">
+        <v>1912</v>
       </c>
       <c r="J11" s="4" t="n">
         <v>105083</v>
@@ -21179,32 +23725,28 @@
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>88</v>
-      </c>
-      <c r="C12" s="7">
-        <f>B12-D12</f>
-        <v/>
+        <v>89</v>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>88</v>
       </c>
-      <c r="E12" s="7">
-        <f>B12-F12</f>
-        <v/>
+      <c r="E12" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="F12" s="4" t="n">
         <v>88</v>
       </c>
-      <c r="G12" s="7">
-        <f>B12-H12</f>
-        <v/>
+      <c r="G12" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="H12" s="4" t="n">
         <v>88</v>
       </c>
-      <c r="I12" s="7">
-        <f>B12-J12</f>
-        <v/>
+      <c r="I12" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="J12" s="4" t="n">
         <v>88</v>
@@ -21217,32 +23759,28 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>3425</v>
-      </c>
-      <c r="C13" s="7">
-        <f>B13-D13</f>
-        <v/>
+        <v>3481</v>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>56</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>3425</v>
       </c>
-      <c r="E13" s="7">
-        <f>B13-F13</f>
-        <v/>
+      <c r="E13" s="7" t="n">
+        <v>56</v>
       </c>
       <c r="F13" s="4" t="n">
         <v>3425</v>
       </c>
-      <c r="G13" s="7">
-        <f>B13-H13</f>
-        <v/>
+      <c r="G13" s="7" t="n">
+        <v>56</v>
       </c>
       <c r="H13" s="4" t="n">
         <v>3425</v>
       </c>
-      <c r="I13" s="7">
-        <f>B13-J13</f>
-        <v/>
+      <c r="I13" s="7" t="n">
+        <v>56</v>
       </c>
       <c r="J13" s="4" t="n">
         <v>3425</v>
@@ -21255,32 +23793,28 @@
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>10360</v>
-      </c>
-      <c r="C14" s="7">
-        <f>B14-D14</f>
-        <v/>
+        <v>10660</v>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>300</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>10360</v>
       </c>
-      <c r="E14" s="7">
-        <f>B14-F14</f>
-        <v/>
+      <c r="E14" s="7" t="n">
+        <v>300</v>
       </c>
       <c r="F14" s="4" t="n">
         <v>10360</v>
       </c>
-      <c r="G14" s="7">
-        <f>B14-H14</f>
-        <v/>
+      <c r="G14" s="7" t="n">
+        <v>300</v>
       </c>
       <c r="H14" s="4" t="n">
         <v>10360</v>
       </c>
-      <c r="I14" s="7">
-        <f>B14-J14</f>
-        <v/>
+      <c r="I14" s="7" t="n">
+        <v>300</v>
       </c>
       <c r="J14" s="4" t="n">
         <v>10360</v>
@@ -21293,32 +23827,28 @@
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>14152</v>
-      </c>
-      <c r="C15" s="7">
-        <f>B15-D15</f>
-        <v/>
+        <v>14396</v>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>244</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>14152</v>
       </c>
-      <c r="E15" s="7">
-        <f>B15-F15</f>
-        <v/>
+      <c r="E15" s="7" t="n">
+        <v>244</v>
       </c>
       <c r="F15" s="4" t="n">
         <v>14152</v>
       </c>
-      <c r="G15" s="7">
-        <f>B15-H15</f>
-        <v/>
+      <c r="G15" s="7" t="n">
+        <v>245</v>
       </c>
       <c r="H15" s="4" t="n">
         <v>14151</v>
       </c>
-      <c r="I15" s="7">
-        <f>B15-J15</f>
-        <v/>
+      <c r="I15" s="7" t="n">
+        <v>245</v>
       </c>
       <c r="J15" s="4" t="n">
         <v>14151</v>
@@ -21331,32 +23861,28 @@
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>7284</v>
-      </c>
-      <c r="C16" s="7">
-        <f>B16-D16</f>
-        <v/>
+        <v>7387</v>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>103</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>7284</v>
       </c>
-      <c r="E16" s="7">
-        <f>B16-F16</f>
-        <v/>
+      <c r="E16" s="7" t="n">
+        <v>103</v>
       </c>
       <c r="F16" s="4" t="n">
         <v>7284</v>
       </c>
-      <c r="G16" s="7">
-        <f>B16-H16</f>
-        <v/>
+      <c r="G16" s="7" t="n">
+        <v>104</v>
       </c>
       <c r="H16" s="4" t="n">
         <v>7283</v>
       </c>
-      <c r="I16" s="7">
-        <f>B16-J16</f>
-        <v/>
+      <c r="I16" s="7" t="n">
+        <v>104</v>
       </c>
       <c r="J16" s="4" t="n">
         <v>7283</v>
@@ -21369,32 +23895,28 @@
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>7017</v>
-      </c>
-      <c r="C17" s="7">
-        <f>B17-D17</f>
-        <v/>
+        <v>7142</v>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>125</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>7017</v>
       </c>
-      <c r="E17" s="7">
-        <f>B17-F17</f>
-        <v/>
+      <c r="E17" s="7" t="n">
+        <v>125</v>
       </c>
       <c r="F17" s="4" t="n">
         <v>7017</v>
       </c>
-      <c r="G17" s="7">
-        <f>B17-H17</f>
-        <v/>
+      <c r="G17" s="7" t="n">
+        <v>126</v>
       </c>
       <c r="H17" s="4" t="n">
         <v>7016</v>
       </c>
-      <c r="I17" s="7">
-        <f>B17-J17</f>
-        <v/>
+      <c r="I17" s="7" t="n">
+        <v>126</v>
       </c>
       <c r="J17" s="4" t="n">
         <v>7016</v>
@@ -21407,32 +23929,28 @@
         </is>
       </c>
       <c r="B18" s="4" t="n">
-        <v>6263</v>
-      </c>
-      <c r="C18" s="7">
-        <f>B18-D18</f>
-        <v/>
+        <v>6396</v>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>133</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>6263</v>
       </c>
-      <c r="E18" s="7">
-        <f>B18-F18</f>
-        <v/>
+      <c r="E18" s="7" t="n">
+        <v>133</v>
       </c>
       <c r="F18" s="4" t="n">
         <v>6263</v>
       </c>
-      <c r="G18" s="7">
-        <f>B18-H18</f>
-        <v/>
+      <c r="G18" s="7" t="n">
+        <v>133</v>
       </c>
       <c r="H18" s="4" t="n">
         <v>6263</v>
       </c>
-      <c r="I18" s="7">
-        <f>B18-J18</f>
-        <v/>
+      <c r="I18" s="7" t="n">
+        <v>133</v>
       </c>
       <c r="J18" s="4" t="n">
         <v>6263</v>
@@ -21445,32 +23963,28 @@
         </is>
       </c>
       <c r="B19" s="4" t="n">
-        <v>335</v>
-      </c>
-      <c r="C19" s="7">
-        <f>B19-D19</f>
-        <v/>
+        <v>340</v>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>5</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>335</v>
       </c>
-      <c r="E19" s="7">
-        <f>B19-F19</f>
-        <v/>
+      <c r="E19" s="7" t="n">
+        <v>5</v>
       </c>
       <c r="F19" s="4" t="n">
         <v>335</v>
       </c>
-      <c r="G19" s="7">
-        <f>B19-H19</f>
-        <v/>
+      <c r="G19" s="7" t="n">
+        <v>5</v>
       </c>
       <c r="H19" s="4" t="n">
         <v>335</v>
       </c>
-      <c r="I19" s="7">
-        <f>B19-J19</f>
-        <v/>
+      <c r="I19" s="7" t="n">
+        <v>5</v>
       </c>
       <c r="J19" s="4" t="n">
         <v>335</v>
@@ -21483,32 +23997,28 @@
         </is>
       </c>
       <c r="B20" s="4" t="n">
-        <v>87</v>
-      </c>
-      <c r="C20" s="7">
-        <f>B20-D20</f>
-        <v/>
+        <v>88</v>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>87</v>
       </c>
-      <c r="E20" s="7">
-        <f>B20-F20</f>
-        <v/>
+      <c r="E20" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="F20" s="4" t="n">
         <v>87</v>
       </c>
-      <c r="G20" s="7">
-        <f>B20-H20</f>
-        <v/>
+      <c r="G20" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="H20" s="4" t="n">
         <v>87</v>
       </c>
-      <c r="I20" s="7">
-        <f>B20-J20</f>
-        <v/>
+      <c r="I20" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="J20" s="4" t="n">
         <v>87</v>
@@ -21521,32 +24031,28 @@
         </is>
       </c>
       <c r="B21" s="4" t="n">
-        <v>161</v>
-      </c>
-      <c r="C21" s="7">
-        <f>B21-D21</f>
-        <v/>
+        <v>164</v>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>3</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>161</v>
       </c>
-      <c r="E21" s="7">
-        <f>B21-F21</f>
-        <v/>
+      <c r="E21" s="7" t="n">
+        <v>3</v>
       </c>
       <c r="F21" s="4" t="n">
         <v>161</v>
       </c>
-      <c r="G21" s="7">
-        <f>B21-H21</f>
-        <v/>
+      <c r="G21" s="7" t="n">
+        <v>3</v>
       </c>
       <c r="H21" s="4" t="n">
         <v>161</v>
       </c>
-      <c r="I21" s="7">
-        <f>B21-J21</f>
-        <v/>
+      <c r="I21" s="7" t="n">
+        <v>3</v>
       </c>
       <c r="J21" s="4" t="n">
         <v>161</v>
@@ -21559,32 +24065,28 @@
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>4513645</v>
-      </c>
-      <c r="C22" s="7">
-        <f>B22-D22</f>
-        <v/>
+        <v>4666811</v>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>154997</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>4511814</v>
       </c>
-      <c r="E22" s="7">
-        <f>B22-F22</f>
-        <v/>
+      <c r="E22" s="7" t="n">
+        <v>153166</v>
       </c>
       <c r="F22" s="4" t="n">
         <v>4513645</v>
       </c>
-      <c r="G22" s="7">
-        <f>B22-H22</f>
-        <v/>
+      <c r="G22" s="7" t="n">
+        <v>155166</v>
       </c>
       <c r="H22" s="4" t="n">
         <v>4511645</v>
       </c>
-      <c r="I22" s="7">
-        <f>B22-J22</f>
-        <v/>
+      <c r="I22" s="7" t="n">
+        <v>155166</v>
       </c>
       <c r="J22" s="4" t="n">
         <v>4511645</v>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -39,6 +39,7 @@
     <sheet name="tntcoins2" sheetId="31" state="visible" r:id="rId31"/>
     <sheet name="dejectin1" sheetId="32" state="visible" r:id="rId32"/>
     <sheet name="brokenarrow1011" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="tntcoins3" sheetId="34" state="visible" r:id="rId34"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20825,6 +20826,539 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B1" s="9" t="inlineStr">
+        <is>
+          <t>All-time</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="inlineStr">
+        <is>
+          <t>Session Delta</t>
+        </is>
+      </c>
+      <c r="D1" s="9" t="inlineStr">
+        <is>
+          <t>Session Snapshot</t>
+        </is>
+      </c>
+      <c r="E1" s="9" t="inlineStr">
+        <is>
+          <t>Daily Delta</t>
+        </is>
+      </c>
+      <c r="F1" s="9" t="inlineStr">
+        <is>
+          <t>Daily Snapshot</t>
+        </is>
+      </c>
+      <c r="G1" s="9" t="inlineStr">
+        <is>
+          <t>Yesterday Delta</t>
+        </is>
+      </c>
+      <c r="H1" s="9" t="inlineStr">
+        <is>
+          <t>Yesterday Snapshot</t>
+        </is>
+      </c>
+      <c r="I1" s="9" t="inlineStr">
+        <is>
+          <t>Monthly Delta</t>
+        </is>
+      </c>
+      <c r="J1" s="9" t="inlineStr">
+        <is>
+          <t>Monthly Snapshot</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>available_layers</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>26</v>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="E2" t="n">
+        <v>26</v>
+      </c>
+      <c r="G2" t="n">
+        <v>26</v>
+      </c>
+      <c r="I2" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>experience</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3122820.833333359</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3122820.833333359</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3122820.833333359</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3122820.833333359</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3122820.833333359</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>level</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>639</v>
+      </c>
+      <c r="C4" t="n">
+        <v>639</v>
+      </c>
+      <c r="E4" t="n">
+        <v>639</v>
+      </c>
+      <c r="G4" t="n">
+        <v>639</v>
+      </c>
+      <c r="I4" t="n">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>coins</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>203210</v>
+      </c>
+      <c r="C5" t="n">
+        <v>203210</v>
+      </c>
+      <c r="E5" t="n">
+        <v>203210</v>
+      </c>
+      <c r="G5" t="n">
+        <v>203210</v>
+      </c>
+      <c r="I5" t="n">
+        <v>203210</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>damage_dealt</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1049455</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1049455</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1049455</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1049455</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1049455</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9943</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9943</v>
+      </c>
+      <c r="E7" t="n">
+        <v>9943</v>
+      </c>
+      <c r="G7" t="n">
+        <v>9943</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9943</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>deaths_explosive</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2713</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2713</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2713</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2713</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>games_played</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>33387</v>
+      </c>
+      <c r="C9" t="n">
+        <v>33387</v>
+      </c>
+      <c r="E9" t="n">
+        <v>33387</v>
+      </c>
+      <c r="G9" t="n">
+        <v>33387</v>
+      </c>
+      <c r="I9" t="n">
+        <v>33387</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>losses</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6005</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6005</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6005</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6005</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6005</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sheep_thrown</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>395348</v>
+      </c>
+      <c r="C11" t="n">
+        <v>395348</v>
+      </c>
+      <c r="E11" t="n">
+        <v>395348</v>
+      </c>
+      <c r="G11" t="n">
+        <v>395348</v>
+      </c>
+      <c r="I11" t="n">
+        <v>395348</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>deaths_bow</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>171</v>
+      </c>
+      <c r="C12" t="n">
+        <v>171</v>
+      </c>
+      <c r="E12" t="n">
+        <v>171</v>
+      </c>
+      <c r="G12" t="n">
+        <v>171</v>
+      </c>
+      <c r="I12" t="n">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>deaths_void</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6881</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6881</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6881</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6881</v>
+      </c>
+      <c r="I13" t="n">
+        <v>6881</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>wins</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>27371</v>
+      </c>
+      <c r="C14" t="n">
+        <v>27371</v>
+      </c>
+      <c r="E14" t="n">
+        <v>27371</v>
+      </c>
+      <c r="G14" t="n">
+        <v>27371</v>
+      </c>
+      <c r="I14" t="n">
+        <v>27371</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>kills</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>49475</v>
+      </c>
+      <c r="C15" t="n">
+        <v>49475</v>
+      </c>
+      <c r="E15" t="n">
+        <v>49475</v>
+      </c>
+      <c r="G15" t="n">
+        <v>49475</v>
+      </c>
+      <c r="I15" t="n">
+        <v>49475</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>kills_void</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>31175</v>
+      </c>
+      <c r="C16" t="n">
+        <v>31175</v>
+      </c>
+      <c r="E16" t="n">
+        <v>31175</v>
+      </c>
+      <c r="G16" t="n">
+        <v>31175</v>
+      </c>
+      <c r="I16" t="n">
+        <v>31175</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>magic_wool_hit</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>17801</v>
+      </c>
+      <c r="C17" t="n">
+        <v>17801</v>
+      </c>
+      <c r="E17" t="n">
+        <v>17801</v>
+      </c>
+      <c r="G17" t="n">
+        <v>17801</v>
+      </c>
+      <c r="I17" t="n">
+        <v>17801</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>kills_explosive</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>16918</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16918</v>
+      </c>
+      <c r="E18" t="n">
+        <v>16918</v>
+      </c>
+      <c r="G18" t="n">
+        <v>16918</v>
+      </c>
+      <c r="I18" t="n">
+        <v>16918</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>kills_melee</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>118</v>
+      </c>
+      <c r="C19" t="n">
+        <v>118</v>
+      </c>
+      <c r="E19" t="n">
+        <v>118</v>
+      </c>
+      <c r="G19" t="n">
+        <v>118</v>
+      </c>
+      <c r="I19" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>deaths_melee</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>52</v>
+      </c>
+      <c r="C20" t="n">
+        <v>52</v>
+      </c>
+      <c r="E20" t="n">
+        <v>52</v>
+      </c>
+      <c r="G20" t="n">
+        <v>52</v>
+      </c>
+      <c r="I20" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>kills_bow</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1194</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1194</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1194</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1194</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>playtime</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3374776</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3374776</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3374776</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3374776</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3374776</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -21707,28 +22241,28 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="7" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>10</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>10</v>
       </c>
       <c r="G2" s="7" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>10</v>
       </c>
       <c r="I2" s="7" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>10</v>
@@ -21741,28 +22275,28 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>588488.7499999991</v>
+        <v>588647.0833333324</v>
       </c>
       <c r="C3" s="7" t="n">
-        <v>15374.58333333326</v>
+        <v>15532.91666666663</v>
       </c>
       <c r="D3" s="6" t="n">
         <v>573114.1666666658</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>15374.58333333326</v>
+        <v>15532.91666666663</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>573114.1666666658</v>
       </c>
       <c r="G3" s="7" t="n">
-        <v>15374.58333333326</v>
+        <v>15532.91666666663</v>
       </c>
       <c r="H3" s="6" t="n">
         <v>573114.1666666658</v>
       </c>
       <c r="I3" s="7" t="n">
-        <v>15374.58333333326</v>
+        <v>15532.91666666663</v>
       </c>
       <c r="J3" s="6" t="n">
         <v>573114.1666666658</v>
@@ -21809,28 +22343,28 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>141282</v>
+        <v>141312</v>
       </c>
       <c r="C5" s="7" t="n">
-        <v>2282</v>
+        <v>2312</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>139000</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>2282</v>
+        <v>2312</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>139000</v>
       </c>
       <c r="G5" s="7" t="n">
-        <v>2282</v>
+        <v>2312</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>139000</v>
       </c>
       <c r="I5" s="7" t="n">
-        <v>2282</v>
+        <v>2312</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>139000</v>
@@ -21843,28 +22377,28 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>100793</v>
+        <v>100822</v>
       </c>
       <c r="C6" s="7" t="n">
-        <v>2568</v>
+        <v>2597</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>98225</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>2568</v>
+        <v>2597</v>
       </c>
       <c r="F6" s="4" t="n">
         <v>98225</v>
       </c>
       <c r="G6" s="7" t="n">
-        <v>2568</v>
+        <v>2597</v>
       </c>
       <c r="H6" s="4" t="n">
         <v>98225</v>
       </c>
       <c r="I6" s="7" t="n">
-        <v>2568</v>
+        <v>2597</v>
       </c>
       <c r="J6" s="4" t="n">
         <v>98225</v>
@@ -21877,28 +22411,28 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>3530</v>
+        <v>3531</v>
       </c>
       <c r="C7" s="7" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>3440</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F7" s="4" t="n">
         <v>3440</v>
       </c>
       <c r="G7" s="7" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H7" s="4" t="n">
         <v>3440</v>
       </c>
       <c r="I7" s="7" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J7" s="4" t="n">
         <v>3440</v>
@@ -21945,28 +22479,28 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>5932</v>
+        <v>5934</v>
       </c>
       <c r="C9" s="7" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>5774</v>
       </c>
       <c r="E9" s="7" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>5774</v>
       </c>
       <c r="G9" s="7" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H9" s="4" t="n">
         <v>5774</v>
       </c>
       <c r="I9" s="7" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J9" s="4" t="n">
         <v>5774</v>
@@ -22013,28 +22547,28 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>56330</v>
+        <v>56344</v>
       </c>
       <c r="C11" s="7" t="n">
-        <v>1083</v>
+        <v>1097</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>55247</v>
       </c>
       <c r="E11" s="7" t="n">
-        <v>1083</v>
+        <v>1097</v>
       </c>
       <c r="F11" s="4" t="n">
         <v>55247</v>
       </c>
       <c r="G11" s="7" t="n">
-        <v>1083</v>
+        <v>1097</v>
       </c>
       <c r="H11" s="4" t="n">
         <v>55247</v>
       </c>
       <c r="I11" s="7" t="n">
-        <v>1083</v>
+        <v>1097</v>
       </c>
       <c r="J11" s="4" t="n">
         <v>55247</v>
@@ -22081,28 +22615,28 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>2585</v>
+        <v>2586</v>
       </c>
       <c r="C13" s="7" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>2519</v>
       </c>
       <c r="E13" s="7" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F13" s="4" t="n">
         <v>2519</v>
       </c>
       <c r="G13" s="7" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H13" s="4" t="n">
         <v>2519</v>
       </c>
       <c r="I13" s="7" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J13" s="4" t="n">
         <v>2519</v>
@@ -22115,28 +22649,28 @@
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>3904</v>
+        <v>3906</v>
       </c>
       <c r="C14" s="7" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>3771</v>
       </c>
       <c r="E14" s="7" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F14" s="4" t="n">
         <v>3771</v>
       </c>
       <c r="G14" s="7" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H14" s="4" t="n">
         <v>3771</v>
       </c>
       <c r="I14" s="7" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J14" s="4" t="n">
         <v>3771</v>
@@ -22149,28 +22683,28 @@
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>4207</v>
+        <v>4211</v>
       </c>
       <c r="C15" s="7" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>4099</v>
       </c>
       <c r="E15" s="7" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F15" s="4" t="n">
         <v>4099</v>
       </c>
       <c r="G15" s="7" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H15" s="4" t="n">
         <v>4099</v>
       </c>
       <c r="I15" s="7" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="J15" s="4" t="n">
         <v>4099</v>
@@ -22183,28 +22717,28 @@
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>2759</v>
+        <v>2763</v>
       </c>
       <c r="C16" s="7" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>2697</v>
       </c>
       <c r="E16" s="7" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F16" s="4" t="n">
         <v>2697</v>
       </c>
       <c r="G16" s="7" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H16" s="4" t="n">
         <v>2697</v>
       </c>
       <c r="I16" s="7" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J16" s="4" t="n">
         <v>2697</v>
@@ -22387,28 +22921,28 @@
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>622398</v>
+        <v>622562</v>
       </c>
       <c r="C22" s="7" t="n">
-        <v>15239</v>
+        <v>15403</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>607159</v>
       </c>
       <c r="E22" s="7" t="n">
-        <v>15239</v>
+        <v>15403</v>
       </c>
       <c r="F22" s="4" t="n">
         <v>607159</v>
       </c>
       <c r="G22" s="7" t="n">
-        <v>15239</v>
+        <v>15403</v>
       </c>
       <c r="H22" s="4" t="n">
         <v>607159</v>
       </c>
       <c r="I22" s="7" t="n">
-        <v>15239</v>
+        <v>15403</v>
       </c>
       <c r="J22" s="4" t="n">
         <v>607159</v>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -50,6 +50,8 @@
     <sheet name="pogdvde" sheetId="42" state="visible" r:id="rId42"/>
     <sheet name="CJHong" sheetId="43" state="visible" r:id="rId43"/>
     <sheet name="TimmieJimmie" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="ewz_" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="oAlkaline" sheetId="46" state="visible" r:id="rId46"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1404,28 +1406,28 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>2</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>6</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>5</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>2</v>
@@ -1438,28 +1440,28 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>220373.3333333331</v>
+        <v>223216.2499999998</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4157.499999999884</v>
+        <v>7000.416666666599</v>
       </c>
       <c r="D3" s="6" t="n">
         <v>216215.8333333332</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2545.833333333168</v>
+        <v>5388.749999999884</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>217827.4999999999</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>18447.08333333308</v>
+        <v>21289.9999999998</v>
       </c>
       <c r="H3" s="6" t="n">
         <v>201926.25</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>4157.499999999884</v>
+        <v>7000.416666666599</v>
       </c>
       <c r="J3" s="6" t="n">
         <v>216215.8333333332</v>
@@ -1506,28 +1508,28 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1640</v>
+        <v>1820</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>150</v>
+        <v>330</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>1490</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>1520</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1140</v>
+        <v>1320</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>500</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>150</v>
+        <v>330</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>1490</v>
@@ -1540,28 +1542,28 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>64502</v>
+        <v>65435</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1310</v>
+        <v>2243</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>63192</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>845</v>
+        <v>1778</v>
       </c>
       <c r="F6" s="4" t="n">
         <v>63657</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>5325</v>
+        <v>6258</v>
       </c>
       <c r="H6" s="4" t="n">
         <v>59177</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1310</v>
+        <v>2243</v>
       </c>
       <c r="J6" s="4" t="n">
         <v>63192</v>
@@ -1574,28 +1576,28 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>1816</v>
+        <v>1837</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>1717</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F7" s="4" t="n">
         <v>1804</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="H7" s="4" t="n">
         <v>1740</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="J7" s="4" t="n">
         <v>1717</v>
@@ -1608,28 +1610,28 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>591</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F8" s="4" t="n">
         <v>591</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H8" s="4" t="n">
         <v>568</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J8" s="4" t="n">
         <v>591</v>
@@ -1642,28 +1644,28 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>3288</v>
+        <v>3327</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>3231</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>3252</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c r="H9" s="4" t="n">
         <v>3041</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="J9" s="4" t="n">
         <v>3231</v>
@@ -1676,28 +1678,28 @@
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>1460</v>
+        <v>1476</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>1390</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F10" s="4" t="n">
         <v>1451</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="H10" s="4" t="n">
         <v>1404</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="J10" s="4" t="n">
         <v>1390</v>
@@ -1710,28 +1712,28 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>40606</v>
+        <v>41126</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>675</v>
+        <v>1195</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>39931</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>430</v>
+        <v>950</v>
       </c>
       <c r="F11" s="4" t="n">
         <v>40176</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>2978</v>
+        <v>3498</v>
       </c>
       <c r="H11" s="4" t="n">
         <v>37628</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>675</v>
+        <v>1195</v>
       </c>
       <c r="J11" s="4" t="n">
         <v>39931</v>
@@ -1778,28 +1780,28 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>1153</v>
+        <v>1165</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>1141</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F13" s="4" t="n">
         <v>1143</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H13" s="4" t="n">
         <v>1103</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J13" s="4" t="n">
         <v>1141</v>
@@ -1812,28 +1814,28 @@
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>1827</v>
+        <v>1850</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>1557</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="F14" s="4" t="n">
         <v>1800</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="H14" s="4" t="n">
         <v>1636</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="J14" s="4" t="n">
         <v>1557</v>
@@ -1846,28 +1848,28 @@
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>2581</v>
+        <v>2626</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>303</v>
+        <v>348</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>2278</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="F15" s="4" t="n">
         <v>2549</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>230</v>
+        <v>275</v>
       </c>
       <c r="H15" s="4" t="n">
         <v>2351</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>303</v>
+        <v>348</v>
       </c>
       <c r="J15" s="4" t="n">
         <v>2278</v>
@@ -1880,28 +1882,28 @@
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>1910</v>
+        <v>1944</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>1879</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="F16" s="4" t="n">
         <v>1890</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="H16" s="4" t="n">
         <v>1745</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="J16" s="4" t="n">
         <v>1879</v>
@@ -1914,28 +1916,28 @@
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>1441</v>
+        <v>1450</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>1422</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F17" s="4" t="n">
         <v>1431</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="H17" s="4" t="n">
         <v>1322</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J17" s="4" t="n">
         <v>1422</v>
@@ -1948,28 +1950,28 @@
         </is>
       </c>
       <c r="B18" s="4" t="n">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>577</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F18" s="4" t="n">
         <v>585</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H18" s="4" t="n">
         <v>537</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J18" s="4" t="n">
         <v>577</v>
@@ -2016,28 +2018,28 @@
         </is>
       </c>
       <c r="B20" s="4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>13</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="4" t="n">
         <v>13</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" s="4" t="n">
         <v>13</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" s="4" t="n">
         <v>13</v>
@@ -2050,28 +2052,28 @@
         </is>
       </c>
       <c r="B21" s="4" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C21" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>70</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F21" s="4" t="n">
         <v>70</v>
       </c>
       <c r="G21" s="4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H21" s="4" t="n">
         <v>65</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J21" s="4" t="n">
         <v>70</v>
@@ -2084,28 +2086,28 @@
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>339836</v>
+        <v>344091</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>5706</v>
+        <v>9961</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>334130</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>3602</v>
+        <v>7857</v>
       </c>
       <c r="F22" s="4" t="n">
         <v>336234</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>25865</v>
+        <v>30120</v>
       </c>
       <c r="H22" s="4" t="n">
         <v>313971</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>5706</v>
+        <v>9961</v>
       </c>
       <c r="J22" s="4" t="n">
         <v>334130</v>
@@ -5389,28 +5391,28 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>-47</v>
+        <v>-41</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>95</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>46</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>-47</v>
+        <v>-41</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>95</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>-47</v>
+        <v>-41</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>95</v>
@@ -5423,28 +5425,28 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>135006.6666666665</v>
+        <v>136335.8333333332</v>
       </c>
       <c r="C3" s="6" t="n">
-        <v>31954.16666666651</v>
+        <v>33283.3333333332</v>
       </c>
       <c r="D3" s="6" t="n">
         <v>103052.5</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>2484.583333333314</v>
+        <v>3813.75</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>132522.0833333332</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>31954.16666666651</v>
+        <v>33283.3333333332</v>
       </c>
       <c r="H3" s="6" t="n">
         <v>103052.5</v>
       </c>
       <c r="I3" s="6" t="n">
-        <v>31954.16666666651</v>
+        <v>33283.3333333332</v>
       </c>
       <c r="J3" s="6" t="n">
         <v>103052.5</v>
@@ -5525,28 +5527,28 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>54877</v>
+        <v>55465</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>13424</v>
+        <v>14012</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>41453</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>1260</v>
+        <v>1848</v>
       </c>
       <c r="F6" s="4" t="n">
         <v>53617</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>13424</v>
+        <v>14012</v>
       </c>
       <c r="H6" s="4" t="n">
         <v>41453</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>13424</v>
+        <v>14012</v>
       </c>
       <c r="J6" s="4" t="n">
         <v>41453</v>
@@ -5559,28 +5561,28 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>863</v>
+        <v>872</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>609</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F7" s="4" t="n">
         <v>848</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="H7" s="4" t="n">
         <v>662</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="J7" s="4" t="n">
         <v>609</v>
@@ -5593,28 +5595,28 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>190</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8" s="4" t="n">
         <v>234</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" s="4" t="n">
         <v>190</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J8" s="4" t="n">
         <v>190</v>
@@ -5627,28 +5629,28 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>1817</v>
+        <v>1835</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>1381</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>1784</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="H9" s="4" t="n">
         <v>1381</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="J9" s="4" t="n">
         <v>1381</v>
@@ -5661,28 +5663,28 @@
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>475</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F10" s="4" t="n">
         <v>660</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="H10" s="4" t="n">
         <v>517</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="J10" s="4" t="n">
         <v>475</v>
@@ -5695,28 +5697,28 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>22416</v>
+        <v>22660</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>5290</v>
+        <v>5534</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>17126</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>418</v>
+        <v>662</v>
       </c>
       <c r="F11" s="4" t="n">
         <v>21998</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>5290</v>
+        <v>5534</v>
       </c>
       <c r="H11" s="4" t="n">
         <v>17126</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>5290</v>
+        <v>5534</v>
       </c>
       <c r="J11" s="4" t="n">
         <v>17126</v>
@@ -5729,28 +5731,28 @@
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>8</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="4" t="n">
         <v>14</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H12" s="4" t="n">
         <v>8</v>
       </c>
       <c r="I12" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J12" s="4" t="n">
         <v>8</v>
@@ -5763,28 +5765,28 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>458</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F13" s="4" t="n">
         <v>589</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="H13" s="4" t="n">
         <v>458</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="J13" s="4" t="n">
         <v>458</v>
@@ -5797,28 +5799,28 @@
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>1143</v>
+        <v>1154</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>775</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F14" s="4" t="n">
         <v>1122</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="H14" s="4" t="n">
         <v>862</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="J14" s="4" t="n">
         <v>775</v>
@@ -5831,28 +5833,28 @@
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>2421</v>
+        <v>2452</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>741</v>
+        <v>772</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>1680</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="F15" s="4" t="n">
         <v>2371</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>555</v>
+        <v>586</v>
       </c>
       <c r="H15" s="4" t="n">
         <v>1866</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>741</v>
+        <v>772</v>
       </c>
       <c r="J15" s="4" t="n">
         <v>1680</v>
@@ -5865,28 +5867,28 @@
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>1607</v>
+        <v>1629</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>1238</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="F16" s="4" t="n">
         <v>1574</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="H16" s="4" t="n">
         <v>1238</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J16" s="4" t="n">
         <v>1238</v>
@@ -5899,28 +5901,28 @@
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>71</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F17" s="4" t="n">
         <v>127</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H17" s="4" t="n">
         <v>71</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="J17" s="4" t="n">
         <v>71</v>
@@ -5933,28 +5935,28 @@
         </is>
       </c>
       <c r="B18" s="4" t="n">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>611</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F18" s="4" t="n">
         <v>772</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="H18" s="4" t="n">
         <v>611</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="J18" s="4" t="n">
         <v>611</v>
@@ -6069,28 +6071,28 @@
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>195712</v>
+        <v>197438</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>45742</v>
+        <v>47468</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>149970</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>3407</v>
+        <v>5133</v>
       </c>
       <c r="F22" s="4" t="n">
         <v>192305</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>45742</v>
+        <v>47468</v>
       </c>
       <c r="H22" s="4" t="n">
         <v>149970</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>45742</v>
+        <v>47468</v>
       </c>
       <c r="J22" s="4" t="n">
         <v>149970</v>
@@ -6220,28 +6222,28 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>3126235.416666652</v>
+        <v>3126355.416666652</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>10254.58333333349</v>
+        <v>10374.58333333349</v>
       </c>
       <c r="D3" s="6" t="n">
         <v>3115980.833333318</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5134.166666666511</v>
+        <v>5254.166666666511</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>3121101.249999985</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>22520.83333333163</v>
+        <v>22640.83333333163</v>
       </c>
       <c r="H3" s="6" t="n">
         <v>3103714.58333332</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>10254.58333333349</v>
+        <v>10374.58333333349</v>
       </c>
       <c r="J3" s="6" t="n">
         <v>3115980.833333318</v>
@@ -6288,28 +6290,28 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>325943</v>
+        <v>325973</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2686</v>
+        <v>2716</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>323257</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1396</v>
+        <v>1426</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>324547</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4200</v>
+        <v>4230</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>321743</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2686</v>
+        <v>2716</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>323257</v>
@@ -8577,28 +8579,28 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>-77</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>80</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>-77</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>80</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>-77</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>80</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>-77</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>80</v>
@@ -8611,28 +8613,28 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>2487568.333333332</v>
+        <v>2502617.083333332</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0</v>
+        <v>15048.74999999953</v>
       </c>
       <c r="D3" s="6" t="n">
         <v>2487568.333333332</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>15048.74999999953</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>2487568.333333332</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>1.862645149230957e-09</v>
+        <v>15048.7500000014</v>
       </c>
       <c r="H3" s="6" t="n">
         <v>2487568.33333333</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0</v>
+        <v>15048.74999999953</v>
       </c>
       <c r="J3" s="6" t="n">
         <v>2487568.333333332</v>
@@ -8645,28 +8647,28 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>510</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>510</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>510</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>510</v>
@@ -8679,28 +8681,28 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>283749</v>
+        <v>301854</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0</v>
+        <v>18105</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>283749</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0</v>
+        <v>18105</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>283749</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0</v>
+        <v>18105</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>283749</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0</v>
+        <v>18105</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>283749</v>
@@ -8713,28 +8715,28 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>836331</v>
+        <v>839510</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0</v>
+        <v>3179</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>836331</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0</v>
+        <v>3179</v>
       </c>
       <c r="F6" s="4" t="n">
         <v>836331</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0</v>
+        <v>3179</v>
       </c>
       <c r="H6" s="4" t="n">
         <v>836331</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>0</v>
+        <v>3179</v>
       </c>
       <c r="J6" s="4" t="n">
         <v>836331</v>
@@ -8747,28 +8749,28 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>9910</v>
+        <v>9920</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>9910</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F7" s="4" t="n">
         <v>9910</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H7" s="4" t="n">
         <v>9910</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J7" s="4" t="n">
         <v>9910</v>
@@ -8781,28 +8783,28 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>2711</v>
+        <v>2713</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>2711</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" s="4" t="n">
         <v>2711</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8" s="4" t="n">
         <v>2711</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8" s="4" t="n">
         <v>2711</v>
@@ -8815,28 +8817,28 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>24580</v>
+        <v>24680</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>24580</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>24580</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="4" t="n">
         <v>24580</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="4" t="n">
         <v>24580</v>
@@ -8883,28 +8885,28 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>307668</v>
+        <v>308691</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>0</v>
+        <v>1023</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>307668</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>0</v>
+        <v>1023</v>
       </c>
       <c r="F11" s="4" t="n">
         <v>307668</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>0</v>
+        <v>1023</v>
       </c>
       <c r="H11" s="4" t="n">
         <v>307668</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>0</v>
+        <v>1023</v>
       </c>
       <c r="J11" s="4" t="n">
         <v>307668</v>
@@ -8951,28 +8953,28 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>6807</v>
+        <v>6815</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>6807</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F13" s="4" t="n">
         <v>6807</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H13" s="4" t="n">
         <v>6807</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J13" s="4" t="n">
         <v>6807</v>
@@ -8985,28 +8987,28 @@
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>18435</v>
+        <v>18535</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>18435</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F14" s="4" t="n">
         <v>18435</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H14" s="4" t="n">
         <v>18435</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J14" s="4" t="n">
         <v>18435</v>
@@ -9019,28 +9021,28 @@
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>35842</v>
+        <v>36014</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>35842</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="F15" s="4" t="n">
         <v>35842</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="H15" s="4" t="n">
         <v>35842</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="J15" s="4" t="n">
         <v>35842</v>
@@ -9053,28 +9055,28 @@
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>22815</v>
+        <v>22922</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>22815</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="F16" s="4" t="n">
         <v>22815</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="H16" s="4" t="n">
         <v>22815</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="J16" s="4" t="n">
         <v>22815</v>
@@ -9087,28 +9089,28 @@
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>17711</v>
+        <v>17791</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>17711</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F17" s="4" t="n">
         <v>17711</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H17" s="4" t="n">
         <v>17711</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J17" s="4" t="n">
         <v>17711</v>
@@ -9121,28 +9123,28 @@
         </is>
       </c>
       <c r="B18" s="4" t="n">
-        <v>11514</v>
+        <v>11568</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>11514</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="F18" s="4" t="n">
         <v>11514</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="H18" s="4" t="n">
         <v>11514</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="J18" s="4" t="n">
         <v>11514</v>
@@ -9155,28 +9157,28 @@
         </is>
       </c>
       <c r="B19" s="4" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>311</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F19" s="4" t="n">
         <v>311</v>
       </c>
       <c r="G19" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H19" s="4" t="n">
         <v>311</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J19" s="4" t="n">
         <v>311</v>
@@ -9223,28 +9225,28 @@
         </is>
       </c>
       <c r="B21" s="4" t="n">
-        <v>1199</v>
+        <v>1207</v>
       </c>
       <c r="C21" s="4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>1199</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F21" s="4" t="n">
         <v>1199</v>
       </c>
       <c r="G21" s="4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H21" s="4" t="n">
         <v>1199</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J21" s="4" t="n">
         <v>1199</v>
@@ -9257,28 +9259,28 @@
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>2831958</v>
+        <v>2843643</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>0</v>
+        <v>11685</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>2831958</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>0</v>
+        <v>11685</v>
       </c>
       <c r="F22" s="4" t="n">
         <v>2831958</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>0</v>
+        <v>11685</v>
       </c>
       <c r="H22" s="4" t="n">
         <v>2831958</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>0</v>
+        <v>11685</v>
       </c>
       <c r="J22" s="4" t="n">
         <v>2831958</v>
@@ -9408,28 +9410,28 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>765023.7499999981</v>
+        <v>766443.749999998</v>
       </c>
       <c r="C3" s="6" t="n">
-        <v>82061.25000000012</v>
+        <v>83481.25</v>
       </c>
       <c r="D3" s="6" t="n">
         <v>682962.499999998</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0</v>
+        <v>1419.999999999884</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>765023.7499999981</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>82061.25000000012</v>
+        <v>83481.25</v>
       </c>
       <c r="H3" s="6" t="n">
         <v>682962.499999998</v>
       </c>
       <c r="I3" s="6" t="n">
-        <v>82061.25000000012</v>
+        <v>83481.25</v>
       </c>
       <c r="J3" s="6" t="n">
         <v>682962.499999998</v>
@@ -9476,28 +9478,28 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>24513</v>
+        <v>24579</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7047</v>
+        <v>7113</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>17466</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>24513</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7047</v>
+        <v>7113</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>17466</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>7047</v>
+        <v>7113</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>17466</v>
@@ -9510,28 +9512,28 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>185483</v>
+        <v>185862</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>23333</v>
+        <v>23712</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>162150</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="F6" s="4" t="n">
         <v>185483</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>23333</v>
+        <v>23712</v>
       </c>
       <c r="H6" s="4" t="n">
         <v>162150</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>23333</v>
+        <v>23712</v>
       </c>
       <c r="J6" s="4" t="n">
         <v>162150</v>
@@ -9544,28 +9546,28 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>6972</v>
+        <v>6979</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>6469</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F7" s="4" t="n">
         <v>6972</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="H7" s="4" t="n">
         <v>6469</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="J7" s="4" t="n">
         <v>6469</v>
@@ -9612,28 +9614,28 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>11272</v>
+        <v>11294</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>1051</v>
+        <v>1073</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>10221</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>11272</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>1051</v>
+        <v>1073</v>
       </c>
       <c r="H9" s="4" t="n">
         <v>10221</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>1051</v>
+        <v>1073</v>
       </c>
       <c r="J9" s="4" t="n">
         <v>10221</v>
@@ -9646,28 +9648,28 @@
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>3993</v>
+        <v>3994</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>3782</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="4" t="n">
         <v>3993</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H10" s="4" t="n">
         <v>3782</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J10" s="4" t="n">
         <v>3782</v>
@@ -9680,28 +9682,28 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>120615</v>
+        <v>120796</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>11330</v>
+        <v>11511</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>109285</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="F11" s="4" t="n">
         <v>120615</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>11330</v>
+        <v>11511</v>
       </c>
       <c r="H11" s="4" t="n">
         <v>109285</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>11330</v>
+        <v>11511</v>
       </c>
       <c r="J11" s="4" t="n">
         <v>109285</v>
@@ -9748,28 +9750,28 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>5617</v>
+        <v>5624</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>5216</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F13" s="4" t="n">
         <v>5617</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="H13" s="4" t="n">
         <v>5216</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="J13" s="4" t="n">
         <v>5216</v>
@@ -9782,28 +9784,28 @@
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>7264</v>
+        <v>7285</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>840</v>
+        <v>861</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>6424</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F14" s="4" t="n">
         <v>7264</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>840</v>
+        <v>861</v>
       </c>
       <c r="H14" s="4" t="n">
         <v>6424</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>840</v>
+        <v>861</v>
       </c>
       <c r="J14" s="4" t="n">
         <v>6424</v>
@@ -9816,28 +9818,28 @@
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>8001</v>
+        <v>8017</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>1000</v>
+        <v>1016</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>7001</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F15" s="4" t="n">
         <v>8001</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>1000</v>
+        <v>1016</v>
       </c>
       <c r="H15" s="4" t="n">
         <v>7001</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>1000</v>
+        <v>1016</v>
       </c>
       <c r="J15" s="4" t="n">
         <v>7001</v>
@@ -9850,28 +9852,28 @@
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>5493</v>
+        <v>5503</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>4874</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F16" s="4" t="n">
         <v>5493</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="H16" s="4" t="n">
         <v>4874</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="J16" s="4" t="n">
         <v>4874</v>
@@ -9884,28 +9886,28 @@
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>1405</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17" s="4" t="n">
         <v>1545</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H17" s="4" t="n">
         <v>1405</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="J17" s="4" t="n">
         <v>1405</v>
@@ -9918,28 +9920,28 @@
         </is>
       </c>
       <c r="B18" s="4" t="n">
-        <v>2405</v>
+        <v>2411</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>2048</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F18" s="4" t="n">
         <v>2405</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="H18" s="4" t="n">
         <v>2048</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="J18" s="4" t="n">
         <v>2048</v>
@@ -10054,28 +10056,28 @@
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>1119765</v>
+        <v>1121505</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>104547</v>
+        <v>106287</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>1015218</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>0</v>
+        <v>1740</v>
       </c>
       <c r="F22" s="4" t="n">
         <v>1119765</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>104547</v>
+        <v>106287</v>
       </c>
       <c r="H22" s="4" t="n">
         <v>1015218</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>104547</v>
+        <v>106287</v>
       </c>
       <c r="J22" s="4" t="n">
         <v>1015218</v>
@@ -10205,28 +10207,28 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>995026.6666666643</v>
+        <v>996747.0833333306</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>48089.16666666698</v>
+        <v>49809.58333333326</v>
       </c>
       <c r="D3" s="6" t="n">
         <v>946937.4999999973</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>14975.8333333336</v>
+        <v>16696.24999999988</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>980050.8333333307</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>85799.58333333326</v>
+        <v>87519.99999999953</v>
       </c>
       <c r="H3" s="6" t="n">
         <v>909227.083333331</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>48089.16666666698</v>
+        <v>49809.58333333326</v>
       </c>
       <c r="J3" s="6" t="n">
         <v>946937.4999999973</v>
@@ -10307,28 +10309,28 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>230346</v>
+        <v>230843</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>12217</v>
+        <v>12714</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>218129</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>4660</v>
+        <v>5157</v>
       </c>
       <c r="F6" s="4" t="n">
         <v>225686</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>21417</v>
+        <v>21914</v>
       </c>
       <c r="H6" s="4" t="n">
         <v>208929</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>12217</v>
+        <v>12714</v>
       </c>
       <c r="J6" s="4" t="n">
         <v>218129</v>
@@ -10341,28 +10343,28 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>3163</v>
+        <v>3165</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>3100</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F7" s="4" t="n">
         <v>3143</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H7" s="4" t="n">
         <v>3031</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J7" s="4" t="n">
         <v>3100</v>
@@ -10409,28 +10411,28 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>10123</v>
+        <v>10143</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>521</v>
+        <v>541</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>9602</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>9951</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>963</v>
+        <v>983</v>
       </c>
       <c r="H9" s="4" t="n">
         <v>9160</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>521</v>
+        <v>541</v>
       </c>
       <c r="J9" s="4" t="n">
         <v>9602</v>
@@ -10477,28 +10479,28 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>114527</v>
+        <v>114741</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>4962</v>
+        <v>5176</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>109565</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>1831</v>
+        <v>2045</v>
       </c>
       <c r="F11" s="4" t="n">
         <v>112696</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>8870</v>
+        <v>9084</v>
       </c>
       <c r="H11" s="4" t="n">
         <v>105657</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>4962</v>
+        <v>5176</v>
       </c>
       <c r="J11" s="4" t="n">
         <v>109565</v>
@@ -10545,28 +10547,28 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>2278</v>
+        <v>2280</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>2238</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F13" s="4" t="n">
         <v>2268</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H13" s="4" t="n">
         <v>2189</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J13" s="4" t="n">
         <v>2238</v>
@@ -10579,28 +10581,28 @@
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>7941</v>
+        <v>7961</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>486</v>
+        <v>506</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>7455</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F14" s="4" t="n">
         <v>7778</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>886</v>
+        <v>906</v>
       </c>
       <c r="H14" s="4" t="n">
         <v>7055</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>486</v>
+        <v>506</v>
       </c>
       <c r="J14" s="4" t="n">
         <v>7455</v>
@@ -10613,28 +10615,28 @@
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>11070</v>
+        <v>11095</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>644</v>
+        <v>669</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>10426</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="F15" s="4" t="n">
         <v>10811</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>1130</v>
+        <v>1155</v>
       </c>
       <c r="H15" s="4" t="n">
         <v>9940</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>644</v>
+        <v>669</v>
       </c>
       <c r="J15" s="4" t="n">
         <v>10426</v>
@@ -10647,28 +10649,28 @@
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>6540</v>
+        <v>6550</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>6239</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F16" s="4" t="n">
         <v>6422</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="H16" s="4" t="n">
         <v>5989</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="J16" s="4" t="n">
         <v>6239</v>
@@ -10681,28 +10683,28 @@
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>4345</v>
+        <v>4362</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>3994</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="F17" s="4" t="n">
         <v>4173</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>528</v>
+        <v>545</v>
       </c>
       <c r="H17" s="4" t="n">
         <v>3817</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="J17" s="4" t="n">
         <v>3994</v>
@@ -10715,28 +10717,28 @@
         </is>
       </c>
       <c r="B18" s="4" t="n">
-        <v>4357</v>
+        <v>4372</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>4030</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="F18" s="4" t="n">
         <v>4226</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="H18" s="4" t="n">
         <v>3806</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="J18" s="4" t="n">
         <v>4030</v>
@@ -10851,28 +10853,28 @@
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>1104958</v>
+        <v>1107083</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>49186</v>
+        <v>51311</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>1055772</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>16922</v>
+        <v>19047</v>
       </c>
       <c r="F22" s="4" t="n">
         <v>1088036</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>90863</v>
+        <v>92988</v>
       </c>
       <c r="H22" s="4" t="n">
         <v>1014095</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>49186</v>
+        <v>51311</v>
       </c>
       <c r="J22" s="4" t="n">
         <v>1055772</v>
@@ -11765,28 +11767,28 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>-34</v>
+        <v>-27</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>77</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>27</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>5</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>-34</v>
+        <v>-27</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>77</v>
@@ -11799,28 +11801,28 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>3181496.666666679</v>
+        <v>3183856.250000013</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>11137.08333333395</v>
+        <v>13496.66666666744</v>
       </c>
       <c r="D3" s="6" t="n">
         <v>3170359.583333345</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1513.75</v>
+        <v>3873.333333333489</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>3179982.916666679</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>48725.41666666931</v>
+        <v>51085.00000000279</v>
       </c>
       <c r="H3" s="6" t="n">
         <v>3132771.25000001</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>11137.08333333395</v>
+        <v>13496.66666666744</v>
       </c>
       <c r="J3" s="6" t="n">
         <v>3170359.583333345</v>
@@ -11867,28 +11869,28 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>247066</v>
+        <v>247496</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2654</v>
+        <v>3084</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>244412</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>247066</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7526</v>
+        <v>7956</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>239540</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2654</v>
+        <v>3084</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>244412</v>
@@ -11901,28 +11903,28 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1047013</v>
+        <v>1047721</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>3083</v>
+        <v>3791</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>1043930</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>424</v>
+        <v>1132</v>
       </c>
       <c r="F6" s="4" t="n">
         <v>1046589</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>15333</v>
+        <v>16041</v>
       </c>
       <c r="H6" s="4" t="n">
         <v>1031680</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>3083</v>
+        <v>3791</v>
       </c>
       <c r="J6" s="4" t="n">
         <v>1043930</v>
@@ -11935,28 +11937,28 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>7547</v>
+        <v>7553</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>7527</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F7" s="4" t="n">
         <v>7544</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="H7" s="4" t="n">
         <v>7448</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J7" s="4" t="n">
         <v>7527</v>
@@ -11969,28 +11971,28 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>1718</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="4" t="n">
         <v>1723</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8" s="4" t="n">
         <v>1694</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J8" s="4" t="n">
         <v>1718</v>
@@ -12003,28 +12005,28 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>30795</v>
+        <v>30817</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>30716</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>30777</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>453</v>
+        <v>475</v>
       </c>
       <c r="H9" s="4" t="n">
         <v>30342</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="J9" s="4" t="n">
         <v>30716</v>
@@ -12037,28 +12039,28 @@
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>3864</v>
+        <v>3865</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>3850</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="4" t="n">
         <v>3863</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H10" s="4" t="n">
         <v>3817</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J10" s="4" t="n">
         <v>3850</v>
@@ -12071,28 +12073,28 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>334086</v>
+        <v>334296</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>944</v>
+        <v>1154</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>333142</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>143</v>
+        <v>353</v>
       </c>
       <c r="F11" s="4" t="n">
         <v>333943</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>4909</v>
+        <v>5119</v>
       </c>
       <c r="H11" s="4" t="n">
         <v>329177</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>944</v>
+        <v>1154</v>
       </c>
       <c r="J11" s="4" t="n">
         <v>333142</v>
@@ -12139,28 +12141,28 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>5464</v>
+        <v>5469</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>5450</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F13" s="4" t="n">
         <v>5461</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H13" s="4" t="n">
         <v>5398</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J13" s="4" t="n">
         <v>5450</v>
@@ -12173,28 +12175,28 @@
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>26921</v>
+        <v>26942</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>26856</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F14" s="4" t="n">
         <v>26904</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>406</v>
+        <v>427</v>
       </c>
       <c r="H14" s="4" t="n">
         <v>26515</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="J14" s="4" t="n">
         <v>26856</v>
@@ -12207,28 +12209,28 @@
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>52821</v>
+        <v>52863</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>52654</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F15" s="4" t="n">
         <v>52789</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>801</v>
+        <v>843</v>
       </c>
       <c r="H15" s="4" t="n">
         <v>52020</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="J15" s="4" t="n">
         <v>52654</v>
@@ -12241,28 +12243,28 @@
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>30212</v>
+        <v>30239</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>30112</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="F16" s="4" t="n">
         <v>30192</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>471</v>
+        <v>498</v>
       </c>
       <c r="H16" s="4" t="n">
         <v>29741</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="J16" s="4" t="n">
         <v>30112</v>
@@ -12275,28 +12277,28 @@
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>31821</v>
+        <v>31842</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>31719</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F17" s="4" t="n">
         <v>31809</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>410</v>
+        <v>431</v>
       </c>
       <c r="H17" s="4" t="n">
         <v>31411</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="J17" s="4" t="n">
         <v>31719</v>
@@ -12309,28 +12311,28 @@
         </is>
       </c>
       <c r="B18" s="4" t="n">
-        <v>20683</v>
+        <v>20697</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>20623</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F18" s="4" t="n">
         <v>20672</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="H18" s="4" t="n">
         <v>20375</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="J18" s="4" t="n">
         <v>20623</v>
@@ -12343,28 +12345,28 @@
         </is>
       </c>
       <c r="B19" s="4" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>253</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="4" t="n">
         <v>255</v>
       </c>
       <c r="G19" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H19" s="4" t="n">
         <v>249</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J19" s="4" t="n">
         <v>253</v>
@@ -12445,28 +12447,28 @@
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>3165053</v>
+        <v>3167236</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>7517</v>
+        <v>9700</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>3157536</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>1701</v>
+        <v>3884</v>
       </c>
       <c r="F22" s="4" t="n">
         <v>3163352</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>46129</v>
+        <v>48312</v>
       </c>
       <c r="H22" s="4" t="n">
         <v>3118924</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>7517</v>
+        <v>9700</v>
       </c>
       <c r="J22" s="4" t="n">
         <v>3157536</v>
@@ -12562,28 +12564,28 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>-19</v>
+        <v>9</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>83</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>26</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>-16</v>
+        <v>12</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>80</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>-19</v>
+        <v>9</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>83</v>
@@ -12596,28 +12598,28 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>839351.6666666691</v>
+        <v>844490.416666669</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>35079.16666666733</v>
+        <v>40217.91666666721</v>
       </c>
       <c r="D3" s="6" t="n">
         <v>804272.5000000017</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>6139.583333333256</v>
+        <v>11278.33333333314</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>833212.0833333358</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>75738.33333333407</v>
+        <v>80877.08333333395</v>
       </c>
       <c r="H3" s="6" t="n">
         <v>763613.333333335</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>35079.16666666733</v>
+        <v>40217.91666666721</v>
       </c>
       <c r="J3" s="6" t="n">
         <v>804272.5000000017</v>
@@ -12630,28 +12632,28 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>165</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>171</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>157</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>165</v>
@@ -12664,28 +12666,28 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>94306</v>
+        <v>94736</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4545</v>
+        <v>4975</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>89761</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>94306</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>11994</v>
+        <v>12424</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>82312</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>4545</v>
+        <v>4975</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>89761</v>
@@ -12698,28 +12700,28 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>238402</v>
+        <v>240404</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>12489</v>
+        <v>14491</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>225913</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>2886</v>
+        <v>4888</v>
       </c>
       <c r="F6" s="4" t="n">
         <v>235516</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>28797</v>
+        <v>30799</v>
       </c>
       <c r="H6" s="4" t="n">
         <v>209605</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>12489</v>
+        <v>14491</v>
       </c>
       <c r="J6" s="4" t="n">
         <v>225913</v>
@@ -12732,28 +12734,28 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>2562</v>
+        <v>2570</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>2489</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F7" s="4" t="n">
         <v>2541</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="H7" s="4" t="n">
         <v>2376</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="J7" s="4" t="n">
         <v>2489</v>
@@ -12766,28 +12768,28 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>674</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F8" s="4" t="n">
         <v>692</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H8" s="4" t="n">
         <v>641</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J8" s="4" t="n">
         <v>674</v>
@@ -12800,28 +12802,28 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>6774</v>
+        <v>6830</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>307</v>
+        <v>363</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>6467</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>6708</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>717</v>
+        <v>773</v>
       </c>
       <c r="H9" s="4" t="n">
         <v>6057</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>307</v>
+        <v>363</v>
       </c>
       <c r="J9" s="4" t="n">
         <v>6467</v>
@@ -12834,28 +12836,28 @@
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>2000</v>
+        <v>2006</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>1941</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F10" s="4" t="n">
         <v>1986</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H10" s="4" t="n">
         <v>1852</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="J10" s="4" t="n">
         <v>1941</v>
@@ -12868,28 +12870,28 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>90115</v>
+        <v>90729</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>4279</v>
+        <v>4893</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>85836</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>966</v>
+        <v>1580</v>
       </c>
       <c r="F11" s="4" t="n">
         <v>89149</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>9510</v>
+        <v>10124</v>
       </c>
       <c r="H11" s="4" t="n">
         <v>80605</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>4279</v>
+        <v>4893</v>
       </c>
       <c r="J11" s="4" t="n">
         <v>85836</v>
@@ -12936,28 +12938,28 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>1779</v>
+        <v>1784</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>1728</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F13" s="4" t="n">
         <v>1761</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="H13" s="4" t="n">
         <v>1652</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J13" s="4" t="n">
         <v>1728</v>
@@ -12970,28 +12972,28 @@
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>4768</v>
+        <v>4818</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>248</v>
+        <v>298</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>4520</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="F14" s="4" t="n">
         <v>4716</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>568</v>
+        <v>618</v>
       </c>
       <c r="H14" s="4" t="n">
         <v>4200</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>248</v>
+        <v>298</v>
       </c>
       <c r="J14" s="4" t="n">
         <v>4520</v>
@@ -13004,28 +13006,28 @@
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>10985</v>
+        <v>11082</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>637</v>
+        <v>734</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>10348</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>132</v>
+        <v>229</v>
       </c>
       <c r="F15" s="4" t="n">
         <v>10853</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>1425</v>
+        <v>1522</v>
       </c>
       <c r="H15" s="4" t="n">
         <v>9560</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>637</v>
+        <v>734</v>
       </c>
       <c r="J15" s="4" t="n">
         <v>10348</v>
@@ -13038,28 +13040,28 @@
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>7567</v>
+        <v>7627</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>435</v>
+        <v>495</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>7132</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="F16" s="4" t="n">
         <v>7472</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>961</v>
+        <v>1021</v>
       </c>
       <c r="H16" s="4" t="n">
         <v>6606</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>435</v>
+        <v>495</v>
       </c>
       <c r="J16" s="4" t="n">
         <v>7132</v>
@@ -13072,28 +13074,28 @@
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>3334</v>
+        <v>3368</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>3091</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="F17" s="4" t="n">
         <v>3280</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>509</v>
+        <v>543</v>
       </c>
       <c r="H17" s="4" t="n">
         <v>2825</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="J17" s="4" t="n">
         <v>3091</v>
@@ -13106,28 +13108,28 @@
         </is>
       </c>
       <c r="B18" s="4" t="n">
-        <v>3118</v>
+        <v>3153</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>2931</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="F18" s="4" t="n">
         <v>3081</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>427</v>
+        <v>462</v>
       </c>
       <c r="H18" s="4" t="n">
         <v>2691</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="J18" s="4" t="n">
         <v>2931</v>
@@ -13208,28 +13210,28 @@
         </is>
       </c>
       <c r="B21" s="4" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C21" s="4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>237</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F21" s="4" t="n">
         <v>250</v>
       </c>
       <c r="G21" s="4" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H21" s="4" t="n">
         <v>217</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J21" s="4" t="n">
         <v>237</v>
@@ -13242,28 +13244,28 @@
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>770728</v>
+        <v>776365</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>33826</v>
+        <v>39463</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>736902</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>7799</v>
+        <v>13436</v>
       </c>
       <c r="F22" s="4" t="n">
         <v>762929</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>77144</v>
+        <v>82781</v>
       </c>
       <c r="H22" s="4" t="n">
         <v>693584</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>33826</v>
+        <v>39463</v>
       </c>
       <c r="J22" s="4" t="n">
         <v>736902</v>
@@ -16505,26 +16507,26 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2" s="7" t="n"/>
       <c r="I2" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>0</v>
@@ -16537,26 +16539,26 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>79742.08333333331</v>
+        <v>83852.08333333334</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3906.250000000029</v>
+        <v>8016.250000000058</v>
       </c>
       <c r="D3" s="6" t="n">
         <v>75835.83333333328</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2326.666666666686</v>
+        <v>6436.666666666715</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>77415.41666666663</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>79742.08333333331</v>
+        <v>83852.08333333334</v>
       </c>
       <c r="H3" s="7" t="n"/>
       <c r="I3" s="4" t="n">
-        <v>3906.250000000029</v>
+        <v>8016.250000000058</v>
       </c>
       <c r="J3" s="6" t="n">
         <v>75835.83333333328</v>
@@ -16569,26 +16571,26 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>18</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>18</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" s="7" t="n"/>
       <c r="I4" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>18</v>
@@ -16601,26 +16603,26 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7360</v>
+        <v>8060</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>570</v>
+        <v>1270</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>6790</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>60</v>
+        <v>760</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>7300</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7360</v>
+        <v>8060</v>
       </c>
       <c r="H5" s="7" t="n"/>
       <c r="I5" s="4" t="n">
-        <v>570</v>
+        <v>1270</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>6790</v>
@@ -16633,26 +16635,26 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>5353</v>
+        <v>5777</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>384</v>
+        <v>808</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>4969</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>217</v>
+        <v>641</v>
       </c>
       <c r="F6" s="4" t="n">
         <v>5136</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>5353</v>
+        <v>5777</v>
       </c>
       <c r="H6" s="7" t="n"/>
       <c r="I6" s="4" t="n">
-        <v>384</v>
+        <v>808</v>
       </c>
       <c r="J6" s="4" t="n">
         <v>4969</v>
@@ -16665,26 +16667,26 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>438</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F7" s="4" t="n">
         <v>446</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="H7" s="7" t="n"/>
       <c r="I7" s="4" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J7" s="4" t="n">
         <v>438</v>
@@ -16697,26 +16699,26 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>107</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F8" s="4" t="n">
         <v>109</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H8" s="7" t="n"/>
       <c r="I8" s="4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J8" s="4" t="n">
         <v>107</v>
@@ -16729,26 +16731,26 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>592</v>
+        <v>650</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>548</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>563</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>592</v>
+        <v>650</v>
       </c>
       <c r="H9" s="7" t="n"/>
       <c r="I9" s="4" t="n">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="J9" s="4" t="n">
         <v>548</v>
@@ -16761,26 +16763,26 @@
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>286</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F10" s="4" t="n">
         <v>287</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="H10" s="7" t="n"/>
       <c r="I10" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J10" s="4" t="n">
         <v>286</v>
@@ -16793,26 +16795,26 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>4251</v>
+        <v>4619</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>337</v>
+        <v>705</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>3914</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>206</v>
+        <v>574</v>
       </c>
       <c r="F11" s="4" t="n">
         <v>4045</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>4251</v>
+        <v>4619</v>
       </c>
       <c r="H11" s="7" t="n"/>
       <c r="I11" s="4" t="n">
-        <v>337</v>
+        <v>705</v>
       </c>
       <c r="J11" s="4" t="n">
         <v>3914</v>
@@ -16857,26 +16859,26 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>297</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F13" s="4" t="n">
         <v>302</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="H13" s="7" t="n"/>
       <c r="I13" s="4" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="J13" s="4" t="n">
         <v>297</v>
@@ -16889,26 +16891,26 @@
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>302</v>
+        <v>355</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>261</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="F14" s="4" t="n">
         <v>275</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>302</v>
+        <v>355</v>
       </c>
       <c r="H14" s="7" t="n"/>
       <c r="I14" s="4" t="n">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="J14" s="4" t="n">
         <v>261</v>
@@ -16921,26 +16923,26 @@
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>222</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="F15" s="4" t="n">
         <v>230</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="H15" s="7" t="n"/>
       <c r="I15" s="4" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="J15" s="4" t="n">
         <v>222</v>
@@ -16953,26 +16955,26 @@
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>158</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F16" s="4" t="n">
         <v>161</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7" t="n"/>
       <c r="I16" s="4" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="J16" s="4" t="n">
         <v>158</v>
@@ -16985,26 +16987,26 @@
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>58</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="F17" s="4" t="n">
         <v>62</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="H17" s="7" t="n"/>
       <c r="I17" s="4" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="J17" s="4" t="n">
         <v>58</v>
@@ -17017,26 +17019,26 @@
         </is>
       </c>
       <c r="B18" s="4" t="n">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>61</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F18" s="4" t="n">
         <v>66</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="H18" s="7" t="n"/>
       <c r="I18" s="4" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J18" s="4" t="n">
         <v>61</v>
@@ -17145,26 +17147,26 @@
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>84007</v>
+        <v>88879</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>4359</v>
+        <v>9231</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>79648</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>2656</v>
+        <v>7528</v>
       </c>
       <c r="F22" s="4" t="n">
         <v>81351</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>84007</v>
+        <v>88879</v>
       </c>
       <c r="H22" s="7" t="n"/>
       <c r="I22" s="4" t="n">
-        <v>4359</v>
+        <v>9231</v>
       </c>
       <c r="J22" s="4" t="n">
         <v>79648</v>
@@ -19567,26 +19569,26 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>42</v>
+        <v>-11</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>56</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>32</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="H2" s="7" t="n"/>
       <c r="I2" s="4" t="n">
-        <v>42</v>
+        <v>-11</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>56</v>
@@ -19599,26 +19601,26 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>4587651.666666646</v>
+        <v>4588980.416666647</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>51551.66666666605</v>
+        <v>52880.41666666698</v>
       </c>
       <c r="D3" s="6" t="n">
         <v>4536099.99999998</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>11048.74999999814</v>
+        <v>12377.49999999907</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>4576602.916666648</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>4587651.666666646</v>
+        <v>4588980.416666647</v>
       </c>
       <c r="H3" s="7" t="n"/>
       <c r="I3" s="4" t="n">
-        <v>51551.66666666605</v>
+        <v>52880.41666666698</v>
       </c>
       <c r="J3" s="6" t="n">
         <v>4536099.99999998</v>
@@ -19663,26 +19665,26 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>110248</v>
+        <v>111350</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4066</v>
+        <v>5168</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>106182</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0</v>
+        <v>1102</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>110248</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>110248</v>
+        <v>111350</v>
       </c>
       <c r="H5" s="7" t="n"/>
       <c r="I5" s="4" t="n">
-        <v>4066</v>
+        <v>5168</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>106182</v>
@@ -20207,26 +20209,26 @@
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>4720491</v>
+        <v>4721424</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>55912</v>
+        <v>56845</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>4664579</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>10917</v>
+        <v>11850</v>
       </c>
       <c r="F22" s="4" t="n">
         <v>4709574</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>4720491</v>
+        <v>4721424</v>
       </c>
       <c r="H22" s="7" t="n"/>
       <c r="I22" s="4" t="n">
-        <v>55912</v>
+        <v>56845</v>
       </c>
       <c r="J22" s="4" t="n">
         <v>4664579</v>
@@ -20354,26 +20356,26 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>452528.7499999983</v>
+        <v>454335.8333333315</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>16012.49999999977</v>
+        <v>17819.58333333296</v>
       </c>
       <c r="D3" s="6" t="n">
         <v>436516.2499999985</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>-5.820766091346741e-11</v>
+        <v>1807.083333333139</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>452528.7499999983</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>452528.7499999983</v>
+        <v>454335.8333333315</v>
       </c>
       <c r="H3" s="7" t="n"/>
       <c r="I3" s="4" t="n">
-        <v>16012.49999999977</v>
+        <v>17819.58333333296</v>
       </c>
       <c r="J3" s="6" t="n">
         <v>436516.2499999985</v>
@@ -20450,26 +20452,26 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>360979</v>
+        <v>361890</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>6575</v>
+        <v>7486</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>354404</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0</v>
+        <v>911</v>
       </c>
       <c r="F6" s="4" t="n">
         <v>360979</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>360979</v>
+        <v>361890</v>
       </c>
       <c r="H6" s="7" t="n"/>
       <c r="I6" s="4" t="n">
-        <v>6575</v>
+        <v>7486</v>
       </c>
       <c r="J6" s="4" t="n">
         <v>354404</v>
@@ -20482,26 +20484,26 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>3360</v>
+        <v>3371</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>3261</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F7" s="4" t="n">
         <v>3360</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>3360</v>
+        <v>3371</v>
       </c>
       <c r="H7" s="7" t="n"/>
       <c r="I7" s="4" t="n">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="J7" s="4" t="n">
         <v>3261</v>
@@ -20514,26 +20516,26 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>338</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="4" t="n">
         <v>356</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H8" s="7" t="n"/>
       <c r="I8" s="4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J8" s="4" t="n">
         <v>338</v>
@@ -20546,26 +20548,26 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>9739</v>
+        <v>9760</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>9528</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>9739</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>9739</v>
+        <v>9760</v>
       </c>
       <c r="H9" s="7" t="n"/>
       <c r="I9" s="4" t="n">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="J9" s="4" t="n">
         <v>9528</v>
@@ -20578,26 +20580,26 @@
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>2565</v>
+        <v>2576</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>2487</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F10" s="4" t="n">
         <v>2565</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>2565</v>
+        <v>2576</v>
       </c>
       <c r="H10" s="7" t="n"/>
       <c r="I10" s="4" t="n">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J10" s="4" t="n">
         <v>2487</v>
@@ -20610,26 +20612,26 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>165175</v>
+        <v>165505</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>2659</v>
+        <v>2989</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>162516</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="F11" s="4" t="n">
         <v>165175</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>165175</v>
+        <v>165505</v>
       </c>
       <c r="H11" s="7" t="n"/>
       <c r="I11" s="4" t="n">
-        <v>2659</v>
+        <v>2989</v>
       </c>
       <c r="J11" s="4" t="n">
         <v>162516</v>
@@ -20674,26 +20676,26 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>2031</v>
+        <v>2041</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>1955</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F13" s="4" t="n">
         <v>2031</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>2031</v>
+        <v>2041</v>
       </c>
       <c r="H13" s="7" t="n"/>
       <c r="I13" s="4" t="n">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J13" s="4" t="n">
         <v>1955</v>
@@ -20706,26 +20708,26 @@
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>7174</v>
+        <v>7184</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>7041</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F14" s="4" t="n">
         <v>7174</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>7174</v>
+        <v>7184</v>
       </c>
       <c r="H14" s="7" t="n"/>
       <c r="I14" s="4" t="n">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="J14" s="4" t="n">
         <v>7041</v>
@@ -20738,26 +20740,26 @@
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>17971</v>
+        <v>18017</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>299</v>
+        <v>345</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>17672</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="F15" s="4" t="n">
         <v>17971</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>17971</v>
+        <v>18017</v>
       </c>
       <c r="H15" s="7" t="n"/>
       <c r="I15" s="4" t="n">
-        <v>299</v>
+        <v>345</v>
       </c>
       <c r="J15" s="4" t="n">
         <v>17672</v>
@@ -20770,26 +20772,26 @@
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>5593</v>
+        <v>5627</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>5381</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F16" s="4" t="n">
         <v>5593</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>5593</v>
+        <v>5627</v>
       </c>
       <c r="H16" s="7" t="n"/>
       <c r="I16" s="4" t="n">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="J16" s="4" t="n">
         <v>5381</v>
@@ -20802,26 +20804,26 @@
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>7195</v>
+        <v>7226</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>6922</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F17" s="4" t="n">
         <v>7195</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>7195</v>
+        <v>7226</v>
       </c>
       <c r="H17" s="7" t="n"/>
       <c r="I17" s="4" t="n">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="J17" s="4" t="n">
         <v>6922</v>
@@ -20834,26 +20836,26 @@
         </is>
       </c>
       <c r="B18" s="4" t="n">
-        <v>2396</v>
+        <v>2408</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>2317</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F18" s="4" t="n">
         <v>2396</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>2396</v>
+        <v>2408</v>
       </c>
       <c r="H18" s="7" t="n"/>
       <c r="I18" s="4" t="n">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J18" s="4" t="n">
         <v>2317</v>
@@ -20962,26 +20964,26 @@
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>552513</v>
+        <v>554774</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>19998</v>
+        <v>22259</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>532515</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>0</v>
+        <v>2261</v>
       </c>
       <c r="F22" s="4" t="n">
         <v>552513</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>552513</v>
+        <v>554774</v>
       </c>
       <c r="H22" s="7" t="n"/>
       <c r="I22" s="4" t="n">
-        <v>19998</v>
+        <v>22259</v>
       </c>
       <c r="J22" s="4" t="n">
         <v>532515</v>
@@ -21077,26 +21079,26 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>2</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>6</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" s="7" t="n"/>
       <c r="I2" s="4" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>2</v>
@@ -21109,26 +21111,26 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>290302.9166666666</v>
+        <v>295597.0833333334</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>25343.74999999994</v>
+        <v>30637.91666666669</v>
       </c>
       <c r="D3" s="6" t="n">
         <v>264959.1666666667</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3207.5</v>
+        <v>8501.666666666744</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>287095.4166666666</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>290302.9166666666</v>
+        <v>295597.0833333334</v>
       </c>
       <c r="H3" s="7" t="n"/>
       <c r="I3" s="4" t="n">
-        <v>25343.74999999994</v>
+        <v>30637.91666666669</v>
       </c>
       <c r="J3" s="6" t="n">
         <v>264959.1666666667</v>
@@ -21141,26 +21143,26 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>55</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>60</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H4" s="7" t="n"/>
       <c r="I4" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>55</v>
@@ -21173,26 +21175,26 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>23230</v>
+        <v>23930</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3180</v>
+        <v>3880</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>20050</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>110</v>
+        <v>810</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>23120</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>23230</v>
+        <v>23930</v>
       </c>
       <c r="H5" s="7" t="n"/>
       <c r="I5" s="4" t="n">
-        <v>3180</v>
+        <v>3880</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>20050</v>
@@ -21205,26 +21207,26 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>89401</v>
+        <v>91341</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>8383</v>
+        <v>10323</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>81018</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>1276</v>
+        <v>3216</v>
       </c>
       <c r="F6" s="4" t="n">
         <v>88125</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>89401</v>
+        <v>91341</v>
       </c>
       <c r="H6" s="7" t="n"/>
       <c r="I6" s="4" t="n">
-        <v>8383</v>
+        <v>10323</v>
       </c>
       <c r="J6" s="4" t="n">
         <v>81018</v>
@@ -21237,26 +21239,26 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>1898</v>
+        <v>1921</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>1782</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="F7" s="4" t="n">
         <v>1875</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>1898</v>
+        <v>1921</v>
       </c>
       <c r="H7" s="7" t="n"/>
       <c r="I7" s="4" t="n">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="J7" s="4" t="n">
         <v>1782</v>
@@ -21269,26 +21271,26 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>479</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F8" s="4" t="n">
         <v>495</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="H8" s="7" t="n"/>
       <c r="I8" s="4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J8" s="4" t="n">
         <v>479</v>
@@ -21301,26 +21303,26 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>3155</v>
+        <v>3215</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>272</v>
+        <v>332</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>2883</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>3110</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>3155</v>
+        <v>3215</v>
       </c>
       <c r="H9" s="7" t="n"/>
       <c r="I9" s="4" t="n">
-        <v>272</v>
+        <v>332</v>
       </c>
       <c r="J9" s="4" t="n">
         <v>2883</v>
@@ -21333,26 +21335,26 @@
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>1384</v>
+        <v>1395</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>1314</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F10" s="4" t="n">
         <v>1367</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>1384</v>
+        <v>1395</v>
       </c>
       <c r="H10" s="7" t="n"/>
       <c r="I10" s="4" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="J10" s="4" t="n">
         <v>1314</v>
@@ -21365,26 +21367,26 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>43102</v>
+        <v>43905</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>3749</v>
+        <v>4552</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>39353</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>559</v>
+        <v>1362</v>
       </c>
       <c r="F11" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>43102</v>
+        <v>43905</v>
       </c>
       <c r="H11" s="7" t="n"/>
       <c r="I11" s="4" t="n">
-        <v>3749</v>
+        <v>4552</v>
       </c>
       <c r="J11" s="4" t="n">
         <v>39353</v>
@@ -21397,26 +21399,26 @@
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>31</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" s="4" t="n">
         <v>34</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H12" s="7" t="n"/>
       <c r="I12" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J12" s="4" t="n">
         <v>31</v>
@@ -21429,26 +21431,26 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>1314</v>
+        <v>1331</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>1230</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F13" s="4" t="n">
         <v>1299</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>1314</v>
+        <v>1331</v>
       </c>
       <c r="H13" s="7" t="n"/>
       <c r="I13" s="4" t="n">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="J13" s="4" t="n">
         <v>1230</v>
@@ -21461,26 +21463,26 @@
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>1763</v>
+        <v>1812</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>1562</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="F14" s="4" t="n">
         <v>1735</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>1763</v>
+        <v>1812</v>
       </c>
       <c r="H14" s="7" t="n"/>
       <c r="I14" s="4" t="n">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="J14" s="4" t="n">
         <v>1562</v>
@@ -21493,26 +21495,26 @@
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>3669</v>
+        <v>3764</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>366</v>
+        <v>461</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>3303</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c r="F15" s="4" t="n">
         <v>3611</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>3669</v>
+        <v>3764</v>
       </c>
       <c r="H15" s="7" t="n"/>
       <c r="I15" s="4" t="n">
-        <v>366</v>
+        <v>461</v>
       </c>
       <c r="J15" s="4" t="n">
         <v>3303</v>
@@ -21525,26 +21527,26 @@
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>2528</v>
+        <v>2595</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>244</v>
+        <v>311</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>2284</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="F16" s="4" t="n">
         <v>2484</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>2528</v>
+        <v>2595</v>
       </c>
       <c r="H16" s="7" t="n"/>
       <c r="I16" s="4" t="n">
-        <v>244</v>
+        <v>311</v>
       </c>
       <c r="J16" s="4" t="n">
         <v>2284</v>
@@ -21557,26 +21559,26 @@
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>1803</v>
+        <v>1834</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>1598</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="F17" s="4" t="n">
         <v>1771</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>1803</v>
+        <v>1834</v>
       </c>
       <c r="H17" s="7" t="n"/>
       <c r="I17" s="4" t="n">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="J17" s="4" t="n">
         <v>1598</v>
@@ -21589,26 +21591,26 @@
         </is>
       </c>
       <c r="B18" s="4" t="n">
-        <v>1048</v>
+        <v>1072</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>935</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F18" s="4" t="n">
         <v>1036</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>1048</v>
+        <v>1072</v>
       </c>
       <c r="H18" s="7" t="n"/>
       <c r="I18" s="4" t="n">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="J18" s="4" t="n">
         <v>935</v>
@@ -21621,26 +21623,26 @@
         </is>
       </c>
       <c r="B19" s="4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>28</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="4" t="n">
         <v>29</v>
       </c>
       <c r="G19" s="4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H19" s="7" t="n"/>
       <c r="I19" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" s="4" t="n">
         <v>28</v>
@@ -21653,26 +21655,26 @@
         </is>
       </c>
       <c r="B20" s="4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>17</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="4" t="n">
         <v>19</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H20" s="7" t="n"/>
       <c r="I20" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J20" s="4" t="n">
         <v>17</v>
@@ -21685,26 +21687,26 @@
         </is>
       </c>
       <c r="B21" s="4" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C21" s="4" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>56</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F21" s="4" t="n">
         <v>62</v>
       </c>
       <c r="G21" s="4" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H21" s="7" t="n"/>
       <c r="I21" s="4" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J21" s="4" t="n">
         <v>56</v>
@@ -21717,26 +21719,26 @@
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>308376</v>
+        <v>314530</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>27321</v>
+        <v>33475</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>281055</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>4242</v>
+        <v>10396</v>
       </c>
       <c r="F22" s="4" t="n">
         <v>304134</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>308376</v>
+        <v>314530</v>
       </c>
       <c r="H22" s="7" t="n"/>
       <c r="I22" s="4" t="n">
-        <v>27321</v>
+        <v>33475</v>
       </c>
       <c r="J22" s="4" t="n">
         <v>281055</v>
@@ -24824,28 +24826,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
         <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F2" t="n">
         <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H2" t="n">
         <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J2" t="n">
         <v>5</v>
@@ -24858,28 +24860,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>173478.7499999999</v>
+        <v>175042.4999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>21203.33333333337</v>
+        <v>22767.08333333343</v>
       </c>
       <c r="D3" t="n">
         <v>152275.4166666665</v>
       </c>
       <c r="E3" t="n">
-        <v>21203.33333333337</v>
+        <v>22767.08333333343</v>
       </c>
       <c r="F3" t="n">
         <v>152275.4166666665</v>
       </c>
       <c r="G3" t="n">
-        <v>21203.33333333337</v>
+        <v>22767.08333333343</v>
       </c>
       <c r="H3" t="n">
         <v>152275.4166666665</v>
       </c>
       <c r="I3" t="n">
-        <v>21203.33333333337</v>
+        <v>22767.08333333343</v>
       </c>
       <c r="J3" t="n">
         <v>152275.4166666665</v>
@@ -24892,28 +24894,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>33</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>33</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
         <v>33</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
         <v>33</v>
@@ -24926,28 +24928,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16700</v>
+        <v>17100</v>
       </c>
       <c r="C5" t="n">
-        <v>2170</v>
+        <v>2570</v>
       </c>
       <c r="D5" t="n">
         <v>14530</v>
       </c>
       <c r="E5" t="n">
-        <v>2170</v>
+        <v>2570</v>
       </c>
       <c r="F5" t="n">
         <v>14530</v>
       </c>
       <c r="G5" t="n">
-        <v>2170</v>
+        <v>2570</v>
       </c>
       <c r="H5" t="n">
         <v>14530</v>
       </c>
       <c r="I5" t="n">
-        <v>2170</v>
+        <v>2570</v>
       </c>
       <c r="J5" t="n">
         <v>14530</v>
@@ -24960,28 +24962,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>35695</v>
+        <v>36023</v>
       </c>
       <c r="C6" t="n">
-        <v>4335</v>
+        <v>4663</v>
       </c>
       <c r="D6" t="n">
         <v>31360</v>
       </c>
       <c r="E6" t="n">
-        <v>4335</v>
+        <v>4663</v>
       </c>
       <c r="F6" t="n">
         <v>31360</v>
       </c>
       <c r="G6" t="n">
-        <v>4335</v>
+        <v>4663</v>
       </c>
       <c r="H6" t="n">
         <v>31360</v>
       </c>
       <c r="I6" t="n">
-        <v>4335</v>
+        <v>4663</v>
       </c>
       <c r="J6" t="n">
         <v>31360</v>
@@ -24994,28 +24996,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1030</v>
+        <v>1035</v>
       </c>
       <c r="C7" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D7" t="n">
         <v>950</v>
       </c>
       <c r="E7" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F7" t="n">
         <v>950</v>
       </c>
       <c r="G7" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H7" t="n">
         <v>950</v>
       </c>
       <c r="I7" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J7" t="n">
         <v>950</v>
@@ -25028,28 +25030,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D8" t="n">
         <v>151</v>
       </c>
       <c r="E8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F8" t="n">
         <v>151</v>
       </c>
       <c r="G8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H8" t="n">
         <v>151</v>
       </c>
       <c r="I8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J8" t="n">
         <v>151</v>
@@ -25062,28 +25064,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1907</v>
+        <v>1932</v>
       </c>
       <c r="C9" t="n">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="D9" t="n">
         <v>1666</v>
       </c>
       <c r="E9" t="n">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="F9" t="n">
         <v>1666</v>
       </c>
       <c r="G9" t="n">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="H9" t="n">
         <v>1666</v>
       </c>
       <c r="I9" t="n">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="J9" t="n">
         <v>1666</v>
@@ -25096,28 +25098,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C10" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" t="n">
         <v>692</v>
       </c>
       <c r="E10" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F10" t="n">
         <v>692</v>
       </c>
       <c r="G10" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H10" t="n">
         <v>692</v>
       </c>
       <c r="I10" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J10" t="n">
         <v>692</v>
@@ -25130,28 +25132,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24732</v>
+        <v>24910</v>
       </c>
       <c r="C11" t="n">
-        <v>2630</v>
+        <v>2808</v>
       </c>
       <c r="D11" t="n">
         <v>22102</v>
       </c>
       <c r="E11" t="n">
-        <v>2630</v>
+        <v>2808</v>
       </c>
       <c r="F11" t="n">
         <v>22102</v>
       </c>
       <c r="G11" t="n">
-        <v>2630</v>
+        <v>2808</v>
       </c>
       <c r="H11" t="n">
         <v>22102</v>
       </c>
       <c r="I11" t="n">
-        <v>2630</v>
+        <v>2808</v>
       </c>
       <c r="J11" t="n">
         <v>22102</v>
@@ -25198,28 +25200,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="C13" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D13" t="n">
         <v>651</v>
       </c>
       <c r="E13" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F13" t="n">
         <v>651</v>
       </c>
       <c r="G13" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H13" t="n">
         <v>651</v>
       </c>
       <c r="I13" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J13" t="n">
         <v>651</v>
@@ -25232,28 +25234,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1166</v>
+        <v>1190</v>
       </c>
       <c r="C14" t="n">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="D14" t="n">
         <v>974</v>
       </c>
       <c r="E14" t="n">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="F14" t="n">
         <v>974</v>
       </c>
       <c r="G14" t="n">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="H14" t="n">
         <v>974</v>
       </c>
       <c r="I14" t="n">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="J14" t="n">
         <v>974</v>
@@ -25266,28 +25268,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1673</v>
+        <v>1691</v>
       </c>
       <c r="C15" t="n">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="D15" t="n">
         <v>1508</v>
       </c>
       <c r="E15" t="n">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="F15" t="n">
         <v>1508</v>
       </c>
       <c r="G15" t="n">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="H15" t="n">
         <v>1508</v>
       </c>
       <c r="I15" t="n">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="J15" t="n">
         <v>1508</v>
@@ -25300,28 +25302,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1068</v>
+        <v>1077</v>
       </c>
       <c r="C16" t="n">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D16" t="n">
         <v>957</v>
       </c>
       <c r="E16" t="n">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F16" t="n">
         <v>957</v>
       </c>
       <c r="G16" t="n">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="H16" t="n">
         <v>957</v>
       </c>
       <c r="I16" t="n">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="J16" t="n">
         <v>957</v>
@@ -25334,28 +25336,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C17" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D17" t="n">
         <v>451</v>
       </c>
       <c r="E17" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F17" t="n">
         <v>451</v>
       </c>
       <c r="G17" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H17" t="n">
         <v>451</v>
       </c>
       <c r="I17" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J17" t="n">
         <v>451</v>
@@ -25368,28 +25370,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="C18" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D18" t="n">
         <v>348</v>
       </c>
       <c r="E18" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F18" t="n">
         <v>348</v>
       </c>
       <c r="G18" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="H18" t="n">
         <v>348</v>
       </c>
       <c r="I18" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="J18" t="n">
         <v>348</v>
@@ -25504,28 +25506,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>201509</v>
+        <v>203366</v>
       </c>
       <c r="C22" t="n">
-        <v>26228</v>
+        <v>28085</v>
       </c>
       <c r="D22" t="n">
         <v>175281</v>
       </c>
       <c r="E22" t="n">
-        <v>26228</v>
+        <v>28085</v>
       </c>
       <c r="F22" t="n">
         <v>175281</v>
       </c>
       <c r="G22" t="n">
-        <v>26228</v>
+        <v>28085</v>
       </c>
       <c r="H22" t="n">
         <v>175281</v>
       </c>
       <c r="I22" t="n">
-        <v>26228</v>
+        <v>28085</v>
       </c>
       <c r="J22" t="n">
         <v>175281</v>
@@ -26406,28 +26408,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="C2" t="n">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26440,28 +26442,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>187724.1666666663</v>
+        <v>196073.7499999997</v>
       </c>
       <c r="C3" t="n">
-        <v>6033.333333333168</v>
+        <v>14382.9166666666</v>
       </c>
       <c r="D3" t="n">
         <v>181690.8333333331</v>
       </c>
       <c r="E3" t="n">
-        <v>6033.333333333168</v>
+        <v>14382.9166666666</v>
       </c>
       <c r="F3" t="n">
         <v>181690.8333333331</v>
       </c>
       <c r="G3" t="n">
-        <v>6033.333333333168</v>
+        <v>14382.9166666666</v>
       </c>
       <c r="H3" t="n">
         <v>181690.8333333331</v>
       </c>
       <c r="I3" t="n">
-        <v>6033.333333333168</v>
+        <v>14382.9166666666</v>
       </c>
       <c r="J3" t="n">
         <v>181690.8333333331</v>
@@ -26474,28 +26476,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>39</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
         <v>39</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
         <v>39</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
         <v>39</v>
@@ -26508,28 +26510,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56640</v>
+        <v>57070</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>830</v>
       </c>
       <c r="D5" t="n">
         <v>56240</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>830</v>
       </c>
       <c r="F5" t="n">
         <v>56240</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>830</v>
       </c>
       <c r="H5" t="n">
         <v>56240</v>
       </c>
       <c r="I5" t="n">
-        <v>400</v>
+        <v>830</v>
       </c>
       <c r="J5" t="n">
         <v>56240</v>
@@ -26542,28 +26544,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67899</v>
+        <v>70296</v>
       </c>
       <c r="C6" t="n">
-        <v>2270</v>
+        <v>4667</v>
       </c>
       <c r="D6" t="n">
         <v>65629</v>
       </c>
       <c r="E6" t="n">
-        <v>2270</v>
+        <v>4667</v>
       </c>
       <c r="F6" t="n">
         <v>65629</v>
       </c>
       <c r="G6" t="n">
-        <v>2270</v>
+        <v>4667</v>
       </c>
       <c r="H6" t="n">
         <v>65629</v>
       </c>
       <c r="I6" t="n">
-        <v>2270</v>
+        <v>4667</v>
       </c>
       <c r="J6" t="n">
         <v>65629</v>
@@ -26576,28 +26578,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1041</v>
+        <v>1069</v>
       </c>
       <c r="C7" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D7" t="n">
         <v>1009</v>
       </c>
       <c r="E7" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="F7" t="n">
         <v>1009</v>
       </c>
       <c r="G7" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="H7" t="n">
         <v>1009</v>
       </c>
       <c r="I7" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="J7" t="n">
         <v>1009</v>
@@ -26610,28 +26612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
         <v>121</v>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F8" t="n">
         <v>121</v>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H8" t="n">
         <v>121</v>
       </c>
       <c r="I8" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J8" t="n">
         <v>121</v>
@@ -26644,28 +26646,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2173</v>
+        <v>2256</v>
       </c>
       <c r="C9" t="n">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="D9" t="n">
         <v>2095</v>
       </c>
       <c r="E9" t="n">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="F9" t="n">
         <v>2095</v>
       </c>
       <c r="G9" t="n">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="H9" t="n">
         <v>2095</v>
       </c>
       <c r="I9" t="n">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="J9" t="n">
         <v>2095</v>
@@ -26678,28 +26680,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D10" t="n">
         <v>584</v>
       </c>
       <c r="E10" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F10" t="n">
         <v>584</v>
       </c>
       <c r="G10" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H10" t="n">
         <v>584</v>
       </c>
       <c r="I10" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J10" t="n">
         <v>584</v>
@@ -26712,28 +26714,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27957</v>
+        <v>28681</v>
       </c>
       <c r="C11" t="n">
-        <v>750</v>
+        <v>1474</v>
       </c>
       <c r="D11" t="n">
         <v>27207</v>
       </c>
       <c r="E11" t="n">
-        <v>750</v>
+        <v>1474</v>
       </c>
       <c r="F11" t="n">
         <v>27207</v>
       </c>
       <c r="G11" t="n">
-        <v>750</v>
+        <v>1474</v>
       </c>
       <c r="H11" t="n">
         <v>27207</v>
       </c>
       <c r="I11" t="n">
-        <v>750</v>
+        <v>1474</v>
       </c>
       <c r="J11" t="n">
         <v>27207</v>
@@ -26780,28 +26782,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="C13" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D13" t="n">
         <v>323</v>
       </c>
       <c r="E13" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="F13" t="n">
         <v>323</v>
       </c>
       <c r="G13" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="H13" t="n">
         <v>323</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="J13" t="n">
         <v>323</v>
@@ -26814,28 +26816,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1570</v>
+        <v>1641</v>
       </c>
       <c r="C14" t="n">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="D14" t="n">
         <v>1511</v>
       </c>
       <c r="E14" t="n">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="F14" t="n">
         <v>1511</v>
       </c>
       <c r="G14" t="n">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="H14" t="n">
         <v>1511</v>
       </c>
       <c r="I14" t="n">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="J14" t="n">
         <v>1511</v>
@@ -26848,28 +26850,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3597</v>
+        <v>3715</v>
       </c>
       <c r="C15" t="n">
-        <v>97</v>
+        <v>215</v>
       </c>
       <c r="D15" t="n">
         <v>3500</v>
       </c>
       <c r="E15" t="n">
-        <v>97</v>
+        <v>215</v>
       </c>
       <c r="F15" t="n">
         <v>3500</v>
       </c>
       <c r="G15" t="n">
-        <v>97</v>
+        <v>215</v>
       </c>
       <c r="H15" t="n">
         <v>3500</v>
       </c>
       <c r="I15" t="n">
-        <v>97</v>
+        <v>215</v>
       </c>
       <c r="J15" t="n">
         <v>3500</v>
@@ -26882,28 +26884,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1018</v>
+        <v>1076</v>
       </c>
       <c r="C16" t="n">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="D16" t="n">
         <v>958</v>
       </c>
       <c r="E16" t="n">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="F16" t="n">
         <v>958</v>
       </c>
       <c r="G16" t="n">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="H16" t="n">
         <v>958</v>
       </c>
       <c r="I16" t="n">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="J16" t="n">
         <v>958</v>
@@ -26916,28 +26918,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>665</v>
+        <v>692</v>
       </c>
       <c r="C17" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D17" t="n">
         <v>637</v>
       </c>
       <c r="E17" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="F17" t="n">
         <v>637</v>
       </c>
       <c r="G17" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="H17" t="n">
         <v>637</v>
       </c>
       <c r="I17" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="J17" t="n">
         <v>637</v>
@@ -26950,28 +26952,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>438</v>
+        <v>482</v>
       </c>
       <c r="C18" t="n">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="D18" t="n">
         <v>410</v>
       </c>
       <c r="E18" t="n">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="F18" t="n">
         <v>410</v>
       </c>
       <c r="G18" t="n">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="H18" t="n">
         <v>410</v>
       </c>
       <c r="I18" t="n">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="J18" t="n">
         <v>410</v>
@@ -26984,28 +26986,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D19" t="n">
         <v>83</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F19" t="n">
         <v>83</v>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H19" t="n">
         <v>83</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J19" t="n">
         <v>83</v>
@@ -27052,28 +27054,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D21" t="n">
         <v>76</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F21" t="n">
         <v>76</v>
       </c>
       <c r="G21" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H21" t="n">
         <v>76</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J21" t="n">
         <v>76</v>
@@ -27086,28 +27088,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>131044</v>
+        <v>140571</v>
       </c>
       <c r="C22" t="n">
-        <v>8276</v>
+        <v>17803</v>
       </c>
       <c r="D22" t="n">
         <v>122768</v>
       </c>
       <c r="E22" t="n">
-        <v>8276</v>
+        <v>17803</v>
       </c>
       <c r="F22" t="n">
         <v>122768</v>
       </c>
       <c r="G22" t="n">
-        <v>8276</v>
+        <v>17803</v>
       </c>
       <c r="H22" t="n">
         <v>122768</v>
       </c>
       <c r="I22" t="n">
-        <v>8276</v>
+        <v>17803</v>
       </c>
       <c r="J22" t="n">
         <v>122768</v>
@@ -28010,28 +28012,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1653175.416666665</v>
+        <v>1658854.583333332</v>
       </c>
       <c r="C3" t="n">
-        <v>12659.58333333186</v>
+        <v>18338.74999999907</v>
       </c>
       <c r="D3" t="n">
         <v>1640515.833333333</v>
       </c>
       <c r="E3" t="n">
-        <v>12659.58333333186</v>
+        <v>18338.74999999907</v>
       </c>
       <c r="F3" t="n">
         <v>1640515.833333333</v>
       </c>
       <c r="G3" t="n">
-        <v>12659.58333333186</v>
+        <v>18338.74999999907</v>
       </c>
       <c r="H3" t="n">
         <v>1640515.833333333</v>
       </c>
       <c r="I3" t="n">
-        <v>12659.58333333186</v>
+        <v>18338.74999999907</v>
       </c>
       <c r="J3" t="n">
         <v>1640515.833333333</v>
@@ -28044,28 +28046,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>337</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
         <v>337</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
         <v>337</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
         <v>337</v>
@@ -28078,28 +28080,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>173896</v>
+        <v>174326</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="D5" t="n">
         <v>173896</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="F5" t="n">
         <v>173896</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="H5" t="n">
         <v>173896</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="J5" t="n">
         <v>173896</v>
@@ -28112,28 +28114,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>619079</v>
+        <v>621022</v>
       </c>
       <c r="C6" t="n">
-        <v>5364</v>
+        <v>7307</v>
       </c>
       <c r="D6" t="n">
         <v>613715</v>
       </c>
       <c r="E6" t="n">
-        <v>5364</v>
+        <v>7307</v>
       </c>
       <c r="F6" t="n">
         <v>613715</v>
       </c>
       <c r="G6" t="n">
-        <v>5364</v>
+        <v>7307</v>
       </c>
       <c r="H6" t="n">
         <v>613715</v>
       </c>
       <c r="I6" t="n">
-        <v>5364</v>
+        <v>7307</v>
       </c>
       <c r="J6" t="n">
         <v>613715</v>
@@ -28146,28 +28148,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8905</v>
+        <v>8911</v>
       </c>
       <c r="C7" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D7" t="n">
         <v>8863</v>
       </c>
       <c r="E7" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F7" t="n">
         <v>8863</v>
       </c>
       <c r="G7" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H7" t="n">
         <v>8863</v>
       </c>
       <c r="I7" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J7" t="n">
         <v>8863</v>
@@ -28180,28 +28182,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
         <v>2212</v>
       </c>
       <c r="E8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="n">
         <v>2212</v>
       </c>
       <c r="G8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8" t="n">
         <v>2212</v>
       </c>
       <c r="I8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J8" t="n">
         <v>2212</v>
@@ -28214,28 +28216,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19254</v>
+        <v>19325</v>
       </c>
       <c r="C9" t="n">
-        <v>155</v>
+        <v>226</v>
       </c>
       <c r="D9" t="n">
         <v>19099</v>
       </c>
       <c r="E9" t="n">
-        <v>155</v>
+        <v>226</v>
       </c>
       <c r="F9" t="n">
         <v>19099</v>
       </c>
       <c r="G9" t="n">
-        <v>155</v>
+        <v>226</v>
       </c>
       <c r="H9" t="n">
         <v>19099</v>
       </c>
       <c r="I9" t="n">
-        <v>155</v>
+        <v>226</v>
       </c>
       <c r="J9" t="n">
         <v>19099</v>
@@ -28248,28 +28250,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6199</v>
+        <v>6200</v>
       </c>
       <c r="C10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" t="n">
         <v>6172</v>
       </c>
       <c r="E10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F10" t="n">
         <v>6172</v>
       </c>
       <c r="G10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H10" t="n">
         <v>6172</v>
       </c>
       <c r="I10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J10" t="n">
         <v>6172</v>
@@ -28282,28 +28284,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>238485</v>
+        <v>239163</v>
       </c>
       <c r="C11" t="n">
-        <v>1855</v>
+        <v>2533</v>
       </c>
       <c r="D11" t="n">
         <v>236630</v>
       </c>
       <c r="E11" t="n">
-        <v>1855</v>
+        <v>2533</v>
       </c>
       <c r="F11" t="n">
         <v>236630</v>
       </c>
       <c r="G11" t="n">
-        <v>1855</v>
+        <v>2533</v>
       </c>
       <c r="H11" t="n">
         <v>236630</v>
       </c>
       <c r="I11" t="n">
-        <v>1855</v>
+        <v>2533</v>
       </c>
       <c r="J11" t="n">
         <v>236630</v>
@@ -28350,28 +28352,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6341</v>
+        <v>6346</v>
       </c>
       <c r="C13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D13" t="n">
         <v>6312</v>
       </c>
       <c r="E13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F13" t="n">
         <v>6312</v>
       </c>
       <c r="G13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H13" t="n">
         <v>6312</v>
       </c>
       <c r="I13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J13" t="n">
         <v>6312</v>
@@ -28384,28 +28386,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13031</v>
+        <v>13101</v>
       </c>
       <c r="C14" t="n">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="D14" t="n">
         <v>12903</v>
       </c>
       <c r="E14" t="n">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="F14" t="n">
         <v>12903</v>
       </c>
       <c r="G14" t="n">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="H14" t="n">
         <v>12903</v>
       </c>
       <c r="I14" t="n">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="J14" t="n">
         <v>12903</v>
@@ -28418,28 +28420,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>28896</v>
+        <v>29007</v>
       </c>
       <c r="C15" t="n">
-        <v>255</v>
+        <v>366</v>
       </c>
       <c r="D15" t="n">
         <v>28641</v>
       </c>
       <c r="E15" t="n">
-        <v>255</v>
+        <v>366</v>
       </c>
       <c r="F15" t="n">
         <v>28641</v>
       </c>
       <c r="G15" t="n">
-        <v>255</v>
+        <v>366</v>
       </c>
       <c r="H15" t="n">
         <v>28641</v>
       </c>
       <c r="I15" t="n">
-        <v>255</v>
+        <v>366</v>
       </c>
       <c r="J15" t="n">
         <v>28641</v>
@@ -28452,28 +28454,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19900</v>
+        <v>19966</v>
       </c>
       <c r="C16" t="n">
-        <v>164</v>
+        <v>230</v>
       </c>
       <c r="D16" t="n">
         <v>19736</v>
       </c>
       <c r="E16" t="n">
-        <v>164</v>
+        <v>230</v>
       </c>
       <c r="F16" t="n">
         <v>19736</v>
       </c>
       <c r="G16" t="n">
-        <v>164</v>
+        <v>230</v>
       </c>
       <c r="H16" t="n">
         <v>19736</v>
       </c>
       <c r="I16" t="n">
-        <v>164</v>
+        <v>230</v>
       </c>
       <c r="J16" t="n">
         <v>19736</v>
@@ -28486,28 +28488,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="C17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17" t="n">
         <v>1967</v>
       </c>
       <c r="E17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F17" t="n">
         <v>1967</v>
       </c>
       <c r="G17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H17" t="n">
         <v>1967</v>
       </c>
       <c r="I17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J17" t="n">
         <v>1967</v>
@@ -28520,28 +28522,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7718</v>
+        <v>7758</v>
       </c>
       <c r="C18" t="n">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D18" t="n">
         <v>7633</v>
       </c>
       <c r="E18" t="n">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="F18" t="n">
         <v>7633</v>
       </c>
       <c r="G18" t="n">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="H18" t="n">
         <v>7633</v>
       </c>
       <c r="I18" t="n">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="J18" t="n">
         <v>7633</v>
@@ -28622,28 +28624,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1032</v>
+        <v>1037</v>
       </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D21" t="n">
         <v>1026</v>
       </c>
       <c r="E21" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F21" t="n">
         <v>1026</v>
       </c>
       <c r="G21" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H21" t="n">
         <v>1026</v>
       </c>
       <c r="I21" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J21" t="n">
         <v>1026</v>
@@ -28656,28 +28658,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1920371</v>
+        <v>1926165</v>
       </c>
       <c r="C22" t="n">
-        <v>16439</v>
+        <v>22233</v>
       </c>
       <c r="D22" t="n">
         <v>1903932</v>
       </c>
       <c r="E22" t="n">
-        <v>16439</v>
+        <v>22233</v>
       </c>
       <c r="F22" t="n">
         <v>1903932</v>
       </c>
       <c r="G22" t="n">
-        <v>16439</v>
+        <v>22233</v>
       </c>
       <c r="H22" t="n">
         <v>1903932</v>
       </c>
       <c r="I22" t="n">
-        <v>16439</v>
+        <v>22233</v>
       </c>
       <c r="J22" t="n">
         <v>1903932</v>
@@ -29747,6 +29749,1508 @@
       </c>
       <c r="I22" t="n">
         <v>732384</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="11" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B1" s="11" t="inlineStr">
+        <is>
+          <t>All-time</t>
+        </is>
+      </c>
+      <c r="C1" s="11" t="inlineStr">
+        <is>
+          <t>Session Delta</t>
+        </is>
+      </c>
+      <c r="D1" s="11" t="inlineStr">
+        <is>
+          <t>Session Snapshot</t>
+        </is>
+      </c>
+      <c r="E1" s="11" t="inlineStr">
+        <is>
+          <t>Daily Delta</t>
+        </is>
+      </c>
+      <c r="F1" s="11" t="inlineStr">
+        <is>
+          <t>Daily Snapshot</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>Yesterday Delta</t>
+        </is>
+      </c>
+      <c r="H1" s="11" t="inlineStr">
+        <is>
+          <t>Yesterday Snapshot</t>
+        </is>
+      </c>
+      <c r="I1" s="11" t="inlineStr">
+        <is>
+          <t>Monthly Delta</t>
+        </is>
+      </c>
+      <c r="J1" s="11" t="inlineStr">
+        <is>
+          <t>Monthly Snapshot</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>available_layers</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>experience</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>19791.66666666666</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-3.637978807091713e-12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19791.66666666666</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-3.637978807091713e-12</v>
+      </c>
+      <c r="F3" t="n">
+        <v>19791.66666666666</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-3.637978807091713e-12</v>
+      </c>
+      <c r="H3" t="n">
+        <v>19791.66666666666</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-3.637978807091713e-12</v>
+      </c>
+      <c r="J3" t="n">
+        <v>19791.66666666666</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>level</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>coins</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1030</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1030</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1030</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1030</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>damage_dealt</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3131</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3131</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3131</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3131</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>195</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>195</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>195</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>195</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>deaths_explosive</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>36</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>36</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>36</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>games_played</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>282</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>282</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>282</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>282</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>losses</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>100</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sheep_thrown</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2389</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2389</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2389</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2389</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>deaths_void</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>151</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>151</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>151</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>151</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>wins</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>182</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>182</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>182</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>182</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>kills</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>129</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>129</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>129</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>129</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>kills_void</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>94</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>94</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>94</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>94</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>magic_wool_hit</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>47</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>47</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>47</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>47</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>kills_explosive</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>33</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>33</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>33</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>33</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>deaths_melee</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>kills_bow</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>playtime</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>30508</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>30508</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>30508</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>30508</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>30508</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="11" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B1" s="11" t="inlineStr">
+        <is>
+          <t>All-time</t>
+        </is>
+      </c>
+      <c r="C1" s="11" t="inlineStr">
+        <is>
+          <t>Session Delta</t>
+        </is>
+      </c>
+      <c r="D1" s="11" t="inlineStr">
+        <is>
+          <t>Session Snapshot</t>
+        </is>
+      </c>
+      <c r="E1" s="11" t="inlineStr">
+        <is>
+          <t>Daily Delta</t>
+        </is>
+      </c>
+      <c r="F1" s="11" t="inlineStr">
+        <is>
+          <t>Daily Snapshot</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>Yesterday Delta</t>
+        </is>
+      </c>
+      <c r="H1" s="11" t="inlineStr">
+        <is>
+          <t>Yesterday Snapshot</t>
+        </is>
+      </c>
+      <c r="I1" s="11" t="inlineStr">
+        <is>
+          <t>Monthly Delta</t>
+        </is>
+      </c>
+      <c r="J1" s="11" t="inlineStr">
+        <is>
+          <t>Monthly Snapshot</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>available_layers</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>12</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>12</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>experience</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>58288.75000000006</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>58288.75000000006</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>58288.75000000006</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>58288.75000000006</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>58288.75000000006</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>level</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>14</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>14</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>coins</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9270</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9270</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9270</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>9270</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>9270</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>damage_dealt</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>14328</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14328</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>14328</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>14328</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>14328</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>280</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>280</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>280</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>280</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>deaths_explosive</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>51</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>51</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>51</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>51</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>games_played</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>562</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>562</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>562</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>562</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>losses</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>137</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>137</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>137</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>137</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sheep_thrown</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5309</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5309</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5309</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5309</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5309</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>deaths_bow</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>deaths_void</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>209</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>209</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>209</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>209</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>wins</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>425</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>425</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>425</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>425</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>kills</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>592</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>592</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>592</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>592</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>kills_void</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>362</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>362</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>362</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>362</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>magic_wool_hit</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>144</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>144</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>144</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>144</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>kills_explosive</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>172</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>172</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>172</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>172</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>kills_melee</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>19</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>19</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>19</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>19</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>deaths_melee</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>kills_bow</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>38</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>38</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>38</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>38</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>playtime</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>59075</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>59075</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>59075</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>59075</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>59075</v>
       </c>
     </row>
   </sheetData>
@@ -31433,28 +32937,28 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>-46</v>
+        <v>-38</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>46</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>-46</v>
+        <v>-38</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>46</v>
@@ -31467,28 +32971,28 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>5459822.916666678</v>
+        <v>5464187.916666677</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>58054.58333332837</v>
+        <v>62419.58333332743</v>
       </c>
       <c r="D3" s="6" t="n">
         <v>5401768.33333335</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1773.333333333954</v>
+        <v>6138.333333333023</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>5458049.583333344</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>178009.1666666586</v>
+        <v>182374.1666666577</v>
       </c>
       <c r="H3" s="6" t="n">
         <v>5281813.75000002</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>58054.58333332837</v>
+        <v>62419.58333332743</v>
       </c>
       <c r="J3" s="6" t="n">
         <v>5401768.33333335</v>
@@ -31501,28 +33005,28 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>1105</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>1116</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>1078</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>1105</v>
@@ -31535,28 +33039,28 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1403590</v>
+        <v>1404440</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10510</v>
+        <v>11360</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>1393080</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>200</v>
+        <v>1050</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>1403390</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>29420</v>
+        <v>30270</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>1374170</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>10510</v>
+        <v>11360</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>1393080</v>
@@ -32113,28 +33617,28 @@
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>4775847</v>
+        <v>4781619</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>77843</v>
+        <v>83615</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>4698004</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>2900</v>
+        <v>8672</v>
       </c>
       <c r="F22" s="4" t="n">
         <v>4772947</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>264202</v>
+        <v>269974</v>
       </c>
       <c r="H22" s="4" t="n">
         <v>4511645</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>77843</v>
+        <v>83615</v>
       </c>
       <c r="J22" s="4" t="n">
         <v>4698004</v>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -8578,28 +8578,28 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>-80</v>
+        <v>-78</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>80</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>-80</v>
+        <v>-78</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>80</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>-80</v>
+        <v>-78</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>80</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>-80</v>
+        <v>-78</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>80</v>
@@ -8612,28 +8612,28 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>2504099.583333332</v>
+        <v>2504317.083333332</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>16531.25</v>
+        <v>16748.75</v>
       </c>
       <c r="D3" s="6" t="n">
         <v>2487568.333333332</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>16531.25</v>
+        <v>16748.75</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>2487568.333333332</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>16531.25000000186</v>
+        <v>16748.75000000186</v>
       </c>
       <c r="H3" s="6" t="n">
         <v>2487568.33333333</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>16531.25</v>
+        <v>16748.75</v>
       </c>
       <c r="J3" s="6" t="n">
         <v>2487568.333333332</v>
@@ -8714,28 +8714,28 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>839957</v>
+        <v>840059</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>3626</v>
+        <v>3728</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>836331</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>3626</v>
+        <v>3728</v>
       </c>
       <c r="F6" s="4" t="n">
         <v>836331</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>3626</v>
+        <v>3728</v>
       </c>
       <c r="H6" s="4" t="n">
         <v>836331</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>3626</v>
+        <v>3728</v>
       </c>
       <c r="J6" s="4" t="n">
         <v>836331</v>
@@ -8748,28 +8748,28 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>9921</v>
+        <v>9922</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>9910</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" s="4" t="n">
         <v>9910</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H7" s="4" t="n">
         <v>9910</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J7" s="4" t="n">
         <v>9910</v>
@@ -8816,28 +8816,28 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>24693</v>
+        <v>24696</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>24580</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>24580</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H9" s="4" t="n">
         <v>24580</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J9" s="4" t="n">
         <v>24580</v>
@@ -8850,28 +8850,28 @@
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>6128</v>
+        <v>6129</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>6127</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="4" t="n">
         <v>6127</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="4" t="n">
         <v>6127</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" s="4" t="n">
         <v>6127</v>
@@ -8884,28 +8884,28 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>308880</v>
+        <v>308923</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>1212</v>
+        <v>1255</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>307668</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>1212</v>
+        <v>1255</v>
       </c>
       <c r="F11" s="4" t="n">
         <v>307668</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>1212</v>
+        <v>1255</v>
       </c>
       <c r="H11" s="4" t="n">
         <v>307668</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1212</v>
+        <v>1255</v>
       </c>
       <c r="J11" s="4" t="n">
         <v>307668</v>
@@ -8952,28 +8952,28 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>6816</v>
+        <v>6817</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>6807</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="4" t="n">
         <v>6807</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H13" s="4" t="n">
         <v>6807</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J13" s="4" t="n">
         <v>6807</v>
@@ -8986,28 +8986,28 @@
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>18547</v>
+        <v>18549</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>18435</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F14" s="4" t="n">
         <v>18435</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H14" s="4" t="n">
         <v>18435</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J14" s="4" t="n">
         <v>18435</v>
@@ -9020,28 +9020,28 @@
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>36036</v>
+        <v>36038</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>35842</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F15" s="4" t="n">
         <v>35842</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H15" s="4" t="n">
         <v>35842</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J15" s="4" t="n">
         <v>35842</v>
@@ -9054,28 +9054,28 @@
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>22936</v>
+        <v>22937</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>22815</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F16" s="4" t="n">
         <v>22815</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H16" s="4" t="n">
         <v>22815</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J16" s="4" t="n">
         <v>22815</v>
@@ -9088,28 +9088,28 @@
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>17800</v>
+        <v>17801</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>17711</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F17" s="4" t="n">
         <v>17711</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H17" s="4" t="n">
         <v>17711</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J17" s="4" t="n">
         <v>17711</v>
@@ -9122,28 +9122,28 @@
         </is>
       </c>
       <c r="B18" s="4" t="n">
-        <v>11576</v>
+        <v>11577</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>11514</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F18" s="4" t="n">
         <v>11514</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H18" s="4" t="n">
         <v>11514</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J18" s="4" t="n">
         <v>11514</v>
@@ -9258,28 +9258,28 @@
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>2844885</v>
+        <v>2845227</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>12927</v>
+        <v>13269</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>2831958</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>12927</v>
+        <v>13269</v>
       </c>
       <c r="F22" s="4" t="n">
         <v>2831958</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>12927</v>
+        <v>13269</v>
       </c>
       <c r="H22" s="4" t="n">
         <v>2831958</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>12927</v>
+        <v>13269</v>
       </c>
       <c r="J22" s="4" t="n">
         <v>2831958</v>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -30034,28 +30034,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65449.16666666675</v>
+        <v>65514.58333333342</v>
       </c>
       <c r="C3" t="n">
-        <v>7160.416666666693</v>
+        <v>7225.833333333358</v>
       </c>
       <c r="D3" t="n">
         <v>58288.75000000006</v>
       </c>
       <c r="E3" t="n">
-        <v>7160.416666666693</v>
+        <v>7225.833333333358</v>
       </c>
       <c r="F3" t="n">
         <v>58288.75000000006</v>
       </c>
       <c r="G3" t="n">
-        <v>7160.416666666693</v>
+        <v>7225.833333333358</v>
       </c>
       <c r="H3" t="n">
         <v>58288.75000000006</v>
       </c>
       <c r="I3" t="n">
-        <v>7160.416666666693</v>
+        <v>7225.833333333358</v>
       </c>
       <c r="J3" t="n">
         <v>58288.75000000006</v>
@@ -30136,28 +30136,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16832</v>
+        <v>16845</v>
       </c>
       <c r="C6" t="n">
-        <v>2504</v>
+        <v>2517</v>
       </c>
       <c r="D6" t="n">
         <v>14328</v>
       </c>
       <c r="E6" t="n">
-        <v>2504</v>
+        <v>2517</v>
       </c>
       <c r="F6" t="n">
         <v>14328</v>
       </c>
       <c r="G6" t="n">
-        <v>2504</v>
+        <v>2517</v>
       </c>
       <c r="H6" t="n">
         <v>14328</v>
       </c>
       <c r="I6" t="n">
-        <v>2504</v>
+        <v>2517</v>
       </c>
       <c r="J6" t="n">
         <v>14328</v>
@@ -30238,28 +30238,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C9" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D9" t="n">
         <v>562</v>
       </c>
       <c r="E9" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F9" t="n">
         <v>562</v>
       </c>
       <c r="G9" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H9" t="n">
         <v>562</v>
       </c>
       <c r="I9" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J9" t="n">
         <v>562</v>
@@ -30306,28 +30306,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6255</v>
+        <v>6263</v>
       </c>
       <c r="C11" t="n">
-        <v>946</v>
+        <v>954</v>
       </c>
       <c r="D11" t="n">
         <v>5309</v>
       </c>
       <c r="E11" t="n">
-        <v>946</v>
+        <v>954</v>
       </c>
       <c r="F11" t="n">
         <v>5309</v>
       </c>
       <c r="G11" t="n">
-        <v>946</v>
+        <v>954</v>
       </c>
       <c r="H11" t="n">
         <v>5309</v>
       </c>
       <c r="I11" t="n">
-        <v>946</v>
+        <v>954</v>
       </c>
       <c r="J11" t="n">
         <v>5309</v>
@@ -30408,28 +30408,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C14" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D14" t="n">
         <v>425</v>
       </c>
       <c r="E14" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F14" t="n">
         <v>425</v>
       </c>
       <c r="G14" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H14" t="n">
         <v>425</v>
       </c>
       <c r="I14" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J14" t="n">
         <v>425</v>
@@ -30442,28 +30442,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C15" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D15" t="n">
         <v>592</v>
       </c>
       <c r="E15" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F15" t="n">
         <v>592</v>
       </c>
       <c r="G15" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H15" t="n">
         <v>592</v>
       </c>
       <c r="I15" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J15" t="n">
         <v>592</v>
@@ -30646,28 +30646,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D21" t="n">
         <v>38</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="n">
         <v>38</v>
       </c>
       <c r="G21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H21" t="n">
         <v>38</v>
       </c>
       <c r="I21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J21" t="n">
         <v>38</v>
@@ -30680,28 +30680,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68412</v>
+        <v>68485</v>
       </c>
       <c r="C22" t="n">
-        <v>9337</v>
+        <v>9410</v>
       </c>
       <c r="D22" t="n">
         <v>59075</v>
       </c>
       <c r="E22" t="n">
-        <v>9337</v>
+        <v>9410</v>
       </c>
       <c r="F22" t="n">
         <v>59075</v>
       </c>
       <c r="G22" t="n">
-        <v>9337</v>
+        <v>9410</v>
       </c>
       <c r="H22" t="n">
         <v>59075</v>
       </c>
       <c r="I22" t="n">
-        <v>9337</v>
+        <v>9410</v>
       </c>
       <c r="J22" t="n">
         <v>59075</v>
